--- a/outdata/supp2014.xlsx
+++ b/outdata/supp2014.xlsx
@@ -65889,4 +65889,196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x0101001B5D64AB0C21E743B0946431DB85BECD" ma:contentTypeVersion="4" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="e8891e6613dc1e274f3bfe40586e2186">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d070ba9-5dd2-4ec6-9127-c85124792d21" xmlns:ns3="f6d38416-0c3a-40f5-a98e-64d30975dddf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8a6f819ee994c46a24c3d62cafa1a62" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d070ba9-5dd2-4ec6-9127-c85124792d21"/>
+    <xsd:import namespace="f6d38416-0c3a-40f5-a98e-64d30975dddf"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d070ba9-5dd2-4ec6-9127-c85124792d21" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f6d38416-0c3a-40f5-a98e-64d30975dddf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Jaettu" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Jakamisen tiedot" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821E11D1-956C-47E4-AD60-9CEAB65FB78F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A6159A-4B96-4639-AD93-F94B33E6C8E7}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A793C2-4F40-43D4-AC2C-67CE6017F132}"/>
 </file>
--- a/outdata/supp2014.xlsx
+++ b/outdata/supp2014.xlsx
@@ -66072,13 +66072,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821E11D1-956C-47E4-AD60-9CEAB65FB78F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAB7DDD-9A9F-4527-9432-09B53DB7F6F7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1A6159A-4B96-4639-AD93-F94B33E6C8E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14B2A866-5CCF-49E7-9BF5-28CCB266782D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46A793C2-4F40-43D4-AC2C-67CE6017F132}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA069E6D-D75F-49BD-80A3-AA6909AF0736}"/>
 </file>
--- a/outdata/supp2014.xlsx
+++ b/outdata/supp2014.xlsx
@@ -32,201 +32,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="35">
   <si>
-    <t>I_01</t>
+    <t>01 Maatalous ja metsästys</t>
   </si>
   <si>
-    <t>I_02_03</t>
+    <t>02_03 Metsätalous ja kalatalous</t>
   </si>
   <si>
-    <t>I_05_09</t>
+    <t>05_09 Kaivostoiminta ja louhinta</t>
   </si>
   <si>
-    <t>I_10_12</t>
+    <t>10_12 Elintarviketeollisuus ym.</t>
   </si>
   <si>
-    <t>I_13_15</t>
+    <t>13_15 Tekstiili-, vaatetus- ja nahkateollisuus</t>
   </si>
   <si>
-    <t>I_16</t>
+    <t>16 Puuteollisuus</t>
   </si>
   <si>
-    <t>I_17_18</t>
+    <t>17_18 Paperiteollisuus ja painaminen</t>
   </si>
   <si>
-    <t>I_19_22</t>
+    <t>19_22 Kemianteollisuus</t>
   </si>
   <si>
-    <t>I_23</t>
+    <t>23 Rakennusaineteollisuus</t>
   </si>
   <si>
-    <t>I_24_25</t>
+    <t>24_25 Metallien jalostus ja metallituotteiden valmistus (pl. koneet ja laitteet)</t>
   </si>
   <si>
-    <t>I_26_27</t>
+    <t>26_27 Sähkö- ja elektroniikkateollisuus</t>
   </si>
   <si>
-    <t>I_28</t>
+    <t>28 Muiden koneiden ja laitteiden valmistus</t>
   </si>
   <si>
-    <t>I_29_30</t>
+    <t>29_30 Kulkuneuvojen valmistus</t>
   </si>
   <si>
-    <t>I_31_33</t>
+    <t>31_33 Huonekalujen valmistus: Muu teollinen valmistus: Koneiden ja laitteiden korjaus, huolto ja ase</t>
   </si>
   <si>
-    <t>I_35_39</t>
+    <t>35_39 Energiahuolto: Vesi- ja jätehuolto</t>
   </si>
   <si>
-    <t>I_41_43</t>
+    <t>41_43 Rakentaminen</t>
   </si>
   <si>
-    <t>I_45_47</t>
+    <t>45_47 Tukku- ja vähittäiskauppa, moottoriajoneuvojen ja moottoripyörien korjaus</t>
   </si>
   <si>
-    <t>I_49_53</t>
+    <t>49_53 Kuljetus ja varastointi</t>
   </si>
   <si>
-    <t>I_55_56</t>
+    <t>55_56 Majoitus- ja ravitsemistoiminta</t>
   </si>
   <si>
-    <t>I_58_63</t>
+    <t>58_63 Kustannustoiminta: Audiovisuaalinen toiminta: Televiestintä: Tietojenkäsittelypalvelu</t>
   </si>
   <si>
-    <t>I_64_66</t>
+    <t>64_66 Rahoitus- ja vakuutustoiminta</t>
   </si>
   <si>
-    <t>I_68</t>
+    <t>681+68209+683 Muu kiinteistötoiminta</t>
   </si>
   <si>
-    <t>I_68A</t>
+    <t>68201_68202 Asuntojen vuokraus ja hallinta</t>
   </si>
   <si>
-    <t>I_69_75</t>
+    <t>69_75 Ammatillinen, tieteellinen ja tekninen toiminta</t>
   </si>
   <si>
-    <t>I_77_82</t>
+    <t>77_82 Hallinto- ja tukipalvelutoiminta</t>
   </si>
   <si>
-    <t>I_84</t>
+    <t>84 Julkinen hallinto ja sosiaalivakuutus</t>
   </si>
   <si>
-    <t>I_85</t>
+    <t>85 Koulutus</t>
   </si>
   <si>
-    <t>I_86_88</t>
+    <t>86_88 Terveys- ja sosiaalipalvelut</t>
   </si>
   <si>
-    <t>I_90_96</t>
+    <t>90_96 Taiteet, viihde ja virkistys: Muu palvelutoiminta</t>
   </si>
   <si>
-    <t>I_97_98</t>
+    <t>97_98 Kotitalouspalvelut</t>
   </si>
   <si>
-    <t>Total output</t>
+    <t>0 Toimialat yhteensä</t>
   </si>
   <si>
-    <t>Imports regional</t>
+    <t>Tuonti Suomesta</t>
   </si>
   <si>
-    <t>Imports foreign</t>
+    <t>Tuonti ulkomailta</t>
   </si>
   <si>
-    <t>Total supply</t>
+    <t>Tarjonta yhteensä perushintaan</t>
   </si>
   <si>
-    <t>C_01</t>
-  </si>
-  <si>
-    <t>C_02_03</t>
-  </si>
-  <si>
-    <t>C_05_09</t>
-  </si>
-  <si>
-    <t>C_10_12</t>
-  </si>
-  <si>
-    <t>C_13_15</t>
-  </si>
-  <si>
-    <t>C_16</t>
-  </si>
-  <si>
-    <t>C_17_18</t>
-  </si>
-  <si>
-    <t>C_19_22</t>
-  </si>
-  <si>
-    <t>C_23</t>
-  </si>
-  <si>
-    <t>C_24_25</t>
-  </si>
-  <si>
-    <t>C_26_27</t>
-  </si>
-  <si>
-    <t>C_28</t>
-  </si>
-  <si>
-    <t>C_29_30</t>
-  </si>
-  <si>
-    <t>C_31_33</t>
-  </si>
-  <si>
-    <t>C_35_39</t>
-  </si>
-  <si>
-    <t>C_41_43</t>
-  </si>
-  <si>
-    <t>C_45_47</t>
-  </si>
-  <si>
-    <t>C_49_53</t>
-  </si>
-  <si>
-    <t>C_55_56</t>
-  </si>
-  <si>
-    <t>C_58_63</t>
-  </si>
-  <si>
-    <t>C_64_66</t>
-  </si>
-  <si>
-    <t>C_68</t>
-  </si>
-  <si>
-    <t>C_68A</t>
-  </si>
-  <si>
-    <t>C_69_75</t>
-  </si>
-  <si>
-    <t>C_77_82</t>
-  </si>
-  <si>
-    <t>C_84</t>
-  </si>
-  <si>
-    <t>C_85</t>
-  </si>
-  <si>
-    <t>C_86_88</t>
-  </si>
-  <si>
-    <t>C_90_96</t>
-  </si>
-  <si>
-    <t>C_97_98</t>
-  </si>
-  <si>
-    <t>Products total</t>
+    <t>Tuotteet yhteensä</t>
   </si>
 </sst>
 </file>
@@ -705,7 +615,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>211.1647644042969</v>
@@ -812,7 +722,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1393903344869614</v>
@@ -919,7 +829,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -1026,7 +936,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.7591239809989929</v>
@@ -1133,7 +1043,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1240,7 +1150,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.7965156435966492</v>
@@ -1347,7 +1257,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1454,7 +1364,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1561,7 +1471,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1668,7 +1578,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1775,7 +1685,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1882,7 +1792,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1989,7 +1899,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2096,7 +2006,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2203,7 +2113,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -2310,7 +2220,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -2417,7 +2327,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.2914765477180481</v>
@@ -2524,7 +2434,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2631,7 +2541,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>2.077543497085571</v>
@@ -2738,7 +2648,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -2845,7 +2755,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -2952,7 +2862,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -3059,7 +2969,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3166,7 +3076,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.0998079776763916</v>
@@ -3273,7 +3183,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>21.84408378601074</v>
@@ -3380,7 +3290,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3487,7 +3397,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3594,7 +3504,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -3701,7 +3611,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -3808,7 +3718,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3915,7 +3825,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>237.1726989746094</v>
@@ -4142,7 +4052,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>307.4968566894531</v>
@@ -4249,7 +4159,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.2029793709516525</v>
@@ -4356,7 +4266,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -4463,7 +4373,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.105431914329529</v>
@@ -4570,7 +4480,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -4677,7 +4587,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1.159881353378296</v>
@@ -4784,7 +4694,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -4891,7 +4801,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -4998,7 +4908,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -5105,7 +5015,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -5212,7 +5122,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -5319,7 +5229,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -5426,7 +5336,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -5533,7 +5443,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5640,7 +5550,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -5747,7 +5657,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5854,7 +5764,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.4244464039802551</v>
@@ -5961,7 +5871,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -6068,7 +5978,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>3.025306224822998</v>
@@ -6175,7 +6085,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -6282,7 +6192,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -6389,7 +6299,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -6496,7 +6406,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -6603,7 +6513,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1453398019075394</v>
@@ -6710,7 +6620,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>31.80922317504883</v>
@@ -6817,7 +6727,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -6924,7 +6834,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -7031,7 +6941,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -7138,7 +7048,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -7245,7 +7155,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7352,7 +7262,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>345.3694458007812</v>
@@ -7579,7 +7489,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>155.3058319091797</v>
@@ -7686,7 +7596,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.102517731487751</v>
@@ -7793,7 +7703,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -7900,7 +7810,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.5583146810531616</v>
@@ -8007,7 +7917,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -8114,7 +8024,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.5858151912689209</v>
@@ -8221,7 +8131,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -8328,7 +8238,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -8435,7 +8345,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -8542,7 +8452,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -8649,7 +8559,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -8756,7 +8666,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -8863,7 +8773,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -8970,7 +8880,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -9077,7 +8987,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -9184,7 +9094,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -9291,7 +9201,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.214372918009758</v>
@@ -9398,7 +9308,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -9505,7 +9415,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.527975559234619</v>
@@ -9612,7 +9522,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -9719,7 +9629,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -9826,7 +9736,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -9933,7 +9843,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -10040,7 +9950,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.07340601086616516</v>
@@ -10147,7 +10057,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>16.06571769714355</v>
@@ -10254,7 +10164,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -10361,7 +10271,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -10468,7 +10378,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -10575,7 +10485,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -10682,7 +10592,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -10789,7 +10699,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>174.4339599609375</v>
@@ -11016,7 +10926,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>134.3072052001953</v>
@@ -11123,7 +11033,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08865649253129959</v>
@@ -11230,7 +11140,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -11337,7 +11247,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.4828259646892548</v>
@@ -11444,7 +11354,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -11551,7 +11461,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.5066081881523132</v>
@@ -11658,7 +11568,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -11765,7 +11675,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -11872,7 +11782,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -11979,7 +11889,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -12086,7 +11996,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -12193,7 +12103,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -12300,7 +12210,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -12407,7 +12317,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -12514,7 +12424,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -12621,7 +12531,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -12728,7 +12638,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1853879392147064</v>
@@ -12835,7 +12745,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -12942,7 +12852,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.321380734443665</v>
@@ -13049,7 +12959,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -13156,7 +13066,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -13263,7 +13173,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -13370,7 +13280,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -13477,7 +13387,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.0634809136390686</v>
@@ -13584,7 +13494,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.89350032806396</v>
@@ -13691,7 +13601,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -13798,7 +13708,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -13905,7 +13815,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -14012,7 +13922,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -14119,7 +14029,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -14226,7 +14136,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>150.8490295410156</v>
@@ -14453,7 +14363,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>553.1566162109375</v>
@@ -14560,7 +14470,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.3651399314403534</v>
@@ -14667,7 +14577,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -14774,7 +14684,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.988563060760498</v>
@@ -14881,7 +14791,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -14988,7 +14898,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2.086512565612793</v>
@@ -15095,7 +15005,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -15202,7 +15112,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -15309,7 +15219,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -15416,7 +15326,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -15523,7 +15433,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -15630,7 +15540,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -15737,7 +15647,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -15844,7 +15754,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -15951,7 +15861,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -16058,7 +15968,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -16165,7 +16075,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.7635372877120972</v>
@@ -16272,7 +16182,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -16379,7 +16289,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>5.442228317260742</v>
@@ -16486,7 +16396,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -16593,7 +16503,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -16700,7 +16610,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -16807,7 +16717,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -16914,7 +16824,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2614519894123077</v>
@@ -17021,7 +16931,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>57.22166442871094</v>
@@ -17128,7 +17038,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -17235,7 +17145,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -17342,7 +17252,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -17449,7 +17359,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -17556,7 +17466,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -17663,7 +17573,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>621.2857055664062</v>
@@ -17890,7 +17800,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>441.3605651855469</v>
@@ -17997,7 +17907,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.291343092918396</v>
@@ -18104,7 +18014,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -18211,7 +18121,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.586663484573364</v>
@@ -18318,7 +18228,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -18425,7 +18335,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1.664816617965698</v>
@@ -18532,7 +18442,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -18639,7 +18549,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -18746,7 +18656,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -18853,7 +18763,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -18960,7 +18870,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -19067,7 +18977,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -19174,7 +19084,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -19281,7 +19191,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -19388,7 +19298,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -19495,7 +19405,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -19602,7 +19512,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.6092221736907959</v>
@@ -19709,7 +19619,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -19816,7 +19726,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4.342323780059814</v>
@@ -19923,7 +19833,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -20030,7 +19940,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -20137,7 +20047,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -20244,7 +20154,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -20351,7 +20261,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2086110711097717</v>
@@ -20458,7 +20368,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>45.65684509277344</v>
@@ -20565,7 +20475,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -20672,7 +20582,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -20779,7 +20689,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -20886,7 +20796,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -20993,7 +20903,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -21100,7 +21010,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>495.7203979492188</v>
@@ -21327,7 +21237,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>195.7012023925781</v>
@@ -21434,7 +21344,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1291828006505966</v>
@@ -21541,7 +21451,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -21648,7 +21558,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.7035335302352905</v>
@@ -21755,7 +21665,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -21862,7 +21772,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.7381869554519653</v>
@@ -21969,7 +21879,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -22076,7 +21986,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -22183,7 +22093,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -22290,7 +22200,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -22397,7 +22307,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -22504,7 +22414,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -22611,7 +22521,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -22718,7 +22628,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -22825,7 +22735,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -22932,7 +22842,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -23039,7 +22949,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.2701317667961121</v>
@@ -23146,7 +23056,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -23253,7 +23163,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.925405383110046</v>
@@ -23360,7 +23270,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -23467,7 +23377,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -23574,7 +23484,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -23681,7 +23591,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -23788,7 +23698,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.09249905496835709</v>
@@ -23895,7 +23805,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>20.24444389343262</v>
@@ -24002,7 +23912,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -24109,7 +24019,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -24216,7 +24126,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -24323,7 +24233,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -24430,7 +24340,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -24537,7 +24447,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>219.8045806884766</v>
@@ -24764,7 +24674,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>418.0290832519531</v>
@@ -24871,7 +24781,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.27594193816185</v>
@@ -24978,7 +24888,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -25085,7 +24995,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.502788305282593</v>
@@ -25192,7 +25102,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -25299,7 +25209,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1.576810002326965</v>
@@ -25406,7 +25316,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -25513,7 +25423,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -25620,7 +25530,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -25727,7 +25637,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -25834,7 +25744,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -25941,7 +25851,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -26048,7 +25958,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -26155,7 +26065,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -26262,7 +26172,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -26369,7 +26279,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -26476,7 +26386,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.577017068862915</v>
@@ -26583,7 +26493,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -26690,7 +26600,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4.112776756286621</v>
@@ -26797,7 +26707,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -26904,7 +26814,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -27011,7 +26921,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -27118,7 +27028,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -27225,7 +27135,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1975833475589752</v>
@@ -27332,7 +27242,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>43.24330520629883</v>
@@ -27439,7 +27349,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -27546,7 +27456,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -27653,7 +27563,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -27760,7 +27670,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -27867,7 +27777,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -27974,7 +27884,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>469.5152893066406</v>
@@ -28201,7 +28111,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>62.99147033691406</v>
@@ -28308,7 +28218,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.04158081859350204</v>
@@ -28415,7 +28325,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -28522,7 +28432,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.2264503836631775</v>
@@ -28629,7 +28539,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -28736,7 +28646,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.237604483962059</v>
@@ -28843,7 +28753,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -28950,7 +28860,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -29057,7 +28967,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -29164,7 +29074,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -29271,7 +29181,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -29378,7 +29288,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -29485,7 +29395,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -29592,7 +29502,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -29699,7 +29609,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -29806,7 +29716,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -29913,7 +29823,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.08694887161254883</v>
@@ -30020,7 +29930,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -30127,7 +30037,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.6197413206100464</v>
@@ -30234,7 +30144,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -30341,7 +30251,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -30448,7 +30358,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -30555,7 +30465,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -30662,7 +30572,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.02977320551872253</v>
@@ -30769,7 +30679,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>6.516196250915527</v>
@@ -30876,7 +30786,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -30983,7 +30893,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -31090,7 +31000,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -31197,7 +31107,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -31304,7 +31214,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -31411,7 +31321,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>70.74976348876953</v>
@@ -31638,7 +31548,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>93.51556396484375</v>
@@ -31745,7 +31655,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.06172983720898628</v>
@@ -31852,7 +31762,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -31959,7 +31869,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.336182564496994</v>
@@ -32066,7 +31976,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -32173,7 +32083,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3527416884899139</v>
@@ -32280,7 +32190,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -32387,7 +32297,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -32494,7 +32404,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -32601,7 +32511,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -32708,7 +32618,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -32815,7 +32725,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -32922,7 +32832,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -33029,7 +32939,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -33136,7 +33046,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -33243,7 +33153,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -33350,7 +33260,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1290820986032486</v>
@@ -33457,7 +33367,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -33564,7 +33474,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.9200524687767029</v>
@@ -33671,7 +33581,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -33778,7 +33688,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -33885,7 +33795,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -33992,7 +33902,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -34099,7 +34009,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.04420055821537971</v>
@@ -34206,7 +34116,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>9.67378044128418</v>
@@ -34313,7 +34223,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -34420,7 +34330,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -34527,7 +34437,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -34634,7 +34544,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -34741,7 +34651,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -34848,7 +34758,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>105.033332824707</v>
@@ -35075,7 +34985,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>32.68760681152344</v>
@@ -35182,7 +35092,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02157716080546379</v>
@@ -35289,7 +35199,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -35396,7 +35306,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.1175098717212677</v>
@@ -35503,7 +35413,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -35610,7 +35520,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1232979819178581</v>
@@ -35717,7 +35627,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -35824,7 +35734,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -35931,7 +35841,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -36038,7 +35948,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -36145,7 +36055,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -36252,7 +36162,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -36359,7 +36269,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -36466,7 +36376,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -36573,7 +36483,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -36680,7 +36590,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -36787,7 +36697,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.04511959850788116</v>
@@ -36894,7 +36804,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -37001,7 +36911,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.3215968012809753</v>
@@ -37108,7 +37018,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -37215,7 +37125,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -37322,7 +37232,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -37429,7 +37339,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -37536,7 +37446,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.0154499439522624</v>
@@ -37643,7 +37553,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>3.381391525268555</v>
@@ -37750,7 +37660,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -37857,7 +37767,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -37964,7 +37874,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -38071,7 +37981,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -38178,7 +38088,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -38285,7 +38195,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>36.71355438232422</v>
@@ -38512,7 +38422,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>536.6976318359375</v>
@@ -38619,7 +38529,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.3542753159999847</v>
@@ -38726,7 +38636,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -38833,7 +38743,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1.929394125938416</v>
@@ -38940,7 +38850,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -39047,7 +38957,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>2.024429082870483</v>
@@ -39154,7 +39064,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -39261,7 +39171,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -39368,7 +39278,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -39475,7 +39385,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -39582,7 +39492,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -39689,7 +39599,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -39796,7 +39706,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -39903,7 +39813,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -40010,7 +39920,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -40117,7 +40027,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -40224,7 +40134,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.7408185005187988</v>
@@ -40331,7 +40241,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -40438,7 +40348,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>5.280296325683594</v>
@@ -40545,7 +40455,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -40652,7 +40562,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -40759,7 +40669,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -40866,7 +40776,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -40973,7 +40883,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.2536725699901581</v>
@@ -41080,7 +40990,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>55.51905059814453</v>
@@ -41187,7 +41097,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -41294,7 +41204,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -41401,7 +41311,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -41508,7 +41418,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -41615,7 +41525,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -41722,7 +41632,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>602.7994995117188</v>
@@ -41949,7 +41859,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>263.412109375</v>
@@ -42056,7 +41966,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1738789081573486</v>
@@ -42163,7 +42073,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -42270,7 +42180,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.94694983959198</v>
@@ -42377,7 +42287,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -42484,7 +42394,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.993593156337738</v>
@@ -42591,7 +42501,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -42698,7 +42608,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -42805,7 +42715,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -42912,7 +42822,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -43019,7 +42929,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -43126,7 +43036,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -43233,7 +43143,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -43340,7 +43250,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -43447,7 +43357,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -43554,7 +43464,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -43661,7 +43571,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.3635949790477753</v>
@@ -43768,7 +43678,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -43875,7 +43785,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>2.591578483581543</v>
@@ -43982,7 +43892,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -44089,7 +43999,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -44196,7 +44106,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -44303,7 +44213,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -44410,7 +44320,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.124502919614315</v>
@@ -44517,7 +44427,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>27.24884414672852</v>
@@ -44624,7 +44534,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -44731,7 +44641,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -44838,7 +44748,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -44945,7 +44855,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -45052,7 +44962,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -45159,7 +45069,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>295.8550720214844</v>
@@ -45386,7 +45296,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>134.8360290527344</v>
@@ -45493,7 +45403,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.08900556713342667</v>
@@ -45600,7 +45510,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -45707,7 +45617,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.4847269952297211</v>
@@ -45814,7 +45724,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -45921,7 +45831,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.5086028575897217</v>
@@ -46028,7 +45938,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -46135,7 +46045,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -46242,7 +46152,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -46349,7 +46259,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -46456,7 +46366,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -46563,7 +46473,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -46670,7 +46580,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -46777,7 +46687,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -46884,7 +46794,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -46991,7 +46901,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -47098,7 +47008,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.186117872595787</v>
@@ -47205,7 +47115,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -47312,7 +47222,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.326583504676819</v>
@@ -47419,7 +47329,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -47526,7 +47436,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -47633,7 +47543,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -47740,7 +47650,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -47847,7 +47757,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.0637308657169342</v>
@@ -47954,7 +47864,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.94820404052734</v>
@@ -48061,7 +47971,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -48168,7 +48078,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -48275,7 +48185,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -48382,7 +48292,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -48489,7 +48399,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -48596,7 +48506,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>151.4429931640625</v>
@@ -48823,7 +48733,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>244.8170623779297</v>
@@ -48930,7 +48840,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1616043001413345</v>
@@ -49037,7 +48947,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -49144,7 +49054,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.8801019191741943</v>
@@ -49251,7 +49161,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -49358,7 +49268,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.9234525561332703</v>
@@ -49465,7 +49375,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -49572,7 +49482,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -49679,7 +49589,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -49786,7 +49696,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -49893,7 +49803,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -50000,7 +49910,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -50107,7 +50017,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -50214,7 +50124,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -50321,7 +50231,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -50428,7 +50338,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -50535,7 +50445,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.3379277884960175</v>
@@ -50642,7 +50552,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -50749,7 +50659,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>2.408631801605225</v>
@@ -50856,7 +50766,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -50963,7 +50873,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -51070,7 +50980,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -51177,7 +51087,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -51284,7 +51194,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.1157139018177986</v>
@@ -51391,7 +51301,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>25.32527160644531</v>
@@ -51498,7 +51408,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -51605,7 +51515,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -51712,7 +51622,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -51819,7 +51729,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -51926,7 +51836,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -52033,7 +51943,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>274.9697265625</v>
@@ -52260,7 +52170,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>112.3547668457031</v>
@@ -52367,7 +52277,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.07416563481092453</v>
@@ -52474,7 +52384,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -52581,7 +52491,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.4039083123207092</v>
@@ -52688,7 +52598,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -52795,7 +52705,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.4238033592700958</v>
@@ -52902,7 +52812,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -53009,7 +52919,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -53116,7 +53026,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -53223,7 +53133,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -53330,7 +53240,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -53437,7 +53347,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -53544,7 +53454,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -53651,7 +53561,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -53758,7 +53668,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -53865,7 +53775,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -53972,7 +53882,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1550863832235336</v>
@@ -54079,7 +53989,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -54186,7 +54096,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.105401873588562</v>
@@ -54293,7 +54203,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -54400,7 +54310,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -54507,7 +54417,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -54614,7 +54524,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -54721,7 +54631,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.05310499295592308</v>
@@ -54828,7 +54738,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>11.62261581420898</v>
@@ -54935,7 +54845,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -55042,7 +54952,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -55149,7 +55059,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -55256,7 +55166,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -55363,7 +55273,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -55470,7 +55380,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>126.1928558349609</v>
@@ -55697,7 +55607,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>92.95139312744141</v>
@@ -55804,7 +55714,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.06135743111371994</v>
@@ -55911,7 +55821,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -56018,7 +55928,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.3341544270515442</v>
@@ -56125,7 +56035,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -56232,7 +56142,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.3506136536598206</v>
@@ -56339,7 +56249,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -56446,7 +56356,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -56553,7 +56463,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -56660,7 +56570,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -56767,7 +56677,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -56874,7 +56784,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -56981,7 +56891,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -57088,7 +56998,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -57195,7 +57105,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -57302,7 +57212,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -57409,7 +57319,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1283033639192581</v>
@@ -57516,7 +57426,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -57623,7 +57533,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.914501965045929</v>
@@ -57730,7 +57640,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -57837,7 +57747,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -57944,7 +57854,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -58051,7 +57961,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -58158,7 +58068,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.04393390193581581</v>
@@ -58265,7 +58175,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>9.615420341491699</v>
@@ -58372,7 +58282,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -58479,7 +58389,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -58586,7 +58496,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -58693,7 +58603,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -58800,7 +58710,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -58907,7 +58817,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>104.3996810913086</v>
@@ -59134,7 +59044,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>74.81748199462891</v>
@@ -59241,7 +59151,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.04938718304038048</v>
@@ -59348,7 +59258,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -59455,7 +59365,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.2689641416072845</v>
@@ -59562,7 +59472,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -59669,7 +59579,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.2822123169898987</v>
@@ -59776,7 +59686,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -59883,7 +59793,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -59990,7 +59900,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -60097,7 +60007,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -60204,7 +60114,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -60311,7 +60221,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -60418,7 +60328,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -60525,7 +60435,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -60632,7 +60542,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -60739,7 +60649,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -60846,7 +60756,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.1032726243138313</v>
@@ -60953,7 +60863,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -61060,7 +60970,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.7360913753509521</v>
@@ -61167,7 +61077,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -61274,7 +61184,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -61381,7 +61291,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -61488,7 +61398,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -61595,7 +61505,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.03536282107234001</v>
@@ -61702,7 +61612,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>7.73954439163208</v>
@@ -61809,7 +61719,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -61916,7 +61826,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -62023,7 +61933,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -62130,7 +62040,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -62237,7 +62147,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -62344,7 +62254,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>84.03231811523438</v>
@@ -62571,7 +62481,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>185.7778778076172</v>
@@ -62678,7 +62588,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.1226323992013931</v>
@@ -62785,7 +62695,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -62892,7 +62802,7 @@
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.6678597927093506</v>
@@ -62999,7 +62909,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -63106,7 +63016,7 @@
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.7007560729980469</v>
@@ -63213,7 +63123,7 @@
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -63320,7 +63230,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -63427,7 +63337,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -63534,7 +63444,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -63641,7 +63551,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -63748,7 +63658,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -63855,7 +63765,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -63962,7 +63872,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -64069,7 +63979,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -64176,7 +64086,7 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -64283,7 +64193,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.2564343214035034</v>
@@ -64390,7 +64300,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -64497,7 +64407,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1.8277747631073</v>
@@ -64604,7 +64514,7 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -64711,7 +64621,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -64818,7 +64728,7 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -64925,7 +64835,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -65032,7 +64942,7 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.0878087505698204</v>
@@ -65139,7 +65049,7 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>19.21791839599609</v>
@@ -65246,7 +65156,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -65353,7 +65263,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -65460,7 +65370,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -65567,7 +65477,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -65674,7 +65584,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -65781,7 +65691,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>208.6590881347656</v>
@@ -66072,13 +65982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAB7DDD-9A9F-4527-9432-09B53DB7F6F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27901529-C163-4967-BF4A-AC166FA8ED9B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14B2A866-5CCF-49E7-9BF5-28CCB266782D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3958974-0B6F-4463-A64F-FF5D8C232AA9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA069E6D-D75F-49BD-80A3-AA6909AF0736}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5C2CC7-36AB-4048-9C1F-CCB7B62DEFDF}"/>
 </file>
--- a/outdata/supp2014.xlsx
+++ b/outdata/supp2014.xlsx
@@ -714,10 +714,10 @@
         <v>1014.198608398438</v>
       </c>
       <c r="AH2" s="1">
-        <v>395.5955810546875</v>
+        <v>378.7336730957031</v>
       </c>
       <c r="AI2" s="1">
-        <v>1654.27001953125</v>
+        <v>1637.408081054688</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -821,10 +821,10 @@
         <v>414.5818786621094</v>
       </c>
       <c r="AH3" s="1">
-        <v>96.4462890625</v>
+        <v>96.60413360595703</v>
       </c>
       <c r="AI3" s="1">
-        <v>753.2384643554688</v>
+        <v>753.3963012695312</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -928,10 +928,10 @@
         <v>666.9542846679688</v>
       </c>
       <c r="AH4" s="1">
-        <v>3783.382568359375</v>
+        <v>3768.810302734375</v>
       </c>
       <c r="AI4" s="1">
-        <v>4743.9365234375</v>
+        <v>4729.3642578125</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1035,10 +1035,10 @@
         <v>1072.958984375</v>
       </c>
       <c r="AH5" s="1">
-        <v>1371.663330078125</v>
+        <v>1379.137451171875</v>
       </c>
       <c r="AI5" s="1">
-        <v>5277.79931640625</v>
+        <v>5285.2734375</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1142,10 +1142,10 @@
         <v>267.7890014648438</v>
       </c>
       <c r="AH6" s="1">
-        <v>895.8721923828125</v>
+        <v>880.4261474609375</v>
       </c>
       <c r="AI6" s="1">
-        <v>1326.400024414062</v>
+        <v>1310.953979492188</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1249,10 +1249,10 @@
         <v>1505.201293945312</v>
       </c>
       <c r="AH7" s="1">
-        <v>152.5874633789062</v>
+        <v>154.3143310546875</v>
       </c>
       <c r="AI7" s="1">
-        <v>1905.451904296875</v>
+        <v>1907.1787109375</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1356,10 +1356,10 @@
         <v>2623.022705078125</v>
       </c>
       <c r="AH8" s="1">
-        <v>386.1123046875</v>
+        <v>395.2408447265625</v>
       </c>
       <c r="AI8" s="1">
-        <v>4813.43896484375</v>
+        <v>4822.5673828125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1463,10 +1463,10 @@
         <v>315.3893127441406</v>
       </c>
       <c r="AH9" s="1">
-        <v>4999.5634765625</v>
+        <v>4746.0029296875</v>
       </c>
       <c r="AI9" s="1">
-        <v>16335.830078125</v>
+        <v>16082.26953125</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1570,10 +1570,10 @@
         <v>308.8952331542969</v>
       </c>
       <c r="AH10" s="1">
-        <v>234.3166809082031</v>
+        <v>229.4387512207031</v>
       </c>
       <c r="AI10" s="1">
-        <v>1135.488647460938</v>
+        <v>1130.610717773438</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1677,10 +1677,10 @@
         <v>2439.0205078125</v>
       </c>
       <c r="AH11" s="1">
-        <v>1294.409057617188</v>
+        <v>1333.522583007812</v>
       </c>
       <c r="AI11" s="1">
-        <v>5714.60986328125</v>
+        <v>5753.72314453125</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1784,10 +1784,10 @@
         <v>257.6906127929688</v>
       </c>
       <c r="AH12" s="1">
-        <v>3105.49609375</v>
+        <v>3015.53955078125</v>
       </c>
       <c r="AI12" s="1">
-        <v>7358.5771484375</v>
+        <v>7268.6201171875</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1891,10 +1891,10 @@
         <v>1095.89990234375</v>
       </c>
       <c r="AH13" s="1">
-        <v>1749.28076171875</v>
+        <v>1806.26708984375</v>
       </c>
       <c r="AI13" s="1">
-        <v>5329.1025390625</v>
+        <v>5386.0888671875</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1998,10 +1998,10 @@
         <v>784.1832885742188</v>
       </c>
       <c r="AH14" s="1">
-        <v>1548.476318359375</v>
+        <v>1570.582153320312</v>
       </c>
       <c r="AI14" s="1">
-        <v>2658.1787109375</v>
+        <v>2680.28466796875</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2105,10 +2105,10 @@
         <v>460.6312866210938</v>
       </c>
       <c r="AH15" s="1">
-        <v>619.5883178710938</v>
+        <v>632.5493774414062</v>
       </c>
       <c r="AI15" s="1">
-        <v>2706.0927734375</v>
+        <v>2719.0537109375</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2212,10 +2212,10 @@
         <v>374.043701171875</v>
       </c>
       <c r="AH16" s="1">
-        <v>548.9431762695312</v>
+        <v>549.1124267578125</v>
       </c>
       <c r="AI16" s="1">
-        <v>4502.92578125</v>
+        <v>4503.0947265625</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2423,13 +2423,13 @@
         <v>15895.591796875</v>
       </c>
       <c r="AG18" s="1">
-        <v>62.0318603515625</v>
+        <v>62.0328369140625</v>
       </c>
       <c r="AH18" s="1">
-        <v>481.4225769042969</v>
+        <v>516.66455078125</v>
       </c>
       <c r="AI18" s="1">
-        <v>16439.046875</v>
+        <v>16474.2890625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2530,13 +2530,13 @@
         <v>10325.2724609375</v>
       </c>
       <c r="AG19" s="1">
-        <v>427.4417419433594</v>
+        <v>427.4412536621094</v>
       </c>
       <c r="AH19" s="1">
-        <v>1066.640625</v>
+        <v>1002.099548339844</v>
       </c>
       <c r="AI19" s="1">
-        <v>11819.3544921875</v>
+        <v>11754.8134765625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2640,10 +2640,10 @@
         <v>148.2282104492188</v>
       </c>
       <c r="AH20" s="1">
-        <v>124.956672668457</v>
+        <v>123.9278564453125</v>
       </c>
       <c r="AI20" s="1">
-        <v>3700.840087890625</v>
+        <v>3699.811279296875</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2747,10 +2747,10 @@
         <v>255.3934478759766</v>
       </c>
       <c r="AH21" s="1">
-        <v>1246.20068359375</v>
+        <v>1237.506713867188</v>
       </c>
       <c r="AI21" s="1">
-        <v>14236.287109375</v>
+        <v>14227.59375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2854,10 +2854,10 @@
         <v>32.70959854125977</v>
       </c>
       <c r="AH22" s="1">
-        <v>506.9091796875</v>
+        <v>509.9132995605469</v>
       </c>
       <c r="AI22" s="1">
-        <v>7207.884765625</v>
+        <v>7210.88916015625</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3175,10 +3175,10 @@
         <v>155.0201416015625</v>
       </c>
       <c r="AH25" s="1">
-        <v>2910.834716796875</v>
+        <v>2899.741943359375</v>
       </c>
       <c r="AI25" s="1">
-        <v>16458.533203125</v>
+        <v>16447.44140625</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3282,10 +3282,10 @@
         <v>232.9566192626953</v>
       </c>
       <c r="AH26" s="1">
-        <v>570.8917846679688</v>
+        <v>609.8775024414062</v>
       </c>
       <c r="AI26" s="1">
-        <v>6434.9580078125</v>
+        <v>6473.94384765625</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3389,10 +3389,10 @@
         <v>262.50341796875</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.08050128072500229</v>
+        <v>0.2924088835716248</v>
       </c>
       <c r="AI27" s="1">
-        <v>7354.3154296875</v>
+        <v>7354.52734375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3496,10 +3496,10 @@
         <v>1.155422210693359</v>
       </c>
       <c r="AH28" s="1">
-        <v>6.389128684997559</v>
+        <v>6.392611503601074</v>
       </c>
       <c r="AI28" s="1">
-        <v>4440.6396484375</v>
+        <v>4440.64306640625</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3603,10 +3603,10 @@
         <v>360.462890625</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.8861735463142395</v>
+        <v>0.8874897360801697</v>
       </c>
       <c r="AI29" s="1">
-        <v>8537.3203125</v>
+        <v>8537.3212890625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3710,10 +3710,10 @@
         <v>34.69159698486328</v>
       </c>
       <c r="AH30" s="1">
-        <v>61.08927917480469</v>
+        <v>61.22806167602539</v>
       </c>
       <c r="AI30" s="1">
-        <v>4499.64990234375</v>
+        <v>4499.78857421875</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3921,13 +3921,13 @@
         <v>148018.234375</v>
       </c>
       <c r="AG32" s="1">
-        <v>16073.92578125</v>
+        <v>16073.927734375</v>
       </c>
       <c r="AH32" s="1">
-        <v>28158.03515625</v>
+        <v>27904.8125</v>
       </c>
       <c r="AI32" s="1">
-        <v>192250.15625</v>
+        <v>191996.9375</v>
       </c>
     </row>
   </sheetData>
@@ -4151,10 +4151,10 @@
         <v>31.60337066650391</v>
       </c>
       <c r="AH2" s="1">
-        <v>64.00077819824219</v>
+        <v>63.06087112426758</v>
       </c>
       <c r="AI2" s="1">
-        <v>418.9085998535156</v>
+        <v>417.9686889648438</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -4258,10 +4258,10 @@
         <v>36.42227554321289</v>
       </c>
       <c r="AH3" s="1">
-        <v>27.91866493225098</v>
+        <v>27.9274730682373</v>
       </c>
       <c r="AI3" s="1">
-        <v>504.2230834960938</v>
+        <v>504.2318725585938</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -4365,10 +4365,10 @@
         <v>11.08336734771729</v>
       </c>
       <c r="AH4" s="1">
-        <v>215.3473968505859</v>
+        <v>214.5332946777344</v>
       </c>
       <c r="AI4" s="1">
-        <v>347.8886108398438</v>
+        <v>347.0745239257812</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -4472,10 +4472,10 @@
         <v>77.69873046875</v>
       </c>
       <c r="AH5" s="1">
-        <v>169.4936218261719</v>
+        <v>169.9119262695312</v>
       </c>
       <c r="AI5" s="1">
-        <v>805.972900390625</v>
+        <v>806.3912353515625</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -4579,10 +4579,10 @@
         <v>6.06425142288208</v>
       </c>
       <c r="AH6" s="1">
-        <v>111.481315612793</v>
+        <v>110.6217269897461</v>
       </c>
       <c r="AI6" s="1">
-        <v>217.9908447265625</v>
+        <v>217.1312561035156</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -4686,10 +4686,10 @@
         <v>28.85512351989746</v>
       </c>
       <c r="AH7" s="1">
-        <v>18.69050025939941</v>
+        <v>18.78693962097168</v>
       </c>
       <c r="AI7" s="1">
-        <v>510.3025817871094</v>
+        <v>510.3990173339844</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -4793,10 +4793,10 @@
         <v>84.50650787353516</v>
       </c>
       <c r="AH8" s="1">
-        <v>25.55890464782715</v>
+        <v>26.06977272033691</v>
       </c>
       <c r="AI8" s="1">
-        <v>452.8399658203125</v>
+        <v>453.350830078125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -4900,10 +4900,10 @@
         <v>268.5634765625</v>
       </c>
       <c r="AH9" s="1">
-        <v>418.0216369628906</v>
+        <v>403.7713317871094</v>
       </c>
       <c r="AI9" s="1">
-        <v>1209.543823242188</v>
+        <v>1195.293579101562</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -5007,10 +5007,10 @@
         <v>38.915771484375</v>
       </c>
       <c r="AH10" s="1">
-        <v>25.49342727661133</v>
+        <v>25.21976852416992</v>
       </c>
       <c r="AI10" s="1">
-        <v>136.0231018066406</v>
+        <v>135.7494506835938</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -5114,10 +5114,10 @@
         <v>115.9534912109375</v>
       </c>
       <c r="AH11" s="1">
-        <v>119.7981719970703</v>
+        <v>121.9873199462891</v>
       </c>
       <c r="AI11" s="1">
-        <v>624.6050415039062</v>
+        <v>626.794189453125</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -5221,10 +5221,10 @@
         <v>164.0854339599609</v>
       </c>
       <c r="AH12" s="1">
-        <v>219.1802978515625</v>
+        <v>214.1108551025391</v>
       </c>
       <c r="AI12" s="1">
-        <v>483.2218322753906</v>
+        <v>478.1523742675781</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -5328,10 +5328,10 @@
         <v>57.90084075927734</v>
       </c>
       <c r="AH13" s="1">
-        <v>167.5278778076172</v>
+        <v>170.7181854248047</v>
       </c>
       <c r="AI13" s="1">
-        <v>648.3348388671875</v>
+        <v>651.525146484375</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -5435,10 +5435,10 @@
         <v>45.82119750976562</v>
       </c>
       <c r="AH14" s="1">
-        <v>160.5121154785156</v>
+        <v>161.7489318847656</v>
       </c>
       <c r="AI14" s="1">
-        <v>280.7769165039062</v>
+        <v>282.0137329101562</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -5542,10 +5542,10 @@
         <v>37.36981964111328</v>
       </c>
       <c r="AH15" s="1">
-        <v>65.68293762207031</v>
+        <v>66.41006469726562</v>
       </c>
       <c r="AI15" s="1">
-        <v>317.5463256835938</v>
+        <v>318.2734680175781</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -5649,10 +5649,10 @@
         <v>114.6170654296875</v>
       </c>
       <c r="AH16" s="1">
-        <v>57.93637847900391</v>
+        <v>57.94586944580078</v>
       </c>
       <c r="AI16" s="1">
-        <v>505.2712707519531</v>
+        <v>505.28076171875</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -5860,13 +5860,13 @@
         <v>980.7719116210938</v>
       </c>
       <c r="AG18" s="1">
-        <v>591.7293090820312</v>
+        <v>591.7293701171875</v>
       </c>
       <c r="AH18" s="1">
-        <v>22.58524322509766</v>
+        <v>24.55837249755859</v>
       </c>
       <c r="AI18" s="1">
-        <v>1595.08642578125</v>
+        <v>1597.0595703125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -5970,10 +5970,10 @@
         <v>266.8552856445312</v>
       </c>
       <c r="AH19" s="1">
-        <v>82.00690460205078</v>
+        <v>78.39337158203125</v>
       </c>
       <c r="AI19" s="1">
-        <v>1002.645874023438</v>
+        <v>999.0323486328125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -6077,10 +6077,10 @@
         <v>107.5967712402344</v>
       </c>
       <c r="AH20" s="1">
-        <v>14.26954650878906</v>
+        <v>14.21194553375244</v>
       </c>
       <c r="AI20" s="1">
-        <v>425.8554077148438</v>
+        <v>425.7977905273438</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -6184,10 +6184,10 @@
         <v>452.2889404296875</v>
       </c>
       <c r="AH21" s="1">
-        <v>86.35427856445312</v>
+        <v>85.86750030517578</v>
       </c>
       <c r="AI21" s="1">
-        <v>868.4791259765625</v>
+        <v>867.992431640625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -6291,10 +6291,10 @@
         <v>210.5272064208984</v>
       </c>
       <c r="AH22" s="1">
-        <v>50.89871215820312</v>
+        <v>51.0669059753418</v>
       </c>
       <c r="AI22" s="1">
-        <v>566.5195922851562</v>
+        <v>566.6878051757812</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -6612,10 +6612,10 @@
         <v>200.5037384033203</v>
       </c>
       <c r="AH25" s="1">
-        <v>188.7404022216797</v>
+        <v>188.1193389892578</v>
       </c>
       <c r="AI25" s="1">
-        <v>1161.467041015625</v>
+        <v>1160.845947265625</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -6719,10 +6719,10 @@
         <v>92.84551239013672</v>
       </c>
       <c r="AH26" s="1">
-        <v>49.18961334228516</v>
+        <v>51.37234878540039</v>
       </c>
       <c r="AI26" s="1">
-        <v>544.89208984375</v>
+        <v>547.0748291015625</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -6826,10 +6826,10 @@
         <v>235.5917358398438</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.01140748616307974</v>
+        <v>0.02327179163694382</v>
       </c>
       <c r="AI27" s="1">
-        <v>1009.409729003906</v>
+        <v>1009.421569824219</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -6933,10 +6933,10 @@
         <v>1.610758781433105</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.9159354567527771</v>
+        <v>0.9161304831504822</v>
       </c>
       <c r="AI28" s="1">
-        <v>604.1499633789062</v>
+        <v>604.1502075195312</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -7040,7 +7040,7 @@
         <v>0.3035341501235962</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.1306120604276657</v>
+        <v>0.1306857466697693</v>
       </c>
       <c r="AI29" s="1">
         <v>1509.89892578125</v>
@@ -7147,10 +7147,10 @@
         <v>167.1177215576172</v>
       </c>
       <c r="AH30" s="1">
-        <v>8.058034896850586</v>
+        <v>8.065805435180664</v>
       </c>
       <c r="AI30" s="1">
-        <v>510.2820434570312</v>
+        <v>510.2898254394531</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -7358,13 +7358,13 @@
         <v>14217.3984375</v>
       </c>
       <c r="AG32" s="1">
-        <v>3507.080322265625</v>
+        <v>3507.080810546875</v>
       </c>
       <c r="AH32" s="1">
-        <v>2369.80517578125</v>
+        <v>2355.549560546875</v>
       </c>
       <c r="AI32" s="1">
-        <v>20094.28125</v>
+        <v>20080.025390625</v>
       </c>
     </row>
   </sheetData>
@@ -7588,10 +7588,10 @@
         <v>25.16993141174316</v>
       </c>
       <c r="AH2" s="1">
-        <v>41.00580978393555</v>
+        <v>40.31418609619141</v>
       </c>
       <c r="AI2" s="1">
-        <v>225.4184875488281</v>
+        <v>224.7268524169922</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -7695,10 +7695,10 @@
         <v>31.67664527893066</v>
       </c>
       <c r="AH3" s="1">
-        <v>21.75312232971191</v>
+        <v>21.75959777832031</v>
       </c>
       <c r="AI3" s="1">
-        <v>433.7976379394531</v>
+        <v>433.8041076660156</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -7802,10 +7802,10 @@
         <v>6.054105758666992</v>
       </c>
       <c r="AH4" s="1">
-        <v>139.2759704589844</v>
+        <v>138.6773986816406</v>
       </c>
       <c r="AI4" s="1">
-        <v>260.798583984375</v>
+        <v>260.2000122070312</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -7909,10 +7909,10 @@
         <v>45.75548934936523</v>
       </c>
       <c r="AH5" s="1">
-        <v>107.7044906616211</v>
+        <v>108.0123825073242</v>
       </c>
       <c r="AI5" s="1">
-        <v>501.5093994140625</v>
+        <v>501.8173217773438</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -8016,10 +8016,10 @@
         <v>6.307413101196289</v>
       </c>
       <c r="AH6" s="1">
-        <v>66.30587005615234</v>
+        <v>65.67163848876953</v>
       </c>
       <c r="AI6" s="1">
-        <v>107.7804794311523</v>
+        <v>107.1462478637695</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -8123,10 +8123,10 @@
         <v>19.87454414367676</v>
       </c>
       <c r="AH7" s="1">
-        <v>13.49416065216064</v>
+        <v>13.56507015228271</v>
       </c>
       <c r="AI7" s="1">
-        <v>416.3583374023438</v>
+        <v>416.4292297363281</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -8230,10 +8230,10 @@
         <v>46.07017135620117</v>
       </c>
       <c r="AH8" s="1">
-        <v>19.49035263061523</v>
+        <v>19.86584854125977</v>
       </c>
       <c r="AI8" s="1">
-        <v>509.085693359375</v>
+        <v>509.461181640625</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -8337,10 +8337,10 @@
         <v>255.3216094970703</v>
       </c>
       <c r="AH9" s="1">
-        <v>274.3451843261719</v>
+        <v>263.8483581542969</v>
       </c>
       <c r="AI9" s="1">
-        <v>785.500732421875</v>
+        <v>775.00390625</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -8444,10 +8444,10 @@
         <v>11.50714302062988</v>
       </c>
       <c r="AH10" s="1">
-        <v>17.06269264221191</v>
+        <v>16.86182403564453</v>
       </c>
       <c r="AI10" s="1">
-        <v>98.93934631347656</v>
+        <v>98.73847198486328</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -8551,10 +8551,10 @@
         <v>74.32393646240234</v>
       </c>
       <c r="AH11" s="1">
-        <v>84.66381072998047</v>
+        <v>86.27413940429688</v>
       </c>
       <c r="AI11" s="1">
-        <v>453.8392333984375</v>
+        <v>455.4495849609375</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -8658,10 +8658,10 @@
         <v>104.869987487793</v>
       </c>
       <c r="AH12" s="1">
-        <v>147.4343414306641</v>
+        <v>143.7028656005859</v>
       </c>
       <c r="AI12" s="1">
-        <v>335.5268249511719</v>
+        <v>331.7953491210938</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -8765,10 +8765,10 @@
         <v>45.48741149902344</v>
       </c>
       <c r="AH13" s="1">
-        <v>117.0167083740234</v>
+        <v>119.3628845214844</v>
       </c>
       <c r="AI13" s="1">
-        <v>447.6947326660156</v>
+        <v>450.0408935546875</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -8872,10 +8872,10 @@
         <v>45.65869903564453</v>
       </c>
       <c r="AH14" s="1">
-        <v>98.41557312011719</v>
+        <v>99.32667541503906</v>
       </c>
       <c r="AI14" s="1">
-        <v>168.3490142822266</v>
+        <v>169.2601165771484</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -8979,10 +8979,10 @@
         <v>42.13817977905273</v>
       </c>
       <c r="AH15" s="1">
-        <v>42.76589965820312</v>
+        <v>43.30191802978516</v>
       </c>
       <c r="AI15" s="1">
-        <v>206.4081726074219</v>
+        <v>206.9441833496094</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -9086,10 +9086,10 @@
         <v>12.77000045776367</v>
       </c>
       <c r="AH16" s="1">
-        <v>39.76914215087891</v>
+        <v>39.7761116027832</v>
       </c>
       <c r="AI16" s="1">
-        <v>346.2128295898438</v>
+        <v>346.2197875976562</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -9300,10 +9300,10 @@
         <v>457.1347045898438</v>
       </c>
       <c r="AH18" s="1">
-        <v>13.88555145263672</v>
+        <v>15.33696746826172</v>
       </c>
       <c r="AI18" s="1">
-        <v>1047.970458984375</v>
+        <v>1049.421875</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -9404,13 +9404,13 @@
         <v>353.5335998535156</v>
       </c>
       <c r="AG19" s="1">
-        <v>263.3075561523438</v>
+        <v>263.3076171875</v>
       </c>
       <c r="AH19" s="1">
-        <v>52.87180328369141</v>
+        <v>50.21372604370117</v>
       </c>
       <c r="AI19" s="1">
-        <v>669.7129516601562</v>
+        <v>667.054931640625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -9514,10 +9514,10 @@
         <v>83.27081298828125</v>
       </c>
       <c r="AH20" s="1">
-        <v>9.052380561828613</v>
+        <v>9.010009765625</v>
       </c>
       <c r="AI20" s="1">
-        <v>271.6923217773438</v>
+        <v>271.6499633789062</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -9621,10 +9621,10 @@
         <v>282.9604797363281</v>
       </c>
       <c r="AH21" s="1">
-        <v>55.79202651977539</v>
+        <v>55.43395614624023</v>
       </c>
       <c r="AI21" s="1">
-        <v>572.9705810546875</v>
+        <v>572.612548828125</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -9728,10 +9728,10 @@
         <v>182.2997741699219</v>
       </c>
       <c r="AH22" s="1">
-        <v>32.19793319702148</v>
+        <v>32.3216552734375</v>
       </c>
       <c r="AI22" s="1">
-        <v>343.77294921875</v>
+        <v>343.8966674804688</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -10049,10 +10049,10 @@
         <v>197.133056640625</v>
       </c>
       <c r="AH25" s="1">
-        <v>122.2585220336914</v>
+        <v>121.8016738891602</v>
       </c>
       <c r="AI25" s="1">
-        <v>740.6409912109375</v>
+        <v>740.18408203125</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -10156,10 +10156,10 @@
         <v>118.4617691040039</v>
       </c>
       <c r="AH26" s="1">
-        <v>31.18533515930176</v>
+        <v>32.79093170166016</v>
       </c>
       <c r="AI26" s="1">
-        <v>332.1923522949219</v>
+        <v>333.7979431152344</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -10263,10 +10263,10 @@
         <v>206.6657104492188</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.007574519608169794</v>
+        <v>0.01630178652703762</v>
       </c>
       <c r="AI27" s="1">
-        <v>669.6802368164062</v>
+        <v>669.68896484375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -10370,10 +10370,10 @@
         <v>0.9623133540153503</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.6069855690002441</v>
+        <v>0.6071289777755737</v>
       </c>
       <c r="AI28" s="1">
-        <v>405.0473327636719</v>
+        <v>405.0474548339844</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -10477,10 +10477,10 @@
         <v>1.718352675437927</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.08614727854728699</v>
+        <v>0.08620148152112961</v>
       </c>
       <c r="AI29" s="1">
-        <v>868.4434814453125</v>
+        <v>868.4435424804688</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -10584,10 +10584,10 @@
         <v>106.5016555786133</v>
       </c>
       <c r="AH30" s="1">
-        <v>5.219285488128662</v>
+        <v>5.225001335144043</v>
       </c>
       <c r="AI30" s="1">
-        <v>334.3453369140625</v>
+        <v>334.35107421875</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -10795,13 +10795,13 @@
         <v>9001.1826171875</v>
       </c>
       <c r="AG32" s="1">
-        <v>2795.970947265625</v>
+        <v>2795.97119140625</v>
       </c>
       <c r="AH32" s="1">
-        <v>1553.666381835938</v>
+        <v>1543.164428710938</v>
       </c>
       <c r="AI32" s="1">
-        <v>13350.8212890625</v>
+        <v>13340.3193359375</v>
       </c>
     </row>
   </sheetData>
@@ -11025,10 +11025,10 @@
         <v>42.19200897216797</v>
       </c>
       <c r="AH2" s="1">
-        <v>49.32920837402344</v>
+        <v>47.68985748291016</v>
       </c>
       <c r="AI2" s="1">
-        <v>234.7882385253906</v>
+        <v>233.1488800048828</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -11132,10 +11132,10 @@
         <v>45.64105224609375</v>
       </c>
       <c r="AH3" s="1">
-        <v>29.50468635559082</v>
+        <v>29.52001762390137</v>
       </c>
       <c r="AI3" s="1">
-        <v>508.247802734375</v>
+        <v>508.2631225585938</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -11239,10 +11239,10 @@
         <v>12.70942211151123</v>
       </c>
       <c r="AH4" s="1">
-        <v>203.0925445556641</v>
+        <v>201.6747131347656</v>
       </c>
       <c r="AI4" s="1">
-        <v>294.4316711425781</v>
+        <v>293.0138549804688</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -11346,10 +11346,10 @@
         <v>212.5073089599609</v>
       </c>
       <c r="AH5" s="1">
-        <v>169.5840148925781</v>
+        <v>170.3171081542969</v>
       </c>
       <c r="AI5" s="1">
-        <v>646.73388671875</v>
+        <v>647.4669189453125</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -11453,10 +11453,10 @@
         <v>33.49549102783203</v>
       </c>
       <c r="AH6" s="1">
-        <v>112.8233413696289</v>
+        <v>111.3033828735352</v>
       </c>
       <c r="AI6" s="1">
-        <v>164.8670654296875</v>
+        <v>163.3471069335938</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -11560,10 +11560,10 @@
         <v>31.6209831237793</v>
       </c>
       <c r="AH7" s="1">
-        <v>22.52231788635254</v>
+        <v>22.69025039672852</v>
       </c>
       <c r="AI7" s="1">
-        <v>519.2979736328125</v>
+        <v>519.4659423828125</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -11667,10 +11667,10 @@
         <v>61.48278045654297</v>
       </c>
       <c r="AH8" s="1">
-        <v>45.76171493530273</v>
+        <v>46.65083694458008</v>
       </c>
       <c r="AI8" s="1">
-        <v>1154.124755859375</v>
+        <v>1155.013916015625</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -11774,10 +11774,10 @@
         <v>494.65625</v>
       </c>
       <c r="AH9" s="1">
-        <v>496.4296264648438</v>
+        <v>471.549072265625</v>
       </c>
       <c r="AI9" s="1">
-        <v>1360.360717773438</v>
+        <v>1335.480224609375</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -11881,10 +11881,10 @@
         <v>45.8278923034668</v>
       </c>
       <c r="AH10" s="1">
-        <v>27.03956031799316</v>
+        <v>26.56228828430176</v>
       </c>
       <c r="AI10" s="1">
-        <v>138.0704193115234</v>
+        <v>137.5931396484375</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -11988,10 +11988,10 @@
         <v>251.3358306884766</v>
       </c>
       <c r="AH11" s="1">
-        <v>164.665283203125</v>
+        <v>168.4799652099609</v>
       </c>
       <c r="AI11" s="1">
-        <v>797.8966674804688</v>
+        <v>801.7113647460938</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -12095,10 +12095,10 @@
         <v>164.5187683105469</v>
       </c>
       <c r="AH12" s="1">
-        <v>283.4276123046875</v>
+        <v>274.5935363769531</v>
       </c>
       <c r="AI12" s="1">
-        <v>641.121337890625</v>
+        <v>632.2872924804688</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -12202,10 +12202,10 @@
         <v>40.42425537109375</v>
       </c>
       <c r="AH13" s="1">
-        <v>233.3755950927734</v>
+        <v>238.9297485351562</v>
       </c>
       <c r="AI13" s="1">
-        <v>978.4327392578125</v>
+        <v>983.9868774414062</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -12309,10 +12309,10 @@
         <v>16.00391960144043</v>
       </c>
       <c r="AH14" s="1">
-        <v>185.1382446289062</v>
+        <v>187.2884979248047</v>
       </c>
       <c r="AI14" s="1">
-        <v>393.1676635742188</v>
+        <v>395.3179321289062</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -12416,10 +12416,10 @@
         <v>37.87594985961914</v>
       </c>
       <c r="AH15" s="1">
-        <v>75.60580444335938</v>
+        <v>76.87295532226562</v>
       </c>
       <c r="AI15" s="1">
-        <v>364.9205932617188</v>
+        <v>366.187744140625</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -12523,10 +12523,10 @@
         <v>13.33857440948486</v>
       </c>
       <c r="AH16" s="1">
-        <v>68.31977844238281</v>
+        <v>68.33628845214844</v>
       </c>
       <c r="AI16" s="1">
-        <v>589.6375122070312</v>
+        <v>589.654052734375</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -12737,10 +12737,10 @@
         <v>631.939697265625</v>
       </c>
       <c r="AH18" s="1">
-        <v>27.76312446594238</v>
+        <v>31.20030784606934</v>
       </c>
       <c r="AI18" s="1">
-        <v>1704.545654296875</v>
+        <v>1707.98291015625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -12841,13 +12841,13 @@
         <v>559.6755981445312</v>
       </c>
       <c r="AG19" s="1">
-        <v>488.8186645507812</v>
+        <v>488.8186340332031</v>
       </c>
       <c r="AH19" s="1">
-        <v>99.61370849609375</v>
+        <v>93.31894683837891</v>
       </c>
       <c r="AI19" s="1">
-        <v>1148.10791015625</v>
+        <v>1141.813232421875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -12951,10 +12951,10 @@
         <v>105.3001480102539</v>
       </c>
       <c r="AH20" s="1">
-        <v>15.6278247833252</v>
+        <v>15.52748394012451</v>
       </c>
       <c r="AI20" s="1">
-        <v>452.6853942871094</v>
+        <v>452.5850524902344</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -13058,10 +13058,10 @@
         <v>360.859375</v>
       </c>
       <c r="AH21" s="1">
-        <v>104.8665313720703</v>
+        <v>104.0185546875</v>
       </c>
       <c r="AI21" s="1">
-        <v>1059.70068359375</v>
+        <v>1058.852783203125</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -13165,10 +13165,10 @@
         <v>311.4701232910156</v>
       </c>
       <c r="AH22" s="1">
-        <v>54.93344116210938</v>
+        <v>55.22643280029297</v>
       </c>
       <c r="AI22" s="1">
-        <v>548.4268798828125</v>
+        <v>548.7198486328125</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -13486,10 +13486,10 @@
         <v>201.0835266113281</v>
       </c>
       <c r="AH25" s="1">
-        <v>223.1606750488281</v>
+        <v>222.0787658691406</v>
       </c>
       <c r="AI25" s="1">
-        <v>1339.119750976562</v>
+        <v>1338.037841796875</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -13593,10 +13593,10 @@
         <v>125.7768859863281</v>
       </c>
       <c r="AH26" s="1">
-        <v>55.89638519287109</v>
+        <v>59.69869995117188</v>
       </c>
       <c r="AI26" s="1">
-        <v>582.7186279296875</v>
+        <v>586.5209350585938</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -13700,10 +13700,10 @@
         <v>286.040283203125</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.01269224938005209</v>
+        <v>0.03335980698466301</v>
       </c>
       <c r="AI27" s="1">
-        <v>1072.392456054688</v>
+        <v>1072.4130859375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -13807,10 +13807,10 @@
         <v>0.4688549637794495</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.018945097923279</v>
+        <v>1.019284844398499</v>
       </c>
       <c r="AI28" s="1">
-        <v>711.8450927734375</v>
+        <v>711.845458984375</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -13914,10 +13914,10 @@
         <v>72.25177764892578</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.1443588882684708</v>
+        <v>0.1444872617721558</v>
       </c>
       <c r="AI29" s="1">
-        <v>1398.784301757812</v>
+        <v>1398.784423828125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -14021,10 +14021,10 @@
         <v>173.5008392333984</v>
       </c>
       <c r="AH30" s="1">
-        <v>8.884038925170898</v>
+        <v>8.897575378417969</v>
       </c>
       <c r="AI30" s="1">
-        <v>539.2284545898438</v>
+        <v>539.241943359375</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -14235,10 +14235,10 @@
         <v>4509.1318359375</v>
       </c>
       <c r="AH32" s="1">
-        <v>2758.541259765625</v>
+        <v>2733.6220703125</v>
       </c>
       <c r="AI32" s="1">
-        <v>22160.00390625</v>
+        <v>22135.0859375</v>
       </c>
     </row>
   </sheetData>
@@ -14462,10 +14462,10 @@
         <v>48.9101676940918</v>
       </c>
       <c r="AH2" s="1">
-        <v>110.3746643066406</v>
+        <v>109.8638458251953</v>
       </c>
       <c r="AI2" s="1">
-        <v>682.0010375976562</v>
+        <v>681.490234375</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -14569,10 +14569,10 @@
         <v>29.79603576660156</v>
       </c>
       <c r="AH3" s="1">
-        <v>21.15601921081543</v>
+        <v>21.16080856323242</v>
       </c>
       <c r="AI3" s="1">
-        <v>279.4479370117188</v>
+        <v>279.4526977539062</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -14676,10 +14676,10 @@
         <v>7.803781986236572</v>
       </c>
       <c r="AH4" s="1">
-        <v>133.4112548828125</v>
+        <v>132.9686889648438</v>
       </c>
       <c r="AI4" s="1">
-        <v>222.0581970214844</v>
+        <v>221.6156311035156</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -14783,10 +14783,10 @@
         <v>26.33702659606934</v>
       </c>
       <c r="AH5" s="1">
-        <v>181.5375061035156</v>
+        <v>181.7646636962891</v>
       </c>
       <c r="AI5" s="1">
-        <v>1654.789184570312</v>
+        <v>1655.016357421875</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -14890,10 +14890,10 @@
         <v>5.316711902618408</v>
       </c>
       <c r="AH6" s="1">
-        <v>83.52854919433594</v>
+        <v>83.0615234375</v>
       </c>
       <c r="AI6" s="1">
-        <v>170.49560546875</v>
+        <v>170.0285797119141</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -14997,10 +14997,10 @@
         <v>24.35210800170898</v>
       </c>
       <c r="AH7" s="1">
-        <v>12.38237190246582</v>
+        <v>12.43478965759277</v>
       </c>
       <c r="AI7" s="1">
-        <v>343.7808227539062</v>
+        <v>343.8332214355469</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -15104,10 +15104,10 @@
         <v>156.5840911865234</v>
       </c>
       <c r="AH8" s="1">
-        <v>14.41337585449219</v>
+        <v>14.69148445129395</v>
       </c>
       <c r="AI8" s="1">
-        <v>197.6470489501953</v>
+        <v>197.9251556396484</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -15211,10 +15211,10 @@
         <v>383.2052001953125</v>
       </c>
       <c r="AH9" s="1">
-        <v>303.1791076660156</v>
+        <v>295.4234313964844</v>
       </c>
       <c r="AI9" s="1">
-        <v>801.6718139648438</v>
+        <v>793.9161987304688</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -15318,10 +15318,10 @@
         <v>43.62749862670898</v>
       </c>
       <c r="AH10" s="1">
-        <v>20.22185707092285</v>
+        <v>20.07295799255371</v>
       </c>
       <c r="AI10" s="1">
-        <v>106.0482177734375</v>
+        <v>105.8993225097656</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -15425,10 +15425,10 @@
         <v>60.92995452880859</v>
       </c>
       <c r="AH11" s="1">
-        <v>134.9713592529297</v>
+        <v>136.160888671875</v>
       </c>
       <c r="AI11" s="1">
-        <v>978.5209350585938</v>
+        <v>979.71044921875</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -15532,10 +15532,10 @@
         <v>118.5149536132812</v>
       </c>
       <c r="AH12" s="1">
-        <v>147.5957336425781</v>
+        <v>144.8401641845703</v>
       </c>
       <c r="AI12" s="1">
-        <v>323.0759582519531</v>
+        <v>320.3203735351562</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -15639,10 +15639,10 @@
         <v>50.49660110473633</v>
       </c>
       <c r="AH13" s="1">
-        <v>111.3093872070312</v>
+        <v>113.0435485839844</v>
       </c>
       <c r="AI13" s="1">
-        <v>413.5177001953125</v>
+        <v>415.2518615722656</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -15746,10 +15746,10 @@
         <v>14.15238475799561</v>
       </c>
       <c r="AH14" s="1">
-        <v>139.5385589599609</v>
+        <v>140.2097015380859</v>
       </c>
       <c r="AI14" s="1">
-        <v>304.6099243164062</v>
+        <v>305.2810668945312</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -15853,10 +15853,10 @@
         <v>33.91398620605469</v>
       </c>
       <c r="AH15" s="1">
-        <v>49.93215560913086</v>
+        <v>50.32721328735352</v>
       </c>
       <c r="AI15" s="1">
-        <v>268.6442260742188</v>
+        <v>269.0392456054688</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -15960,10 +15960,10 @@
         <v>128.4729156494141</v>
       </c>
       <c r="AH16" s="1">
-        <v>55.84164428710938</v>
+        <v>55.8468017578125</v>
       </c>
       <c r="AI16" s="1">
-        <v>456.7636108398438</v>
+        <v>456.7687377929688</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -16174,10 +16174,10 @@
         <v>526.1805419921875</v>
       </c>
       <c r="AH18" s="1">
-        <v>15.1722412109375</v>
+        <v>16.24455642700195</v>
       </c>
       <c r="AI18" s="1">
-        <v>1395.420776367188</v>
+        <v>1396.4931640625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -16278,13 +16278,13 @@
         <v>593.85400390625</v>
       </c>
       <c r="AG19" s="1">
-        <v>136.0616302490234</v>
+        <v>136.0615997314453</v>
       </c>
       <c r="AH19" s="1">
-        <v>60.60017776489258</v>
+        <v>58.63637161254883</v>
       </c>
       <c r="AI19" s="1">
-        <v>790.5158081054688</v>
+        <v>788.552001953125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -16388,10 +16388,10 @@
         <v>127.9356384277344</v>
       </c>
       <c r="AH20" s="1">
-        <v>10.67085361480713</v>
+        <v>10.63955020904541</v>
       </c>
       <c r="AI20" s="1">
-        <v>313.5233764648438</v>
+        <v>313.4920959472656</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -16495,10 +16495,10 @@
         <v>372.7492370605469</v>
       </c>
       <c r="AH21" s="1">
-        <v>59.08860015869141</v>
+        <v>58.82405471801758</v>
       </c>
       <c r="AI21" s="1">
-        <v>583.5399169921875</v>
+        <v>583.275390625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -16602,10 +16602,10 @@
         <v>207.26318359375</v>
       </c>
       <c r="AH22" s="1">
-        <v>39.23099136352539</v>
+        <v>39.3223991394043</v>
       </c>
       <c r="AI22" s="1">
-        <v>429.6666259765625</v>
+        <v>429.7580261230469</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -16923,10 +16923,10 @@
         <v>243.4557495117188</v>
       </c>
       <c r="AH25" s="1">
-        <v>144.3422546386719</v>
+        <v>144.0047302246094</v>
       </c>
       <c r="AI25" s="1">
-        <v>853.493896484375</v>
+        <v>853.1563720703125</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -17030,10 +17030,10 @@
         <v>156.0914306640625</v>
       </c>
       <c r="AH26" s="1">
-        <v>40.57469177246094</v>
+        <v>41.76091766357422</v>
       </c>
       <c r="AI26" s="1">
-        <v>428.2337646484375</v>
+        <v>429.4200134277344</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -17137,10 +17137,10 @@
         <v>291.5734558105469</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.008971619419753551</v>
+        <v>0.01541937608271837</v>
       </c>
       <c r="AI27" s="1">
-        <v>789.8431396484375</v>
+        <v>789.849609375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -17244,10 +17244,10 @@
         <v>95.26248168945312</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.7130544185638428</v>
+        <v>0.7131603956222534</v>
       </c>
       <c r="AI28" s="1">
-        <v>448.4314270019531</v>
+        <v>448.4315490722656</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -17351,10 +17351,10 @@
         <v>6.28738260269165</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.1009865328669548</v>
+        <v>0.1010265797376633</v>
       </c>
       <c r="AI29" s="1">
-        <v>994.6713256835938</v>
+        <v>994.67138671875</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -17458,10 +17458,10 @@
         <v>143.2729797363281</v>
       </c>
       <c r="AH30" s="1">
-        <v>6.159478664398193</v>
+        <v>6.16370153427124</v>
       </c>
       <c r="AI30" s="1">
-        <v>394.619873046875</v>
+        <v>394.6240844726562</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -17672,10 +17672,10 @@
         <v>3585.93701171875</v>
       </c>
       <c r="AH32" s="1">
-        <v>1896.055908203125</v>
+        <v>1888.29638671875</v>
       </c>
       <c r="AI32" s="1">
-        <v>16887.052734375</v>
+        <v>16879.29296875</v>
       </c>
     </row>
   </sheetData>
@@ -17899,10 +17899,10 @@
         <v>19.7592830657959</v>
       </c>
       <c r="AH2" s="1">
-        <v>63.80875396728516</v>
+        <v>60.99993133544922</v>
       </c>
       <c r="AI2" s="1">
-        <v>502.7029418945312</v>
+        <v>499.8941040039062</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -18006,10 +18006,10 @@
         <v>64.56134796142578</v>
       </c>
       <c r="AH3" s="1">
-        <v>16.62130928039551</v>
+        <v>16.64769172668457</v>
       </c>
       <c r="AI3" s="1">
-        <v>214.9226684570312</v>
+        <v>214.9490356445312</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -18113,10 +18113,10 @@
         <v>44.39519119262695</v>
       </c>
       <c r="AH4" s="1">
-        <v>233.6504516601562</v>
+        <v>231.2146606445312</v>
       </c>
       <c r="AI4" s="1">
-        <v>303.7734069824219</v>
+        <v>301.3376159667969</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -18220,10 +18220,10 @@
         <v>73.88730621337891</v>
       </c>
       <c r="AH5" s="1">
-        <v>147.6525268554688</v>
+        <v>148.9041442871094</v>
       </c>
       <c r="AI5" s="1">
-        <v>677.7393798828125</v>
+        <v>678.990966796875</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -18327,10 +18327,10 @@
         <v>19.9474925994873</v>
       </c>
       <c r="AH6" s="1">
-        <v>91.70314025878906</v>
+        <v>89.11653137207031</v>
       </c>
       <c r="AI6" s="1">
-        <v>144.6510314941406</v>
+        <v>142.0644226074219</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -18434,10 +18434,10 @@
         <v>157.4100341796875</v>
       </c>
       <c r="AH7" s="1">
-        <v>21.46619415283203</v>
+        <v>21.75486755371094</v>
       </c>
       <c r="AI7" s="1">
-        <v>308.4226684570312</v>
+        <v>308.7113342285156</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -18541,10 +18541,10 @@
         <v>150.8536224365234</v>
       </c>
       <c r="AH8" s="1">
-        <v>51.9360466003418</v>
+        <v>53.4628791809082</v>
       </c>
       <c r="AI8" s="1">
-        <v>902.6986694335938</v>
+        <v>904.2254638671875</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -18648,10 +18648,10 @@
         <v>647.3045043945312</v>
       </c>
       <c r="AH9" s="1">
-        <v>562.39013671875</v>
+        <v>519.7062377929688</v>
       </c>
       <c r="AI9" s="1">
-        <v>1628.365844726562</v>
+        <v>1585.682006835938</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -18755,10 +18755,10 @@
         <v>9.377967834472656</v>
       </c>
       <c r="AH10" s="1">
-        <v>27.75054359436035</v>
+        <v>26.93405151367188</v>
       </c>
       <c r="AI10" s="1">
-        <v>180.1034851074219</v>
+        <v>179.2869873046875</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -18862,10 +18862,10 @@
         <v>455.9546813964844</v>
       </c>
       <c r="AH11" s="1">
-        <v>259.0501098632812</v>
+        <v>265.5930480957031</v>
       </c>
       <c r="AI11" s="1">
-        <v>1229.7177734375</v>
+        <v>1236.2607421875</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -18969,10 +18969,10 @@
         <v>83.40164947509766</v>
       </c>
       <c r="AH12" s="1">
-        <v>398.3668518066406</v>
+        <v>383.2793884277344</v>
       </c>
       <c r="AI12" s="1">
-        <v>1113.016479492188</v>
+        <v>1097.928955078125</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -19076,10 +19076,10 @@
         <v>46.70711135864258</v>
       </c>
       <c r="AH13" s="1">
-        <v>363.4251403808594</v>
+        <v>372.9583129882812</v>
       </c>
       <c r="AI13" s="1">
-        <v>1650.537353515625</v>
+        <v>1660.070434570312</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -19183,10 +19183,10 @@
         <v>17.15109252929688</v>
       </c>
       <c r="AH14" s="1">
-        <v>217.0412292480469</v>
+        <v>220.7320556640625</v>
       </c>
       <c r="AI14" s="1">
-        <v>525.8299560546875</v>
+        <v>529.520751953125</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -19290,10 +19290,10 @@
         <v>28.98687553405762</v>
       </c>
       <c r="AH15" s="1">
-        <v>69.86792755126953</v>
+        <v>72.04139709472656</v>
       </c>
       <c r="AI15" s="1">
-        <v>408.7129821777344</v>
+        <v>410.886474609375</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -19397,10 +19397,10 @@
         <v>2.612535238265991</v>
       </c>
       <c r="AH16" s="1">
-        <v>61.44797897338867</v>
+        <v>61.47631454467773</v>
       </c>
       <c r="AI16" s="1">
-        <v>715.975341796875</v>
+        <v>716.0037231445312</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -19611,10 +19611,10 @@
         <v>899.92333984375</v>
       </c>
       <c r="AH18" s="1">
-        <v>25.15064239501953</v>
+        <v>31.04656791687012</v>
       </c>
       <c r="AI18" s="1">
-        <v>1726.539916992188</v>
+        <v>1732.435791015625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -19718,10 +19718,10 @@
         <v>443.1718139648438</v>
       </c>
       <c r="AH19" s="1">
-        <v>104.0800170898438</v>
+        <v>93.28239440917969</v>
       </c>
       <c r="AI19" s="1">
-        <v>1061.000732421875</v>
+        <v>1050.203125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -19825,10 +19825,10 @@
         <v>111.9648590087891</v>
       </c>
       <c r="AH20" s="1">
-        <v>11.08449935913086</v>
+        <v>10.91238021850586</v>
       </c>
       <c r="AI20" s="1">
-        <v>328.2278442382812</v>
+        <v>328.0557250976562</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -19932,10 +19932,10 @@
         <v>417.8750305175781</v>
       </c>
       <c r="AH21" s="1">
-        <v>116.6645889282227</v>
+        <v>115.2100448608398</v>
       </c>
       <c r="AI21" s="1">
-        <v>1123.667724609375</v>
+        <v>1122.213134765625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -20039,10 +20039,10 @@
         <v>234.9866333007812</v>
       </c>
       <c r="AH22" s="1">
-        <v>46.10112380981445</v>
+        <v>46.60370635986328</v>
       </c>
       <c r="AI22" s="1">
-        <v>500.7924194335938</v>
+        <v>501.2949829101562</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -20360,10 +20360,10 @@
         <v>446.7809448242188</v>
       </c>
       <c r="AH25" s="1">
-        <v>282.2250671386719</v>
+        <v>280.3692321777344</v>
       </c>
       <c r="AI25" s="1">
-        <v>1588.14453125</v>
+        <v>1586.288696289062</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -20467,10 +20467,10 @@
         <v>110.6330184936523</v>
       </c>
       <c r="AH26" s="1">
-        <v>67.61223602294922</v>
+        <v>74.13448333740234</v>
       </c>
       <c r="AI26" s="1">
-        <v>629.0673828125</v>
+        <v>635.589599609375</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -20574,10 +20574,10 @@
         <v>321.167236328125</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.009054248221218586</v>
+        <v>0.04450605809688568</v>
       </c>
       <c r="AI27" s="1">
-        <v>776.3132934570312</v>
+        <v>776.3487548828125</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -20681,10 +20681,10 @@
         <v>22.17489433288574</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.699919581413269</v>
+        <v>0.7005022764205933</v>
       </c>
       <c r="AI28" s="1">
-        <v>440.6344909667969</v>
+        <v>440.6350708007812</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -20788,10 +20788,10 @@
         <v>7.372594356536865</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.09597217291593552</v>
+        <v>0.096192367374897</v>
       </c>
       <c r="AI29" s="1">
-        <v>938.5382080078125</v>
+        <v>938.5384521484375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -20895,10 +20895,10 @@
         <v>145.2517395019531</v>
       </c>
       <c r="AH30" s="1">
-        <v>6.149871826171875</v>
+        <v>6.173089981079102</v>
       </c>
       <c r="AI30" s="1">
-        <v>394.7784729003906</v>
+        <v>394.8016967773438</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -21109,10 +21109,10 @@
         <v>5133.9306640625</v>
       </c>
       <c r="AH32" s="1">
-        <v>3246.05126953125</v>
+        <v>3203.39453125</v>
       </c>
       <c r="AI32" s="1">
-        <v>22332.10546875</v>
+        <v>22289.447265625</v>
       </c>
     </row>
   </sheetData>
@@ -21336,10 +21336,10 @@
         <v>9.662738800048828</v>
       </c>
       <c r="AH2" s="1">
-        <v>24.05648040771484</v>
+        <v>22.66622924804688</v>
       </c>
       <c r="AI2" s="1">
-        <v>209.2774505615234</v>
+        <v>207.8871917724609</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -21443,10 +21443,10 @@
         <v>11.59918689727783</v>
       </c>
       <c r="AH3" s="1">
-        <v>6.067802906036377</v>
+        <v>6.080849170684814</v>
       </c>
       <c r="AI3" s="1">
-        <v>92.65973663330078</v>
+        <v>92.67278289794922</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -21550,10 +21550,10 @@
         <v>31.45366287231445</v>
       </c>
       <c r="AH4" s="1">
-        <v>154.459716796875</v>
+        <v>153.2535858154297</v>
       </c>
       <c r="AI4" s="1">
-        <v>200.8087768554688</v>
+        <v>199.6026458740234</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -21657,10 +21657,10 @@
         <v>51.95898818969727</v>
       </c>
       <c r="AH5" s="1">
-        <v>54.02369689941406</v>
+        <v>54.64462280273438</v>
       </c>
       <c r="AI5" s="1">
-        <v>243.2860107421875</v>
+        <v>243.9069366455078</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -21764,10 +21764,10 @@
         <v>3.553600072860718</v>
       </c>
       <c r="AH6" s="1">
-        <v>37.0059928894043</v>
+        <v>35.73092651367188</v>
       </c>
       <c r="AI6" s="1">
-        <v>71.12351989746094</v>
+        <v>69.84845733642578</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -21871,10 +21871,10 @@
         <v>31.36714363098145</v>
       </c>
       <c r="AH7" s="1">
-        <v>8.965114593505859</v>
+        <v>9.107860565185547</v>
       </c>
       <c r="AI7" s="1">
-        <v>144.1127319335938</v>
+        <v>144.2554779052734</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -21978,10 +21978,10 @@
         <v>247.1887817382812</v>
       </c>
       <c r="AH8" s="1">
-        <v>20.12758445739746</v>
+        <v>20.88495445251465</v>
       </c>
       <c r="AI8" s="1">
-        <v>283.4577026367188</v>
+        <v>284.2150573730469</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -22085,10 +22085,10 @@
         <v>205.5357055664062</v>
       </c>
       <c r="AH9" s="1">
-        <v>253.9204711914062</v>
+        <v>232.8148498535156</v>
       </c>
       <c r="AI9" s="1">
-        <v>804.3883666992188</v>
+        <v>783.28271484375</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -22192,10 +22192,10 @@
         <v>18.54092597961426</v>
       </c>
       <c r="AH10" s="1">
-        <v>10.70715522766113</v>
+        <v>10.30155181884766</v>
       </c>
       <c r="AI10" s="1">
-        <v>57.89624404907227</v>
+        <v>57.49063873291016</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -22299,10 +22299,10 @@
         <v>46.05950927734375</v>
       </c>
       <c r="AH11" s="1">
-        <v>120.860237121582</v>
+        <v>124.0965728759766</v>
       </c>
       <c r="AI11" s="1">
-        <v>851.7042846679688</v>
+        <v>854.9406127929688</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -22406,10 +22406,10 @@
         <v>145.290283203125</v>
       </c>
       <c r="AH12" s="1">
-        <v>132.6907806396484</v>
+        <v>125.1795883178711</v>
       </c>
       <c r="AI12" s="1">
-        <v>286.0200500488281</v>
+        <v>278.5088500976562</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -22513,10 +22513,10 @@
         <v>166.7757415771484</v>
       </c>
       <c r="AH13" s="1">
-        <v>102.8619995117188</v>
+        <v>107.5960235595703</v>
       </c>
       <c r="AI13" s="1">
-        <v>315.4602966308594</v>
+        <v>320.1943054199219</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -22620,10 +22620,10 @@
         <v>31.28297996520996</v>
       </c>
       <c r="AH14" s="1">
-        <v>78.34278869628906</v>
+        <v>80.17372131347656</v>
       </c>
       <c r="AI14" s="1">
-        <v>158.9235992431641</v>
+        <v>160.7545318603516</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -22727,10 +22727,10 @@
         <v>19.05946350097656</v>
       </c>
       <c r="AH15" s="1">
-        <v>26.36540603637695</v>
+        <v>27.4428825378418</v>
       </c>
       <c r="AI15" s="1">
-        <v>131.9868316650391</v>
+        <v>133.0643157958984</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -22834,10 +22834,10 @@
         <v>90.04153442382812</v>
       </c>
       <c r="AH16" s="1">
-        <v>30.43705177307129</v>
+        <v>30.45110130310059</v>
       </c>
       <c r="AI16" s="1">
-        <v>216.0521545410156</v>
+        <v>216.0662078857422</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -23048,10 +23048,10 @@
         <v>367.9051818847656</v>
       </c>
       <c r="AH18" s="1">
-        <v>11.18069839477539</v>
+        <v>14.09797191619873</v>
       </c>
       <c r="AI18" s="1">
-        <v>669.9228515625</v>
+        <v>672.840087890625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -23152,13 +23152,13 @@
         <v>345.8594665527344</v>
       </c>
       <c r="AG19" s="1">
-        <v>60.81495666503906</v>
+        <v>60.81492614746094</v>
       </c>
       <c r="AH19" s="1">
-        <v>45.3977165222168</v>
+        <v>40.05511093139648</v>
       </c>
       <c r="AI19" s="1">
-        <v>452.0721435546875</v>
+        <v>446.7294921875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -23262,10 +23262,10 @@
         <v>53.98870468139648</v>
       </c>
       <c r="AH20" s="1">
-        <v>4.024073600769043</v>
+        <v>3.938910007476807</v>
       </c>
       <c r="AI20" s="1">
-        <v>121.6580810546875</v>
+        <v>121.5729141235352</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -23369,10 +23369,10 @@
         <v>257.2574157714844</v>
       </c>
       <c r="AH21" s="1">
-        <v>45.07526779174805</v>
+        <v>44.35554885864258</v>
       </c>
       <c r="AI21" s="1">
-        <v>409.2151489257812</v>
+        <v>408.4954833984375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -23476,10 +23476,10 @@
         <v>92.19268035888672</v>
       </c>
       <c r="AH22" s="1">
-        <v>16.06240653991699</v>
+        <v>16.31108283996582</v>
       </c>
       <c r="AI22" s="1">
-        <v>174.5469818115234</v>
+        <v>174.795654296875</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -23797,10 +23797,10 @@
         <v>179.6610260009766</v>
       </c>
       <c r="AH25" s="1">
-        <v>79.339111328125</v>
+        <v>78.42086029052734</v>
       </c>
       <c r="AI25" s="1">
-        <v>467.305419921875</v>
+        <v>466.3871459960938</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -23904,10 +23904,10 @@
         <v>103.4105529785156</v>
       </c>
       <c r="AH26" s="1">
-        <v>25.52651977539062</v>
+        <v>28.75369262695312</v>
       </c>
       <c r="AI26" s="1">
-        <v>224.9767456054688</v>
+        <v>228.2039184570312</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -24011,10 +24011,10 @@
         <v>96.61464691162109</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.003269284730777144</v>
+        <v>0.02081065811216831</v>
       </c>
       <c r="AI27" s="1">
-        <v>298.4049072265625</v>
+        <v>298.4224548339844</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -24118,10 +24118,10 @@
         <v>2.083063840866089</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.259740948677063</v>
+        <v>0.2600292563438416</v>
       </c>
       <c r="AI28" s="1">
-        <v>165.1298065185547</v>
+        <v>165.1300964355469</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -24225,10 +24225,10 @@
         <v>0.8869726657867432</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.03590363636612892</v>
+        <v>0.03601258620619774</v>
       </c>
       <c r="AI29" s="1">
-        <v>359.6587524414062</v>
+        <v>359.6588439941406</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -24332,10 +24332,10 @@
         <v>50.35867691040039</v>
       </c>
       <c r="AH30" s="1">
-        <v>2.17550802230835</v>
+        <v>2.186996459960938</v>
       </c>
       <c r="AI30" s="1">
-        <v>144.0624237060547</v>
+        <v>144.0739135742188</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -24546,10 +24546,10 @@
         <v>2442.3994140625</v>
       </c>
       <c r="AH32" s="1">
-        <v>1289.972412109375</v>
+        <v>1268.862182617188</v>
       </c>
       <c r="AI32" s="1">
-        <v>8303.0048828125</v>
+        <v>8281.8935546875</v>
       </c>
     </row>
   </sheetData>
@@ -24773,10 +24773,10 @@
         <v>23.02384948730469</v>
       </c>
       <c r="AH2" s="1">
-        <v>83.97995758056641</v>
+        <v>82.62696838378906</v>
       </c>
       <c r="AI2" s="1">
-        <v>527.8021850585938</v>
+        <v>526.44921875</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -24880,10 +24880,10 @@
         <v>72.84420013427734</v>
       </c>
       <c r="AH3" s="1">
-        <v>36.62428665161133</v>
+        <v>36.63697814941406</v>
       </c>
       <c r="AI3" s="1">
-        <v>506.255859375</v>
+        <v>506.2685546875</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -24987,10 +24987,10 @@
         <v>10.49150943756104</v>
       </c>
       <c r="AH4" s="1">
-        <v>358.042236328125</v>
+        <v>356.8714294433594</v>
       </c>
       <c r="AI4" s="1">
-        <v>637.4232177734375</v>
+        <v>636.2523803710938</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -25094,10 +25094,10 @@
         <v>154.1519012451172</v>
       </c>
       <c r="AH5" s="1">
-        <v>250.8983459472656</v>
+        <v>251.5027465820312</v>
       </c>
       <c r="AI5" s="1">
-        <v>982.97021484375</v>
+        <v>983.5746459960938</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -25201,10 +25201,10 @@
         <v>11.15979671478271</v>
       </c>
       <c r="AH6" s="1">
-        <v>165.818603515625</v>
+        <v>164.5751342773438</v>
       </c>
       <c r="AI6" s="1">
-        <v>256.1848754882812</v>
+        <v>254.9414215087891</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -25308,10 +25308,10 @@
         <v>23.37072372436523</v>
       </c>
       <c r="AH7" s="1">
-        <v>29.20648384094238</v>
+        <v>29.34525871276855</v>
       </c>
       <c r="AI7" s="1">
-        <v>716.9215698242188</v>
+        <v>717.0603637695312</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -25415,10 +25415,10 @@
         <v>79.83900451660156</v>
       </c>
       <c r="AH8" s="1">
-        <v>40.62837982177734</v>
+        <v>41.36333847045898</v>
       </c>
       <c r="AI8" s="1">
-        <v>715.101318359375</v>
+        <v>715.8362426757812</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -25522,10 +25522,10 @@
         <v>595.3295288085938</v>
       </c>
       <c r="AH9" s="1">
-        <v>633.3939208984375</v>
+        <v>612.8208618164062</v>
       </c>
       <c r="AI9" s="1">
-        <v>1694.155639648438</v>
+        <v>1673.582641601562</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -25629,10 +25629,10 @@
         <v>65.13996887207031</v>
       </c>
       <c r="AH10" s="1">
-        <v>46.26107406616211</v>
+        <v>45.86643981933594</v>
       </c>
       <c r="AI10" s="1">
-        <v>232.5022583007812</v>
+        <v>232.1076202392578</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -25736,10 +25736,10 @@
         <v>87.93630981445312</v>
       </c>
       <c r="AH11" s="1">
-        <v>282.96826171875</v>
+        <v>286.1164855957031</v>
       </c>
       <c r="AI11" s="1">
-        <v>1925.614013671875</v>
+        <v>1928.76220703125</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -25843,10 +25843,10 @@
         <v>23.72570419311523</v>
       </c>
       <c r="AH12" s="1">
-        <v>519.7971801757812</v>
+        <v>512.5357055664062</v>
       </c>
       <c r="AI12" s="1">
-        <v>1926.831787109375</v>
+        <v>1919.5703125</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -25950,10 +25950,10 @@
         <v>264.0399475097656</v>
       </c>
       <c r="AH13" s="1">
-        <v>202.2084045410156</v>
+        <v>206.8141174316406</v>
       </c>
       <c r="AI13" s="1">
-        <v>627.09912109375</v>
+        <v>631.704833984375</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -26057,10 +26057,10 @@
         <v>91.61267852783203</v>
       </c>
       <c r="AH14" s="1">
-        <v>245.8164672851562</v>
+        <v>247.5998229980469</v>
       </c>
       <c r="AI14" s="1">
-        <v>407.1836242675781</v>
+        <v>408.9669799804688</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -26164,10 +26164,10 @@
         <v>43.75181198120117</v>
       </c>
       <c r="AH15" s="1">
-        <v>108.0794525146484</v>
+        <v>109.1280670166016</v>
       </c>
       <c r="AI15" s="1">
-        <v>513.810302734375</v>
+        <v>514.85888671875</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -26271,10 +26271,10 @@
         <v>28.6290340423584</v>
       </c>
       <c r="AH16" s="1">
-        <v>116.5926818847656</v>
+        <v>116.606330871582</v>
       </c>
       <c r="AI16" s="1">
-        <v>912.19970703125</v>
+        <v>912.2133178710938</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -26485,10 +26485,10 @@
         <v>698.788818359375</v>
       </c>
       <c r="AH18" s="1">
-        <v>39.80721282958984</v>
+        <v>42.64505386352539</v>
       </c>
       <c r="AI18" s="1">
-        <v>2403.5576171875</v>
+        <v>2406.3955078125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -26589,13 +26589,13 @@
         <v>1106.776611328125</v>
       </c>
       <c r="AG19" s="1">
-        <v>353.7655639648438</v>
+        <v>353.765625</v>
       </c>
       <c r="AH19" s="1">
-        <v>134.5585174560547</v>
+        <v>129.3613891601562</v>
       </c>
       <c r="AI19" s="1">
-        <v>1595.100708007812</v>
+        <v>1589.903564453125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -26699,10 +26699,10 @@
         <v>135.9959869384766</v>
       </c>
       <c r="AH20" s="1">
-        <v>22.59291076660156</v>
+        <v>22.51006698608398</v>
       </c>
       <c r="AI20" s="1">
-        <v>637.9833984375</v>
+        <v>637.9005737304688</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -26806,10 +26806,10 @@
         <v>137.8955535888672</v>
       </c>
       <c r="AH21" s="1">
-        <v>150.2842712402344</v>
+        <v>149.5841674804688</v>
       </c>
       <c r="AI21" s="1">
-        <v>1646.378784179688</v>
+        <v>1645.6787109375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -26913,10 +26913,10 @@
         <v>319.7731628417969</v>
       </c>
       <c r="AH22" s="1">
-        <v>81.08016204833984</v>
+        <v>81.32206726074219</v>
       </c>
       <c r="AI22" s="1">
-        <v>836.0354614257812</v>
+        <v>836.27734375</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -27234,10 +27234,10 @@
         <v>364.0056457519531</v>
       </c>
       <c r="AH25" s="1">
-        <v>508.268310546875</v>
+        <v>507.3750610351562</v>
       </c>
       <c r="AI25" s="1">
-        <v>2811.176025390625</v>
+        <v>2810.28271484375</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -27341,10 +27341,10 @@
         <v>82.35503387451172</v>
       </c>
       <c r="AH26" s="1">
-        <v>90.79848480224609</v>
+        <v>93.93778991699219</v>
       </c>
       <c r="AI26" s="1">
-        <v>942.5266723632812</v>
+        <v>945.666015625</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -27448,10 +27448,10 @@
         <v>444.76220703125</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.0188730601221323</v>
+        <v>0.03593681752681732</v>
       </c>
       <c r="AI27" s="1">
-        <v>1528.142333984375</v>
+        <v>1528.159423828125</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -27555,10 +27555,10 @@
         <v>0.6845260262489319</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.541078209877014</v>
+        <v>1.541358709335327</v>
       </c>
       <c r="AI28" s="1">
-        <v>1031.107055664062</v>
+        <v>1031.107299804688</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -27662,7 +27662,7 @@
         <v>2.740998506546021</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.2123139053583145</v>
+        <v>0.2124198973178864</v>
       </c>
       <c r="AI29" s="1">
         <v>2106.455810546875</v>
@@ -27769,10 +27769,10 @@
         <v>240.2971649169922</v>
       </c>
       <c r="AH30" s="1">
-        <v>12.87511348724365</v>
+        <v>12.8862886428833</v>
       </c>
       <c r="AI30" s="1">
-        <v>759.158447265625</v>
+        <v>759.169677734375</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -27983,10 +27983,10 @@
         <v>4568.87890625</v>
       </c>
       <c r="AH32" s="1">
-        <v>4162.35302734375</v>
+        <v>4141.82177734375</v>
       </c>
       <c r="AI32" s="1">
-        <v>33764.72265625</v>
+        <v>33744.1875</v>
       </c>
     </row>
   </sheetData>
@@ -28210,10 +28210,10 @@
         <v>5.861133098602295</v>
       </c>
       <c r="AH2" s="1">
-        <v>10.8903980255127</v>
+        <v>10.76645946502686</v>
       </c>
       <c r="AI2" s="1">
-        <v>83.34499359130859</v>
+        <v>83.22105407714844</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -28317,10 +28317,10 @@
         <v>6.20232105255127</v>
       </c>
       <c r="AH3" s="1">
-        <v>6.823003768920898</v>
+        <v>6.824163436889648</v>
       </c>
       <c r="AI3" s="1">
-        <v>218.4085693359375</v>
+        <v>218.4097290039062</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -28424,10 +28424,10 @@
         <v>1.330101251602173</v>
       </c>
       <c r="AH4" s="1">
-        <v>40.60137557983398</v>
+        <v>40.49415969848633</v>
       </c>
       <c r="AI4" s="1">
-        <v>171.8907165527344</v>
+        <v>171.7835083007812</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -28531,10 +28531,10 @@
         <v>83.98365020751953</v>
       </c>
       <c r="AH5" s="1">
-        <v>42.00712585449219</v>
+        <v>42.06279754638672</v>
       </c>
       <c r="AI5" s="1">
-        <v>148.8725433349609</v>
+        <v>148.92822265625</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -28638,10 +28638,10 @@
         <v>9.869213104248047</v>
       </c>
       <c r="AH6" s="1">
-        <v>28.38376617431641</v>
+        <v>28.26840591430664</v>
       </c>
       <c r="AI6" s="1">
-        <v>39.16107559204102</v>
+        <v>39.04571533203125</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -28745,10 +28745,10 @@
         <v>9.538576126098633</v>
       </c>
       <c r="AH7" s="1">
-        <v>3.734226703643799</v>
+        <v>3.74693775177002</v>
       </c>
       <c r="AI7" s="1">
-        <v>99.79315185546875</v>
+        <v>99.80586242675781</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -28852,10 +28852,10 @@
         <v>38.56576538085938</v>
       </c>
       <c r="AH8" s="1">
-        <v>3.865531921386719</v>
+        <v>3.932940483093262</v>
       </c>
       <c r="AI8" s="1">
-        <v>50.44900512695312</v>
+        <v>50.51641845703125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -28959,10 +28959,10 @@
         <v>116.8496551513672</v>
       </c>
       <c r="AH9" s="1">
-        <v>90.69684600830078</v>
+        <v>88.81128692626953</v>
       </c>
       <c r="AI9" s="1">
-        <v>215.2716369628906</v>
+        <v>213.3860778808594</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -29066,10 +29066,10 @@
         <v>9.443808555603027</v>
       </c>
       <c r="AH10" s="1">
-        <v>6.439690589904785</v>
+        <v>6.403584957122803</v>
       </c>
       <c r="AI10" s="1">
-        <v>36.16331481933594</v>
+        <v>36.1272087097168</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -29173,10 +29173,10 @@
         <v>48.791748046875</v>
       </c>
       <c r="AH11" s="1">
-        <v>19.68151664733887</v>
+        <v>19.97006607055664</v>
       </c>
       <c r="AI11" s="1">
-        <v>102.6729202270508</v>
+        <v>102.9614639282227</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -29280,10 +29280,10 @@
         <v>17.86408042907715</v>
       </c>
       <c r="AH12" s="1">
-        <v>56.49711608886719</v>
+        <v>55.83055114746094</v>
       </c>
       <c r="AI12" s="1">
-        <v>144.1865539550781</v>
+        <v>143.5199890136719</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -29387,10 +29387,10 @@
         <v>42.26382827758789</v>
       </c>
       <c r="AH13" s="1">
-        <v>27.25726890563965</v>
+        <v>27.67910385131836</v>
       </c>
       <c r="AI13" s="1">
-        <v>87.97948455810547</v>
+        <v>88.40132141113281</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -29494,10 +29494,10 @@
         <v>3.931936502456665</v>
       </c>
       <c r="AH14" s="1">
-        <v>46.67679977416992</v>
+        <v>46.83953475952148</v>
       </c>
       <c r="AI14" s="1">
-        <v>120.2906494140625</v>
+        <v>120.4533843994141</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -29601,10 +29601,10 @@
         <v>28.22708320617676</v>
       </c>
       <c r="AH15" s="1">
-        <v>17.67416954040527</v>
+        <v>17.77078056335449</v>
       </c>
       <c r="AI15" s="1">
-        <v>76.66033935546875</v>
+        <v>76.75695037841797</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -29708,10 +29708,10 @@
         <v>2.588823556900024</v>
       </c>
       <c r="AH16" s="1">
-        <v>15.26876258850098</v>
+        <v>15.27001190185547</v>
       </c>
       <c r="AI16" s="1">
-        <v>154.8196258544922</v>
+        <v>154.8208770751953</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -29919,13 +29919,13 @@
         <v>219.6433258056641</v>
       </c>
       <c r="AG18" s="1">
-        <v>175.1266174316406</v>
+        <v>175.1265869140625</v>
       </c>
       <c r="AH18" s="1">
-        <v>4.945877552032471</v>
+        <v>5.205832481384277</v>
       </c>
       <c r="AI18" s="1">
-        <v>399.7158203125</v>
+        <v>399.9757385253906</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -30026,13 +30026,13 @@
         <v>174.7564849853516</v>
       </c>
       <c r="AG19" s="1">
-        <v>68.86098480224609</v>
+        <v>68.86097717285156</v>
       </c>
       <c r="AH19" s="1">
-        <v>19.58624458312988</v>
+        <v>19.11017036437988</v>
       </c>
       <c r="AI19" s="1">
-        <v>263.2037048339844</v>
+        <v>262.7276306152344</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -30136,10 +30136,10 @@
         <v>41.02639007568359</v>
       </c>
       <c r="AH20" s="1">
-        <v>4.263670444488525</v>
+        <v>4.256081581115723</v>
       </c>
       <c r="AI20" s="1">
-        <v>131.7292175292969</v>
+        <v>131.7216186523438</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -30243,10 +30243,10 @@
         <v>112.7322311401367</v>
       </c>
       <c r="AH21" s="1">
-        <v>20.78924942016602</v>
+        <v>20.72511672973633</v>
       </c>
       <c r="AI21" s="1">
-        <v>226.6923828125</v>
+        <v>226.6282501220703</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -30350,10 +30350,10 @@
         <v>82.60983276367188</v>
       </c>
       <c r="AH22" s="1">
-        <v>14.32439136505127</v>
+        <v>14.34655094146729</v>
       </c>
       <c r="AI22" s="1">
-        <v>154.1608581542969</v>
+        <v>154.1830139160156</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -30671,10 +30671,10 @@
         <v>80.77336120605469</v>
       </c>
       <c r="AH25" s="1">
-        <v>46.77909851074219</v>
+        <v>46.69727325439453</v>
       </c>
       <c r="AI25" s="1">
-        <v>307.9729614257812</v>
+        <v>307.8911437988281</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -30778,10 +30778,10 @@
         <v>20.61192321777344</v>
       </c>
       <c r="AH26" s="1">
-        <v>13.03055381774902</v>
+        <v>13.31812381744385</v>
       </c>
       <c r="AI26" s="1">
-        <v>160.7389526367188</v>
+        <v>161.0265197753906</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -30885,10 +30885,10 @@
         <v>23.21121406555176</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.003399952547624707</v>
+        <v>0.004963045008480549</v>
       </c>
       <c r="AI27" s="1">
-        <v>422.6080932617188</v>
+        <v>422.6096801757812</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -30992,10 +30992,10 @@
         <v>70.46121215820312</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.278357982635498</v>
+        <v>0.2783836722373962</v>
       </c>
       <c r="AI28" s="1">
-        <v>174.9012756347656</v>
+        <v>174.9013061523438</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -31099,10 +31099,10 @@
         <v>23.2741870880127</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.03997365385293961</v>
+        <v>0.0399833619594574</v>
       </c>
       <c r="AI29" s="1">
-        <v>387.7834777832031</v>
+        <v>387.7835083007812</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -31206,10 +31206,10 @@
         <v>20.67648506164551</v>
       </c>
       <c r="AH30" s="1">
-        <v>2.436802387237549</v>
+        <v>2.437826156616211</v>
       </c>
       <c r="AI30" s="1">
-        <v>158.6025238037109</v>
+        <v>158.6035461425781</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -31417,13 +31417,13 @@
         <v>3436.876708984375</v>
       </c>
       <c r="AG32" s="1">
-        <v>1315.874267578125</v>
+        <v>1315.874145507812</v>
       </c>
       <c r="AH32" s="1">
-        <v>542.975341796875</v>
+        <v>541.091064453125</v>
       </c>
       <c r="AI32" s="1">
-        <v>5295.72705078125</v>
+        <v>5293.8427734375</v>
       </c>
     </row>
   </sheetData>
@@ -31647,10 +31647,10 @@
         <v>31.59773254394531</v>
       </c>
       <c r="AH2" s="1">
-        <v>33.93096923828125</v>
+        <v>31.09330177307129</v>
       </c>
       <c r="AI2" s="1">
-        <v>162.3078460693359</v>
+        <v>159.4701843261719</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -31754,10 +31754,10 @@
         <v>18.31608772277832</v>
       </c>
       <c r="AH3" s="1">
-        <v>17.96738815307617</v>
+        <v>17.99394416809082</v>
       </c>
       <c r="AI3" s="1">
-        <v>305.5875854492188</v>
+        <v>305.6141357421875</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -31861,10 +31861,10 @@
         <v>5.277034282684326</v>
       </c>
       <c r="AH4" s="1">
-        <v>348.4492492675781</v>
+        <v>345.9982604980469</v>
       </c>
       <c r="AI4" s="1">
-        <v>783.1873779296875</v>
+        <v>780.736328125</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -31968,10 +31968,10 @@
         <v>254.0608062744141</v>
       </c>
       <c r="AH5" s="1">
-        <v>122.1090393066406</v>
+        <v>123.3838806152344</v>
       </c>
       <c r="AI5" s="1">
-        <v>446.4135131835938</v>
+        <v>447.6883544921875</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -32075,10 +32075,10 @@
         <v>25.93277740478516</v>
       </c>
       <c r="AH6" s="1">
-        <v>87.18419647216797</v>
+        <v>84.55126190185547</v>
       </c>
       <c r="AI6" s="1">
-        <v>133.4613189697266</v>
+        <v>130.8283843994141</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -32182,10 +32182,10 @@
         <v>140.5877380371094</v>
       </c>
       <c r="AH7" s="1">
-        <v>21.10344123840332</v>
+        <v>21.39451217651367</v>
       </c>
       <c r="AI7" s="1">
-        <v>296.4304809570312</v>
+        <v>296.7215576171875</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -32289,10 +32289,10 @@
         <v>100.0332107543945</v>
       </c>
       <c r="AH8" s="1">
-        <v>53.4595947265625</v>
+        <v>54.99827194213867</v>
       </c>
       <c r="AI8" s="1">
-        <v>987.1181030273438</v>
+        <v>988.6567993164062</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -32396,10 +32396,10 @@
         <v>771.6306762695312</v>
       </c>
       <c r="AH9" s="1">
-        <v>521.9268798828125</v>
+        <v>478.7727966308594</v>
       </c>
       <c r="AI9" s="1">
-        <v>1406.297241210938</v>
+        <v>1363.14306640625</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -32503,10 +32503,10 @@
         <v>62.54801559448242</v>
       </c>
       <c r="AH10" s="1">
-        <v>30.95010948181152</v>
+        <v>30.12220191955566</v>
       </c>
       <c r="AI10" s="1">
-        <v>154.7834777832031</v>
+        <v>153.95556640625</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -32610,10 +32610,10 @@
         <v>63.32550430297852</v>
       </c>
       <c r="AH11" s="1">
-        <v>390.6761169433594</v>
+        <v>397.2670288085938</v>
       </c>
       <c r="AI11" s="1">
-        <v>2737.041015625</v>
+        <v>2743.6318359375</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -32717,10 +32717,10 @@
         <v>319.9985961914062</v>
       </c>
       <c r="AH12" s="1">
-        <v>300.4555969238281</v>
+        <v>285.1522827148438</v>
       </c>
       <c r="AI12" s="1">
-        <v>638.2821044921875</v>
+        <v>622.978759765625</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -32824,10 +32824,10 @@
         <v>364.7773742675781</v>
       </c>
       <c r="AH13" s="1">
-        <v>228.3077087402344</v>
+        <v>237.9643249511719</v>
       </c>
       <c r="AI13" s="1">
-        <v>679.5078125</v>
+        <v>689.1644287109375</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -32931,10 +32931,10 @@
         <v>20.96858596801758</v>
       </c>
       <c r="AH14" s="1">
-        <v>189.5950164794922</v>
+        <v>193.3186950683594</v>
       </c>
       <c r="AI14" s="1">
-        <v>396.1722412109375</v>
+        <v>399.8959350585938</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -33038,10 +33038,10 @@
         <v>86.86711883544922</v>
       </c>
       <c r="AH15" s="1">
-        <v>67.0472412109375</v>
+        <v>69.25448608398438</v>
       </c>
       <c r="AI15" s="1">
-        <v>337.5941467285156</v>
+        <v>339.8013916015625</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -33145,10 +33145,10 @@
         <v>89.45722961425781</v>
       </c>
       <c r="AH16" s="1">
-        <v>115.057487487793</v>
+        <v>115.0860900878906</v>
       </c>
       <c r="AI16" s="1">
-        <v>739.5083618164062</v>
+        <v>739.5369873046875</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -33359,10 +33359,10 @@
         <v>755.6268310546875</v>
       </c>
       <c r="AH18" s="1">
-        <v>21.15808486938477</v>
+        <v>27.09914016723633</v>
       </c>
       <c r="AI18" s="1">
-        <v>1470.554809570312</v>
+        <v>1476.495849609375</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -33463,13 +33463,13 @@
         <v>623.210693359375</v>
       </c>
       <c r="AG19" s="1">
-        <v>364.1941528320312</v>
+        <v>364.194091796875</v>
       </c>
       <c r="AH19" s="1">
-        <v>106.3399505615234</v>
+        <v>95.45967102050781</v>
       </c>
       <c r="AI19" s="1">
-        <v>1093.744873046875</v>
+        <v>1082.864501953125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -33573,10 +33573,10 @@
         <v>12.77037143707275</v>
       </c>
       <c r="AH20" s="1">
-        <v>10.81067276000977</v>
+        <v>10.63723659515381</v>
       </c>
       <c r="AI20" s="1">
-        <v>410.1767578125</v>
+        <v>410.0032958984375</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -33680,10 +33680,10 @@
         <v>620.852783203125</v>
       </c>
       <c r="AH21" s="1">
-        <v>103.4930572509766</v>
+        <v>102.0273284912109</v>
       </c>
       <c r="AI21" s="1">
-        <v>885.487548828125</v>
+        <v>884.0218505859375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -33787,10 +33787,10 @@
         <v>266.0084228515625</v>
       </c>
       <c r="AH22" s="1">
-        <v>43.56063079833984</v>
+        <v>44.06706237792969</v>
       </c>
       <c r="AI22" s="1">
-        <v>425.7185974121094</v>
+        <v>426.2250366210938</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -34108,10 +34108,10 @@
         <v>332.1625061035156</v>
       </c>
       <c r="AH25" s="1">
-        <v>194.7693786621094</v>
+        <v>192.8993530273438</v>
       </c>
       <c r="AI25" s="1">
-        <v>1110.64501953125</v>
+        <v>1108.775024414062</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -34215,10 +34215,10 @@
         <v>204.7483673095703</v>
       </c>
       <c r="AH26" s="1">
-        <v>52.28708267211914</v>
+        <v>58.8592529296875</v>
       </c>
       <c r="AI26" s="1">
-        <v>492.9767456054688</v>
+        <v>499.5488891601562</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -34322,10 +34322,10 @@
         <v>55.91751098632812</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.008831965737044811</v>
+        <v>0.04455514624714851</v>
       </c>
       <c r="AI27" s="1">
-        <v>846.1554565429688</v>
+        <v>846.191162109375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -34429,10 +34429,10 @@
         <v>3.663240909576416</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.7110050320625305</v>
+        <v>0.7115921974182129</v>
       </c>
       <c r="AI28" s="1">
-        <v>451.3957214355469</v>
+        <v>451.3963317871094</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -34536,10 +34536,10 @@
         <v>0.5104717016220093</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.09590430557727814</v>
+        <v>0.09612618386745453</v>
       </c>
       <c r="AI29" s="1">
-        <v>998.340576171875</v>
+        <v>998.3408203125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -34643,10 +34643,10 @@
         <v>85.6019287109375</v>
       </c>
       <c r="AH30" s="1">
-        <v>5.953104019165039</v>
+        <v>5.976500034332275</v>
       </c>
       <c r="AI30" s="1">
-        <v>374.1125183105469</v>
+        <v>374.1359252929688</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -34857,10 +34857,10 @@
         <v>5268.4228515625</v>
       </c>
       <c r="AH32" s="1">
-        <v>3067.40771484375</v>
+        <v>3024.229248046875</v>
       </c>
       <c r="AI32" s="1">
-        <v>20780.6328125</v>
+        <v>20737.453125</v>
       </c>
     </row>
   </sheetData>
@@ -35084,10 +35084,10 @@
         <v>8.209676742553711</v>
       </c>
       <c r="AH2" s="1">
-        <v>8.559930801391602</v>
+        <v>8.48660945892334</v>
       </c>
       <c r="AI2" s="1">
-        <v>48.62904357910156</v>
+        <v>48.55571746826172</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -35191,10 +35191,10 @@
         <v>3.310057401657104</v>
       </c>
       <c r="AH3" s="1">
-        <v>2.220046997070312</v>
+        <v>2.220733404159546</v>
       </c>
       <c r="AI3" s="1">
-        <v>32.1514892578125</v>
+        <v>32.15217590332031</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -35298,10 +35298,10 @@
         <v>3.309980869293213</v>
       </c>
       <c r="AH4" s="1">
-        <v>17.29525947570801</v>
+        <v>17.23173713684082</v>
       </c>
       <c r="AI4" s="1">
-        <v>23.17511367797852</v>
+        <v>23.11159133911133</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -35405,10 +35405,10 @@
         <v>13.66717147827148</v>
       </c>
       <c r="AH5" s="1">
-        <v>24.74801254272461</v>
+        <v>24.78067779541016</v>
       </c>
       <c r="AI5" s="1">
-        <v>114.4750366210938</v>
+        <v>114.5077056884766</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -35512,10 +35512,10 @@
         <v>5.042909622192383</v>
       </c>
       <c r="AH6" s="1">
-        <v>14.21237850189209</v>
+        <v>14.14410305023193</v>
       </c>
       <c r="AI6" s="1">
-        <v>20.32150077819824</v>
+        <v>20.25322532653809</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -35619,10 +35619,10 @@
         <v>12.13913536071777</v>
       </c>
       <c r="AH7" s="1">
-        <v>1.773264169692993</v>
+        <v>1.780787706375122</v>
       </c>
       <c r="AI7" s="1">
-        <v>30.07333564758301</v>
+        <v>30.08086013793945</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -35726,10 +35726,10 @@
         <v>25.85549926757812</v>
       </c>
       <c r="AH8" s="1">
-        <v>2.660373449325562</v>
+        <v>2.700210094451904</v>
       </c>
       <c r="AI8" s="1">
-        <v>32.87140274047852</v>
+        <v>32.91123962402344</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -35833,10 +35833,10 @@
         <v>81.29584503173828</v>
       </c>
       <c r="AH9" s="1">
-        <v>63.8291130065918</v>
+        <v>62.71905136108398</v>
       </c>
       <c r="AI9" s="1">
-        <v>191.9260864257812</v>
+        <v>190.8160247802734</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -35940,10 +35940,10 @@
         <v>9.680362701416016</v>
       </c>
       <c r="AH10" s="1">
-        <v>2.933497905731201</v>
+        <v>2.912138700485229</v>
       </c>
       <c r="AI10" s="1">
-        <v>13.97052955627441</v>
+        <v>13.94917011260986</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -36047,10 +36047,10 @@
         <v>24.44884300231934</v>
       </c>
       <c r="AH11" s="1">
-        <v>8.812919616699219</v>
+        <v>8.983356475830078</v>
       </c>
       <c r="AI11" s="1">
-        <v>47.29760360717773</v>
+        <v>47.46803665161133</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -36154,10 +36154,10 @@
         <v>22.43734931945801</v>
       </c>
       <c r="AH12" s="1">
-        <v>26.06188011169434</v>
+        <v>25.66569519042969</v>
       </c>
       <c r="AI12" s="1">
-        <v>54.17078399658203</v>
+        <v>53.77459716796875</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -36261,10 +36261,10 @@
         <v>20.09918594360352</v>
       </c>
       <c r="AH13" s="1">
-        <v>14.47304725646973</v>
+        <v>14.72223377227783</v>
       </c>
       <c r="AI13" s="1">
-        <v>48.26527404785156</v>
+        <v>48.51445770263672</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -36368,10 +36368,10 @@
         <v>18.3193359375</v>
       </c>
       <c r="AH14" s="1">
-        <v>33.43978118896484</v>
+        <v>33.5362663269043</v>
       </c>
       <c r="AI14" s="1">
-        <v>52.71777725219727</v>
+        <v>52.81426239013672</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -36475,10 +36475,10 @@
         <v>26.32314491271973</v>
       </c>
       <c r="AH15" s="1">
-        <v>9.425642013549805</v>
+        <v>9.482872009277344</v>
       </c>
       <c r="AI15" s="1">
-        <v>51.27896881103516</v>
+        <v>51.33619689941406</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -36582,10 +36582,10 @@
         <v>19.99862670898438</v>
       </c>
       <c r="AH16" s="1">
-        <v>7.746886730194092</v>
+        <v>7.747626304626465</v>
       </c>
       <c r="AI16" s="1">
-        <v>76.17562866210938</v>
+        <v>76.17637634277344</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -36796,10 +36796,10 @@
         <v>97.87966918945312</v>
       </c>
       <c r="AH18" s="1">
-        <v>4.131439208984375</v>
+        <v>4.284884452819824</v>
       </c>
       <c r="AI18" s="1">
-        <v>267.5260620117188</v>
+        <v>267.6795043945312</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -36903,10 +36903,10 @@
         <v>13.31407451629639</v>
       </c>
       <c r="AH19" s="1">
-        <v>20.87587356567383</v>
+        <v>20.59485626220703</v>
       </c>
       <c r="AI19" s="1">
-        <v>774.1159057617188</v>
+        <v>773.8348999023438</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -37010,10 +37010,10 @@
         <v>10.57439517974854</v>
       </c>
       <c r="AH20" s="1">
-        <v>2.324002265930176</v>
+        <v>2.319522619247437</v>
       </c>
       <c r="AI20" s="1">
-        <v>84.45697021484375</v>
+        <v>84.45249176025391</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -37117,10 +37117,10 @@
         <v>55.31417083740234</v>
       </c>
       <c r="AH21" s="1">
-        <v>13.93826484680176</v>
+        <v>13.90040874481201</v>
       </c>
       <c r="AI21" s="1">
-        <v>157.4917907714844</v>
+        <v>157.4539489746094</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -37224,10 +37224,10 @@
         <v>14.94435405731201</v>
       </c>
       <c r="AH22" s="1">
-        <v>8.231058120727539</v>
+        <v>8.244138717651367</v>
       </c>
       <c r="AI22" s="1">
-        <v>130.9791870117188</v>
+        <v>130.9922637939453</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -37545,10 +37545,10 @@
         <v>53.57487487792969</v>
       </c>
       <c r="AH25" s="1">
-        <v>26.44516563415527</v>
+        <v>26.39686584472656</v>
       </c>
       <c r="AI25" s="1">
-        <v>165.2168731689453</v>
+        <v>165.1685791015625</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -37652,10 +37652,10 @@
         <v>52.55777359008789</v>
       </c>
       <c r="AH26" s="1">
-        <v>7.789630889892578</v>
+        <v>7.959376811981201</v>
       </c>
       <c r="AI26" s="1">
-        <v>90.53166198730469</v>
+        <v>90.70140838623047</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -37759,10 +37759,10 @@
         <v>17.37851333618164</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.00137422583065927</v>
+        <v>0.002296884777024388</v>
       </c>
       <c r="AI27" s="1">
-        <v>153.6625213623047</v>
+        <v>153.6634521484375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -37866,10 +37866,10 @@
         <v>1.150196194648743</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.1113418862223625</v>
+        <v>0.1113570481538773</v>
       </c>
       <c r="AI28" s="1">
-        <v>70.60010528564453</v>
+        <v>70.60012054443359</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -37973,10 +37973,10 @@
         <v>0.1025120466947556</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.01617483608424664</v>
+        <v>0.01618056558072567</v>
       </c>
       <c r="AI29" s="1">
-        <v>183.1496429443359</v>
+        <v>183.149658203125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -38080,10 +38080,10 @@
         <v>13.16540241241455</v>
       </c>
       <c r="AH30" s="1">
-        <v>1.126174688339233</v>
+        <v>1.126778960227966</v>
       </c>
       <c r="AI30" s="1">
-        <v>82.96516418457031</v>
+        <v>82.96576690673828</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -38294,10 +38294,10 @@
         <v>639.900634765625</v>
       </c>
       <c r="AH32" s="1">
-        <v>323.1824951171875</v>
+        <v>322.0707092285156</v>
       </c>
       <c r="AI32" s="1">
-        <v>3418.24609375</v>
+        <v>3417.134033203125</v>
       </c>
     </row>
   </sheetData>
@@ -38521,10 +38521,10 @@
         <v>51.98540496826172</v>
       </c>
       <c r="AH2" s="1">
-        <v>117.6815338134766</v>
+        <v>114.4049835205078</v>
       </c>
       <c r="AI2" s="1">
-        <v>672.8602294921875</v>
+        <v>669.5836181640625</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -38628,10 +38628,10 @@
         <v>35.82361221313477</v>
       </c>
       <c r="AH3" s="1">
-        <v>26.25909423828125</v>
+        <v>26.28980445861816</v>
       </c>
       <c r="AI3" s="1">
-        <v>282.3587036132812</v>
+        <v>282.389404296875</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -38735,10 +38735,10 @@
         <v>156.7510528564453</v>
       </c>
       <c r="AH4" s="1">
-        <v>970.6758422851562</v>
+        <v>967.8348999023438</v>
       </c>
       <c r="AI4" s="1">
-        <v>1255.441528320312</v>
+        <v>1252.6005859375</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -38842,10 +38842,10 @@
         <v>271.7632141113281</v>
       </c>
       <c r="AH5" s="1">
-        <v>348.3934631347656</v>
+        <v>349.8546447753906</v>
       </c>
       <c r="AI5" s="1">
-        <v>1421.958984375</v>
+        <v>1423.420166015625</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -38949,10 +38949,10 @@
         <v>58.68429183959961</v>
       </c>
       <c r="AH6" s="1">
-        <v>213.759765625</v>
+        <v>210.7329711914062</v>
       </c>
       <c r="AI6" s="1">
-        <v>320.7407531738281</v>
+        <v>317.7139587402344</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -39056,10 +39056,10 @@
         <v>246.7777862548828</v>
       </c>
       <c r="AH7" s="1">
-        <v>32.6584587097168</v>
+        <v>32.99506759643555</v>
       </c>
       <c r="AI7" s="1">
-        <v>473.860107421875</v>
+        <v>474.1967163085938</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -39163,10 +39163,10 @@
         <v>652.5485229492188</v>
       </c>
       <c r="AH8" s="1">
-        <v>61.98935699462891</v>
+        <v>63.77050018310547</v>
       </c>
       <c r="AI8" s="1">
-        <v>878.4583740234375</v>
+        <v>880.239501953125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -39270,10 +39270,10 @@
         <v>162.6578979492188</v>
       </c>
       <c r="AH9" s="1">
-        <v>1165.163208007812</v>
+        <v>1115.636352539062</v>
       </c>
       <c r="AI9" s="1">
-        <v>4383.3896484375</v>
+        <v>4333.8623046875</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -39377,10 +39377,10 @@
         <v>8.973700523376465</v>
       </c>
       <c r="AH10" s="1">
-        <v>61.26203918457031</v>
+        <v>60.31156158447266</v>
       </c>
       <c r="AI10" s="1">
-        <v>512.6751708984375</v>
+        <v>511.7247314453125</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -39484,10 +39484,10 @@
         <v>417.3422546386719</v>
       </c>
       <c r="AH11" s="1">
-        <v>346.7841796875</v>
+        <v>354.4095458984375</v>
       </c>
       <c r="AI11" s="1">
-        <v>1682.001708984375</v>
+        <v>1689.627075195312</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -39591,10 +39591,10 @@
         <v>188.4302825927734</v>
       </c>
       <c r="AH12" s="1">
-        <v>560.2327270507812</v>
+        <v>542.6188354492188</v>
       </c>
       <c r="AI12" s="1">
-        <v>1273.365844726562</v>
+        <v>1255.751953125</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -39698,10 +39698,10 @@
         <v>116.432487487793</v>
       </c>
       <c r="AH13" s="1">
-        <v>416.0459594726562</v>
+        <v>427.1613159179688</v>
       </c>
       <c r="AI13" s="1">
-        <v>1424.603881835938</v>
+        <v>1435.71923828125</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -39805,10 +39805,10 @@
         <v>16.65218734741211</v>
       </c>
       <c r="AH14" s="1">
-        <v>422.31103515625</v>
+        <v>426.6103515625</v>
       </c>
       <c r="AI14" s="1">
-        <v>1192.0322265625</v>
+        <v>1196.33154296875</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -39912,10 +39912,10 @@
         <v>47.2852668762207</v>
       </c>
       <c r="AH15" s="1">
-        <v>139.4231872558594</v>
+        <v>141.9570007324219</v>
       </c>
       <c r="AI15" s="1">
-        <v>660.9581298828125</v>
+        <v>663.491943359375</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -40019,10 +40019,10 @@
         <v>296.1192626953125</v>
       </c>
       <c r="AH16" s="1">
-        <v>120.2624359130859</v>
+        <v>120.2955093383789</v>
       </c>
       <c r="AI16" s="1">
-        <v>982.3535766601562</v>
+        <v>982.3865966796875</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -40230,13 +40230,13 @@
         <v>2253.779296875</v>
       </c>
       <c r="AG18" s="1">
-        <v>960.555908203125</v>
+        <v>960.55615234375</v>
       </c>
       <c r="AH18" s="1">
-        <v>53.6140022277832</v>
+        <v>60.48476028442383</v>
       </c>
       <c r="AI18" s="1">
-        <v>3267.94921875</v>
+        <v>3274.8203125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -40340,10 +40340,10 @@
         <v>324.9987182617188</v>
       </c>
       <c r="AH19" s="1">
-        <v>192.6407165527344</v>
+        <v>180.0578308105469</v>
       </c>
       <c r="AI19" s="1">
-        <v>2115.88232421875</v>
+        <v>2103.299560546875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -40447,10 +40447,10 @@
         <v>115.2855529785156</v>
       </c>
       <c r="AH20" s="1">
-        <v>28.7796688079834</v>
+        <v>28.5790901184082</v>
       </c>
       <c r="AI20" s="1">
-        <v>838.9759521484375</v>
+        <v>838.7753295898438</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -40554,10 +40554,10 @@
         <v>791.2513427734375</v>
       </c>
       <c r="AH21" s="1">
-        <v>196.9263458251953</v>
+        <v>195.2313232421875</v>
       </c>
       <c r="AI21" s="1">
-        <v>1919.571044921875</v>
+        <v>1917.8759765625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -40661,10 +40661,10 @@
         <v>296.5210571289062</v>
       </c>
       <c r="AH22" s="1">
-        <v>104.5593414306641</v>
+        <v>105.14501953125</v>
       </c>
       <c r="AI22" s="1">
-        <v>1140.858154296875</v>
+        <v>1141.44384765625</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -40982,10 +40982,10 @@
         <v>387.2603759765625</v>
       </c>
       <c r="AH25" s="1">
-        <v>480.1662292480469</v>
+        <v>478.0035705566406</v>
       </c>
       <c r="AI25" s="1">
-        <v>2776.45458984375</v>
+        <v>2774.2919921875</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -41089,10 +41089,10 @@
         <v>141.2872314453125</v>
       </c>
       <c r="AH26" s="1">
-        <v>114.2822570800781</v>
+        <v>121.8828887939453</v>
       </c>
       <c r="AI26" s="1">
-        <v>1254.6279296875</v>
+        <v>1262.228515625</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -41196,10 +41196,10 @@
         <v>569.919921875</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.02200859971344471</v>
+        <v>0.06332200765609741</v>
       </c>
       <c r="AI27" s="1">
-        <v>1793.769775390625</v>
+        <v>1793.81103515625</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -41303,10 +41303,10 @@
         <v>48.89284515380859</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.769200682640076</v>
+        <v>1.769879698753357</v>
       </c>
       <c r="AI28" s="1">
-        <v>1113.113525390625</v>
+        <v>1113.1142578125</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -41410,10 +41410,10 @@
         <v>10.37314414978027</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.2506638169288635</v>
+        <v>0.2509204149246216</v>
       </c>
       <c r="AI29" s="1">
-        <v>2455.2568359375</v>
+        <v>2455.257080078125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -41517,10 +41517,10 @@
         <v>306.4934997558594</v>
       </c>
       <c r="AH30" s="1">
-        <v>15.93794727325439</v>
+        <v>15.96500396728516</v>
       </c>
       <c r="AI30" s="1">
-        <v>967.6742553710938</v>
+        <v>967.7012939453125</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -41728,13 +41728,13 @@
         <v>28779.103515625</v>
       </c>
       <c r="AG32" s="1">
-        <v>7258.2451171875</v>
+        <v>7258.24560546875</v>
       </c>
       <c r="AH32" s="1">
-        <v>6191.849609375</v>
+        <v>6142.31689453125</v>
       </c>
       <c r="AI32" s="1">
-        <v>42229.20703125</v>
+        <v>42179.66796875</v>
       </c>
     </row>
   </sheetData>
@@ -41958,10 +41958,10 @@
         <v>68.45523071289062</v>
       </c>
       <c r="AH2" s="1">
-        <v>72.96880340576172</v>
+        <v>69.65393829345703</v>
       </c>
       <c r="AI2" s="1">
-        <v>384.6969604492188</v>
+        <v>381.382080078125</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -42065,10 +42065,10 @@
         <v>137.5517425537109</v>
       </c>
       <c r="AH3" s="1">
-        <v>23.92383193969727</v>
+        <v>23.95492553710938</v>
       </c>
       <c r="AI3" s="1">
-        <v>330.0684204101562</v>
+        <v>330.0994873046875</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -42172,10 +42172,10 @@
         <v>87.69463348388672</v>
       </c>
       <c r="AH4" s="1">
-        <v>482.3285217285156</v>
+        <v>479.4546203613281</v>
       </c>
       <c r="AI4" s="1">
-        <v>634.0785522460938</v>
+        <v>631.2046508789062</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -42279,10 +42279,10 @@
         <v>87.70269012451172</v>
       </c>
       <c r="AH5" s="1">
-        <v>178.8815002441406</v>
+        <v>180.3544921875</v>
       </c>
       <c r="AI5" s="1">
-        <v>889.9222412109375</v>
+        <v>891.3952026367188</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -42386,10 +42386,10 @@
         <v>13.27445793151855</v>
       </c>
       <c r="AH6" s="1">
-        <v>119.4480590820312</v>
+        <v>116.4192504882812</v>
       </c>
       <c r="AI6" s="1">
-        <v>218.6812133789062</v>
+        <v>215.6524047851562</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -42493,10 +42493,10 @@
         <v>158.4452362060547</v>
       </c>
       <c r="AH7" s="1">
-        <v>27.20404815673828</v>
+        <v>27.54422569274902</v>
       </c>
       <c r="AI7" s="1">
-        <v>440.8822021484375</v>
+        <v>441.2223815917969</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -42600,10 +42600,10 @@
         <v>211.1312103271484</v>
       </c>
       <c r="AH8" s="1">
-        <v>62.63297653198242</v>
+        <v>64.43268585205078</v>
       </c>
       <c r="AI8" s="1">
-        <v>1211.0244140625</v>
+        <v>1212.824096679688</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -42707,10 +42707,10 @@
         <v>594.3248901367188</v>
       </c>
       <c r="AH9" s="1">
-        <v>707.965576171875</v>
+        <v>657.8257446289062</v>
       </c>
       <c r="AI9" s="1">
-        <v>2152.430419921875</v>
+        <v>2102.29052734375</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -42814,10 +42814,10 @@
         <v>66.37403106689453</v>
       </c>
       <c r="AH10" s="1">
-        <v>32.80888366699219</v>
+        <v>31.84574508666992</v>
       </c>
       <c r="AI10" s="1">
-        <v>179.2669830322266</v>
+        <v>178.3038330078125</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -42921,10 +42921,10 @@
         <v>172.4904174804688</v>
       </c>
       <c r="AH11" s="1">
-        <v>369.8113098144531</v>
+        <v>377.5247802734375</v>
       </c>
       <c r="AI11" s="1">
-        <v>2183.65185546875</v>
+        <v>2191.365234375</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -43028,10 +43028,10 @@
         <v>325.7286682128906</v>
       </c>
       <c r="AH12" s="1">
-        <v>372.7180786132812</v>
+        <v>354.8775024414062</v>
       </c>
       <c r="AI12" s="1">
-        <v>859.4810791015625</v>
+        <v>841.6405029296875</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -43135,10 +43135,10 @@
         <v>102.4580078125</v>
       </c>
       <c r="AH13" s="1">
-        <v>347.9412841796875</v>
+        <v>359.1787719726562</v>
       </c>
       <c r="AI13" s="1">
-        <v>1310.6455078125</v>
+        <v>1321.882934570312</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -43242,10 +43242,10 @@
         <v>54.69243621826172</v>
       </c>
       <c r="AH14" s="1">
-        <v>227.6140441894531</v>
+        <v>231.9655151367188</v>
       </c>
       <c r="AI14" s="1">
-        <v>479.4678344726562</v>
+        <v>483.8193054199219</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -43349,10 +43349,10 @@
         <v>62.83801651000977</v>
       </c>
       <c r="AH15" s="1">
-        <v>83.85934448242188</v>
+        <v>86.41773986816406</v>
       </c>
       <c r="AI15" s="1">
-        <v>482.7452392578125</v>
+        <v>485.3036499023438</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -43456,10 +43456,10 @@
         <v>8.110029220581055</v>
       </c>
       <c r="AH16" s="1">
-        <v>107.5888366699219</v>
+        <v>107.6222229003906</v>
       </c>
       <c r="AI16" s="1">
-        <v>959.62109375</v>
+        <v>959.6544799804688</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -43670,10 +43670,10 @@
         <v>1094.53662109375</v>
       </c>
       <c r="AH18" s="1">
-        <v>26.53461074829102</v>
+        <v>33.48840713500977</v>
       </c>
       <c r="AI18" s="1">
-        <v>2060.741455078125</v>
+        <v>2067.6953125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -43774,13 +43774,13 @@
         <v>787.0037841796875</v>
       </c>
       <c r="AG19" s="1">
-        <v>474.0601501464844</v>
+        <v>474.0600891113281</v>
       </c>
       <c r="AH19" s="1">
-        <v>128.8507995605469</v>
+        <v>116.1158218383789</v>
       </c>
       <c r="AI19" s="1">
-        <v>1389.914794921875</v>
+        <v>1377.1796875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -43884,10 +43884,10 @@
         <v>126.1083831787109</v>
       </c>
       <c r="AH20" s="1">
-        <v>13.48582935333252</v>
+        <v>13.28282737731934</v>
       </c>
       <c r="AI20" s="1">
-        <v>402.3457946777344</v>
+        <v>402.1427917480469</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -43991,10 +43991,10 @@
         <v>777.9642333984375</v>
       </c>
       <c r="AH21" s="1">
-        <v>127.0981597900391</v>
+        <v>125.3826599121094</v>
       </c>
       <c r="AI21" s="1">
-        <v>1162.250610351562</v>
+        <v>1160.53515625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -44098,10 +44098,10 @@
         <v>341.0259704589844</v>
       </c>
       <c r="AH22" s="1">
-        <v>55.51787567138672</v>
+        <v>56.11063385009766</v>
       </c>
       <c r="AI22" s="1">
-        <v>587.7335815429688</v>
+        <v>588.3263549804688</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -44419,10 +44419,10 @@
         <v>485.7941284179688</v>
       </c>
       <c r="AH25" s="1">
-        <v>253.8903198242188</v>
+        <v>251.7015228271484</v>
       </c>
       <c r="AI25" s="1">
-        <v>1478.986938476562</v>
+        <v>1476.798095703125</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -44526,10 +44526,10 @@
         <v>232.7346496582031</v>
       </c>
       <c r="AH26" s="1">
-        <v>68.34323120117188</v>
+        <v>76.03572845458984</v>
       </c>
       <c r="AI26" s="1">
-        <v>680.0974731445312</v>
+        <v>687.7899780273438</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -44633,10 +44633,10 @@
         <v>206.6706237792969</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.01104280259460211</v>
+        <v>0.05285553634166718</v>
       </c>
       <c r="AI27" s="1">
-        <v>995.4439697265625</v>
+        <v>995.48583984375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -44740,10 +44740,10 @@
         <v>114.9034194946289</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.8615985512733459</v>
+        <v>0.862285852432251</v>
       </c>
       <c r="AI28" s="1">
-        <v>541.8063354492188</v>
+        <v>541.8070068359375</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -44847,10 +44847,10 @@
         <v>5.824988842010498</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.1186686307191849</v>
+        <v>0.1189283281564713</v>
       </c>
       <c r="AI29" s="1">
-        <v>1175.298461914062</v>
+        <v>1175.298828125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -44954,10 +44954,10 @@
         <v>176.9415893554688</v>
       </c>
       <c r="AH30" s="1">
-        <v>7.489314556121826</v>
+        <v>7.516698837280273</v>
       </c>
       <c r="AI30" s="1">
-        <v>492.55517578125</v>
+        <v>492.5825500488281</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -45168,10 +45168,10 @@
         <v>6452.68017578125</v>
       </c>
       <c r="AH32" s="1">
-        <v>3899.896484375</v>
+        <v>3849.739990234375</v>
       </c>
       <c r="AI32" s="1">
-        <v>26404.66015625</v>
+        <v>26354.50390625</v>
       </c>
     </row>
   </sheetData>
@@ -45395,10 +45395,10 @@
         <v>116.7260971069336</v>
       </c>
       <c r="AH2" s="1">
-        <v>66.24903869628906</v>
+        <v>64.98162841796875</v>
       </c>
       <c r="AI2" s="1">
-        <v>336.8957214355469</v>
+        <v>335.6283264160156</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -45502,10 +45502,10 @@
         <v>30.85716247558594</v>
       </c>
       <c r="AH3" s="1">
-        <v>16.13871765136719</v>
+        <v>16.15057754516602</v>
       </c>
       <c r="AI3" s="1">
-        <v>219.6780548095703</v>
+        <v>219.6899108886719</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -45609,10 +45609,10 @@
         <v>28.05905914306641</v>
       </c>
       <c r="AH4" s="1">
-        <v>172.2733306884766</v>
+        <v>171.1761932373047</v>
       </c>
       <c r="AI4" s="1">
-        <v>232.8999176025391</v>
+        <v>231.8027801513672</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -45716,10 +45716,10 @@
         <v>51.41645431518555</v>
       </c>
       <c r="AH5" s="1">
-        <v>143.4900360107422</v>
+        <v>144.0520935058594</v>
       </c>
       <c r="AI5" s="1">
-        <v>958.174560546875</v>
+        <v>958.7366333007812</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -45823,10 +45823,10 @@
         <v>20.88510704040527</v>
       </c>
       <c r="AH6" s="1">
-        <v>78.38015747070312</v>
+        <v>77.21954345703125</v>
       </c>
       <c r="AI6" s="1">
-        <v>123.2956085205078</v>
+        <v>122.1349945068359</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -45930,10 +45930,10 @@
         <v>56.55254364013672</v>
       </c>
       <c r="AH7" s="1">
-        <v>13.3391056060791</v>
+        <v>13.46897029876709</v>
       </c>
       <c r="AI7" s="1">
-        <v>234.1947479248047</v>
+        <v>234.3246154785156</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -46037,10 +46037,10 @@
         <v>190.0803833007812</v>
       </c>
       <c r="AH8" s="1">
-        <v>25.69606018066406</v>
+        <v>26.38379096984863</v>
       </c>
       <c r="AI8" s="1">
-        <v>444.1190185546875</v>
+        <v>444.8067626953125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -46144,10 +46144,10 @@
         <v>432.3738098144531</v>
       </c>
       <c r="AH9" s="1">
-        <v>334.5603942871094</v>
+        <v>315.3947143554688</v>
       </c>
       <c r="AI9" s="1">
-        <v>933.705322265625</v>
+        <v>914.5396728515625</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -46251,10 +46251,10 @@
         <v>8.799758911132812</v>
       </c>
       <c r="AH10" s="1">
-        <v>22.83693885803223</v>
+        <v>22.46996307373047</v>
       </c>
       <c r="AI10" s="1">
-        <v>191.5946807861328</v>
+        <v>191.2276916503906</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -46358,10 +46358,10 @@
         <v>96.75128173828125</v>
       </c>
       <c r="AH11" s="1">
-        <v>181.4430236816406</v>
+        <v>184.3885803222656</v>
       </c>
       <c r="AI11" s="1">
-        <v>1258.743774414062</v>
+        <v>1261.689331054688</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -46465,10 +46465,10 @@
         <v>172.7197723388672</v>
       </c>
       <c r="AH12" s="1">
-        <v>191.6247863769531</v>
+        <v>184.8109436035156</v>
       </c>
       <c r="AI12" s="1">
-        <v>428.9798583984375</v>
+        <v>422.166015625</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -46572,10 +46572,10 @@
         <v>128.3413848876953</v>
       </c>
       <c r="AH13" s="1">
-        <v>140.5890960693359</v>
+        <v>144.8845520019531</v>
       </c>
       <c r="AI13" s="1">
-        <v>485.0675048828125</v>
+        <v>489.3629760742188</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -46679,10 +46679,10 @@
         <v>21.44751358032227</v>
       </c>
       <c r="AH14" s="1">
-        <v>141.0254821777344</v>
+        <v>142.6865997314453</v>
       </c>
       <c r="AI14" s="1">
-        <v>341.4570922851562</v>
+        <v>343.1182250976562</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -46786,10 +46786,10 @@
         <v>69.81719970703125</v>
       </c>
       <c r="AH15" s="1">
-        <v>51.59994506835938</v>
+        <v>52.57851409912109</v>
       </c>
       <c r="AI15" s="1">
-        <v>260.6073608398438</v>
+        <v>261.5859069824219</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -46893,10 +46893,10 @@
         <v>101.207649230957</v>
       </c>
       <c r="AH16" s="1">
-        <v>63.37876892089844</v>
+        <v>63.39153289794922</v>
       </c>
       <c r="AI16" s="1">
-        <v>492.4498291015625</v>
+        <v>492.4625854492188</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -47107,10 +47107,10 @@
         <v>489.5868225097656</v>
       </c>
       <c r="AH18" s="1">
-        <v>18.72893524169922</v>
+        <v>21.38444900512695</v>
       </c>
       <c r="AI18" s="1">
-        <v>1329.300048828125</v>
+        <v>1331.95556640625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -47211,13 +47211,13 @@
         <v>389.5416259765625</v>
       </c>
       <c r="AG19" s="1">
-        <v>328.6116943359375</v>
+        <v>328.6117248535156</v>
       </c>
       <c r="AH19" s="1">
-        <v>69.52019500732422</v>
+        <v>64.65696716308594</v>
       </c>
       <c r="AI19" s="1">
-        <v>787.6735229492188</v>
+        <v>782.810302734375</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -47321,10 +47321,10 @@
         <v>96.71466064453125</v>
       </c>
       <c r="AH20" s="1">
-        <v>10.47358131408691</v>
+        <v>10.3960599899292</v>
       </c>
       <c r="AI20" s="1">
-        <v>319.8978271484375</v>
+        <v>319.8203125</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -47428,10 +47428,10 @@
         <v>419.4212036132812</v>
       </c>
       <c r="AH21" s="1">
-        <v>71.21255493164062</v>
+        <v>70.55744171142578</v>
       </c>
       <c r="AI21" s="1">
-        <v>720.2794799804688</v>
+        <v>719.6243896484375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -47535,10 +47535,10 @@
         <v>208.5193634033203</v>
       </c>
       <c r="AH22" s="1">
-        <v>38.8641471862793</v>
+        <v>39.09050750732422</v>
       </c>
       <c r="AI22" s="1">
-        <v>438.800048828125</v>
+        <v>439.0264282226562</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -47856,10 +47856,10 @@
         <v>222.4591217041016</v>
       </c>
       <c r="AH25" s="1">
-        <v>154.2941589355469</v>
+        <v>153.4582977294922</v>
       </c>
       <c r="AI25" s="1">
-        <v>953.8792724609375</v>
+        <v>953.0433959960938</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -47963,10 +47963,10 @@
         <v>164.4469757080078</v>
       </c>
       <c r="AH26" s="1">
-        <v>39.14244079589844</v>
+        <v>42.08004760742188</v>
       </c>
       <c r="AI26" s="1">
-        <v>433.3656311035156</v>
+        <v>436.30322265625</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -48070,10 +48070,10 @@
         <v>121.1222076416016</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.008227178826928139</v>
+        <v>0.02419460564851761</v>
       </c>
       <c r="AI27" s="1">
-        <v>825.6594848632812</v>
+        <v>825.6754760742188</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -48177,10 +48177,10 @@
         <v>91.80200958251953</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.6627964973449707</v>
+        <v>0.6630589365959167</v>
       </c>
       <c r="AI28" s="1">
-        <v>416.7572937011719</v>
+        <v>416.7575378417969</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -48284,10 +48284,10 @@
         <v>63.24314117431641</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.09294400364160538</v>
+        <v>0.09304317831993103</v>
       </c>
       <c r="AI29" s="1">
-        <v>901.89599609375</v>
+        <v>901.8961181640625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -48391,10 +48391,10 @@
         <v>126.6047134399414</v>
       </c>
       <c r="AH30" s="1">
-        <v>5.882951736450195</v>
+        <v>5.893409252166748</v>
       </c>
       <c r="AI30" s="1">
-        <v>396.6223449707031</v>
+        <v>396.6328125</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -48605,10 +48605,10 @@
         <v>4125.77490234375</v>
       </c>
       <c r="AH32" s="1">
-        <v>2051.5078125</v>
+        <v>2032.335571289062</v>
       </c>
       <c r="AI32" s="1">
-        <v>16293.4755859375</v>
+        <v>16274.3046875</v>
       </c>
     </row>
   </sheetData>
@@ -48832,10 +48832,10 @@
         <v>117.3947677612305</v>
       </c>
       <c r="AH2" s="1">
-        <v>98.88290405273438</v>
+        <v>95.32921600341797</v>
       </c>
       <c r="AI2" s="1">
-        <v>491.1215209960938</v>
+        <v>487.5678100585938</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -48939,10 +48939,10 @@
         <v>141.6787414550781</v>
       </c>
       <c r="AH3" s="1">
-        <v>40.00268936157227</v>
+        <v>40.03599166870117</v>
       </c>
       <c r="AI3" s="1">
-        <v>530.1373291015625</v>
+        <v>530.1705932617188</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -49046,10 +49046,10 @@
         <v>104.8068313598633</v>
       </c>
       <c r="AH4" s="1">
-        <v>607.1840209960938</v>
+        <v>604.105224609375</v>
       </c>
       <c r="AI4" s="1">
-        <v>791.0704956054688</v>
+        <v>787.99169921875</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -49153,10 +49153,10 @@
         <v>423.3931884765625</v>
       </c>
       <c r="AH5" s="1">
-        <v>338.0904235839844</v>
+        <v>339.6731567382812</v>
       </c>
       <c r="AI5" s="1">
-        <v>1333.128173828125</v>
+        <v>1334.7109375</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -49260,10 +49260,10 @@
         <v>10.80845069885254</v>
       </c>
       <c r="AH6" s="1">
-        <v>254.7603149414062</v>
+        <v>251.5241088867188</v>
       </c>
       <c r="AI6" s="1">
-        <v>536.8544921875</v>
+        <v>533.6182861328125</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -49367,10 +49367,10 @@
         <v>230.2256927490234</v>
       </c>
       <c r="AH7" s="1">
-        <v>41.38633346557617</v>
+        <v>41.75075912475586</v>
       </c>
       <c r="AI7" s="1">
-        <v>636.365234375</v>
+        <v>636.7296142578125</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -49474,10 +49474,10 @@
         <v>137.1462097167969</v>
       </c>
       <c r="AH8" s="1">
-        <v>89.50131988525391</v>
+        <v>91.42821502685547</v>
       </c>
       <c r="AI8" s="1">
-        <v>1909.43310546875</v>
+        <v>1911.359985351562</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -49581,10 +49581,10 @@
         <v>465.3251647949219</v>
       </c>
       <c r="AH9" s="1">
-        <v>1074.27099609375</v>
+        <v>1020.588012695312</v>
       </c>
       <c r="AI9" s="1">
-        <v>3102.73193359375</v>
+        <v>3049.049072265625</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -49688,10 +49688,10 @@
         <v>50.25577545166016</v>
       </c>
       <c r="AH10" s="1">
-        <v>57.67455291748047</v>
+        <v>56.64376831054688</v>
       </c>
       <c r="AI10" s="1">
-        <v>307.4012145996094</v>
+        <v>306.3704223632812</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -49795,10 +49795,10 @@
         <v>507.7079467773438</v>
       </c>
       <c r="AH11" s="1">
-        <v>372.6415405273438</v>
+        <v>380.9049682617188</v>
       </c>
       <c r="AI11" s="1">
-        <v>1853.038330078125</v>
+        <v>1861.3017578125</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -49902,10 +49902,10 @@
         <v>138.7724609375</v>
       </c>
       <c r="AH12" s="1">
-        <v>628.3643188476562</v>
+        <v>609.321044921875</v>
       </c>
       <c r="AI12" s="1">
-        <v>1557.452392578125</v>
+        <v>1538.4091796875</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -50009,10 +50009,10 @@
         <v>85.66226196289062</v>
       </c>
       <c r="AH13" s="1">
-        <v>497.9597473144531</v>
+        <v>509.9919738769531</v>
       </c>
       <c r="AI13" s="1">
-        <v>2011.11474609375</v>
+        <v>2023.14697265625</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -50116,10 +50116,10 @@
         <v>41.4515266418457</v>
       </c>
       <c r="AH14" s="1">
-        <v>395.9603271484375</v>
+        <v>400.619384765625</v>
       </c>
       <c r="AI14" s="1">
-        <v>838.4095458984375</v>
+        <v>843.068603515625</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -50223,10 +50223,10 @@
         <v>45.03215789794922</v>
       </c>
       <c r="AH15" s="1">
-        <v>155.3648376464844</v>
+        <v>158.1013488769531</v>
       </c>
       <c r="AI15" s="1">
-        <v>882.90234375</v>
+        <v>885.638916015625</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -50330,10 +50330,10 @@
         <v>95.25397491455078</v>
       </c>
       <c r="AH16" s="1">
-        <v>139.4469604492188</v>
+        <v>139.4827270507812</v>
       </c>
       <c r="AI16" s="1">
-        <v>1156.31103515625</v>
+        <v>1156.346923828125</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -50544,10 +50544,10 @@
         <v>1034.089599609375</v>
       </c>
       <c r="AH18" s="1">
-        <v>64.59804534912109</v>
+        <v>72.044677734375</v>
       </c>
       <c r="AI18" s="1">
-        <v>3487.267578125</v>
+        <v>3494.714111328125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -50648,13 +50648,13 @@
         <v>1362.360473632812</v>
       </c>
       <c r="AG19" s="1">
-        <v>704.50830078125</v>
+        <v>704.5084228515625</v>
       </c>
       <c r="AH19" s="1">
-        <v>206.9667053222656</v>
+        <v>193.3291778564453</v>
       </c>
       <c r="AI19" s="1">
-        <v>2273.83544921875</v>
+        <v>2260.197998046875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -50758,10 +50758,10 @@
         <v>123.9689254760742</v>
       </c>
       <c r="AH20" s="1">
-        <v>30.17830085754395</v>
+        <v>29.96091270446777</v>
       </c>
       <c r="AI20" s="1">
-        <v>887.2518920898438</v>
+        <v>887.0345458984375</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -50865,10 +50865,10 @@
         <v>440.516357421875</v>
       </c>
       <c r="AH21" s="1">
-        <v>228.2593078613281</v>
+        <v>226.4222412109375</v>
       </c>
       <c r="AI21" s="1">
-        <v>2313.34912109375</v>
+        <v>2311.511962890625</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -50972,10 +50972,10 @@
         <v>500.85498046875</v>
       </c>
       <c r="AH22" s="1">
-        <v>111.0133514404297</v>
+        <v>111.6481170654297</v>
       </c>
       <c r="AI22" s="1">
-        <v>1175.456176757812</v>
+        <v>1176.090942382812</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -51293,10 +51293,10 @@
         <v>453.3931274414062</v>
       </c>
       <c r="AH25" s="1">
-        <v>550.7848510742188</v>
+        <v>548.44091796875</v>
       </c>
       <c r="AI25" s="1">
-        <v>3195.739990234375</v>
+        <v>3193.39599609375</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -51400,10 +51400,10 @@
         <v>166.8268432617188</v>
       </c>
       <c r="AH26" s="1">
-        <v>117.4578323364258</v>
+        <v>125.6955108642578</v>
       </c>
       <c r="AI26" s="1">
-        <v>1312.023193359375</v>
+        <v>1320.260864257812</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -51507,10 +51507,10 @@
         <v>707.147705078125</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.02369504794478416</v>
+        <v>0.06847113370895386</v>
       </c>
       <c r="AI27" s="1">
-        <v>1947.10302734375</v>
+        <v>1947.147827148438</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -51614,10 +51614,10 @@
         <v>1.97240948677063</v>
       </c>
       <c r="AH28" s="1">
-        <v>1.886098027229309</v>
+        <v>1.886834025382996</v>
       </c>
       <c r="AI28" s="1">
-        <v>1273.267211914062</v>
+        <v>1273.267944335938</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -51721,10 +51721,10 @@
         <v>4.191800117492676</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.266024649143219</v>
+        <v>0.266302764415741</v>
       </c>
       <c r="AI29" s="1">
-        <v>2663.33056640625</v>
+        <v>2663.330810546875</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -51828,10 +51828,10 @@
         <v>295.6704406738281</v>
       </c>
       <c r="AH30" s="1">
-        <v>16.83258247375488</v>
+        <v>16.86190795898438</v>
       </c>
       <c r="AI30" s="1">
-        <v>1042.582153320312</v>
+        <v>1042.611450195312</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -52042,10 +52042,10 @@
         <v>7096.0205078125</v>
       </c>
       <c r="AH32" s="1">
-        <v>6119.75830078125</v>
+        <v>6066.12451171875</v>
       </c>
       <c r="AI32" s="1">
-        <v>45221.68359375</v>
+        <v>45168.05859375</v>
       </c>
     </row>
   </sheetData>
@@ -52269,10 +52269,10 @@
         <v>76.20712280273438</v>
       </c>
       <c r="AH2" s="1">
-        <v>53.14632797241211</v>
+        <v>51.71984481811523</v>
       </c>
       <c r="AI2" s="1">
-        <v>263.5847473144531</v>
+        <v>262.1582641601562</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -52376,10 +52376,10 @@
         <v>155.2769622802734</v>
       </c>
       <c r="AH3" s="1">
-        <v>25.93380546569824</v>
+        <v>25.94718742370605</v>
       </c>
       <c r="AI3" s="1">
-        <v>370.7759399414062</v>
+        <v>370.789306640625</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -52483,10 +52483,10 @@
         <v>39.29525756835938</v>
       </c>
       <c r="AH4" s="1">
-        <v>188.6439971923828</v>
+        <v>187.4082336425781</v>
       </c>
       <c r="AI4" s="1">
-        <v>242.2843170166016</v>
+        <v>241.0485534667969</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -52590,10 +52590,10 @@
         <v>60.6094970703125</v>
       </c>
       <c r="AH5" s="1">
-        <v>142.6652221679688</v>
+        <v>143.2986145019531</v>
       </c>
       <c r="AI5" s="1">
-        <v>722.0313720703125</v>
+        <v>722.664794921875</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -52697,10 +52697,10 @@
         <v>5.626346588134766</v>
       </c>
       <c r="AH6" s="1">
-        <v>102.9591751098633</v>
+        <v>101.6587295532227</v>
       </c>
       <c r="AI6" s="1">
-        <v>233.4928283691406</v>
+        <v>232.1923828125</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -52804,10 +52804,10 @@
         <v>22.70856857299805</v>
       </c>
       <c r="AH7" s="1">
-        <v>20.27677154541016</v>
+        <v>20.42280387878418</v>
       </c>
       <c r="AI7" s="1">
-        <v>666.8258056640625</v>
+        <v>666.9718017578125</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -52911,10 +52911,10 @@
         <v>171.3390045166016</v>
       </c>
       <c r="AH8" s="1">
-        <v>28.77528953552246</v>
+        <v>29.5494213104248</v>
       </c>
       <c r="AI8" s="1">
-        <v>467.4574279785156</v>
+        <v>468.2315673828125</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -53018,10 +53018,10 @@
         <v>381.7456359863281</v>
       </c>
       <c r="AH9" s="1">
-        <v>392.6763916015625</v>
+        <v>371.0858154296875</v>
       </c>
       <c r="AI9" s="1">
-        <v>1125.341918945312</v>
+        <v>1103.751342773438</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -53125,10 +53125,10 @@
         <v>17.53194236755371</v>
       </c>
       <c r="AH10" s="1">
-        <v>22.57042121887207</v>
+        <v>22.1564826965332</v>
       </c>
       <c r="AI10" s="1">
-        <v>119.0488891601562</v>
+        <v>118.6349487304688</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -53232,10 +53232,10 @@
         <v>159.7091369628906</v>
       </c>
       <c r="AH11" s="1">
-        <v>146.9961242675781</v>
+        <v>150.311279296875</v>
       </c>
       <c r="AI11" s="1">
-        <v>750.3606567382812</v>
+        <v>753.67578125</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -53339,10 +53339,10 @@
         <v>151.9567565917969</v>
       </c>
       <c r="AH12" s="1">
-        <v>233.4481506347656</v>
+        <v>225.7750854492188</v>
       </c>
       <c r="AI12" s="1">
-        <v>532.732177734375</v>
+        <v>525.05908203125</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -53446,10 +53446,10 @@
         <v>67.13936614990234</v>
       </c>
       <c r="AH13" s="1">
-        <v>184.7991027832031</v>
+        <v>189.6304321289062</v>
       </c>
       <c r="AI13" s="1">
-        <v>677.9426879882812</v>
+        <v>682.7740478515625</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -53553,10 +53553,10 @@
         <v>43.98808288574219</v>
       </c>
       <c r="AH14" s="1">
-        <v>154.3203430175781</v>
+        <v>156.1930236816406</v>
       </c>
       <c r="AI14" s="1">
-        <v>290.0207214355469</v>
+        <v>291.8934020996094</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -53660,10 +53660,10 @@
         <v>17.9278450012207</v>
       </c>
       <c r="AH15" s="1">
-        <v>61.39337921142578</v>
+        <v>62.49262237548828</v>
       </c>
       <c r="AI15" s="1">
-        <v>404.7804870605469</v>
+        <v>405.8797302246094</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -53767,10 +53767,10 @@
         <v>1.805675506591797</v>
       </c>
       <c r="AH16" s="1">
-        <v>55.88320922851562</v>
+        <v>55.89756393432617</v>
       </c>
       <c r="AI16" s="1">
-        <v>661.09423828125</v>
+        <v>661.1085815429688</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -53978,13 +53978,13 @@
         <v>988.3609619140625</v>
       </c>
       <c r="AG18" s="1">
-        <v>451.786376953125</v>
+        <v>451.7863159179688</v>
       </c>
       <c r="AH18" s="1">
-        <v>22.80922889709473</v>
+        <v>25.79690742492676</v>
       </c>
       <c r="AI18" s="1">
-        <v>1462.95654296875</v>
+        <v>1465.944213867188</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -54085,13 +54085,13 @@
         <v>519.9241943359375</v>
       </c>
       <c r="AG19" s="1">
-        <v>282.8619384765625</v>
+        <v>282.8618774414062</v>
       </c>
       <c r="AH19" s="1">
-        <v>78.83816528320312</v>
+        <v>73.36662292480469</v>
       </c>
       <c r="AI19" s="1">
-        <v>881.624267578125</v>
+        <v>876.1527099609375</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -54195,10 +54195,10 @@
         <v>70.90277099609375</v>
       </c>
       <c r="AH20" s="1">
-        <v>11.58917808532715</v>
+        <v>11.50195980072021</v>
       </c>
       <c r="AI20" s="1">
-        <v>345.6971435546875</v>
+        <v>345.6099243164062</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -54302,10 +54302,10 @@
         <v>397.4471130371094</v>
       </c>
       <c r="AH21" s="1">
-        <v>81.64223480224609</v>
+        <v>80.90515899658203</v>
       </c>
       <c r="AI21" s="1">
-        <v>814.1057739257812</v>
+        <v>813.36865234375</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -54409,10 +54409,10 @@
         <v>234.8313140869141</v>
       </c>
       <c r="AH22" s="1">
-        <v>42.81305694580078</v>
+        <v>43.06773376464844</v>
       </c>
       <c r="AI22" s="1">
-        <v>455.2887878417969</v>
+        <v>455.54345703125</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -54730,10 +54730,10 @@
         <v>288.6494750976562</v>
       </c>
       <c r="AH25" s="1">
-        <v>179.6168670654297</v>
+        <v>178.6764526367188</v>
       </c>
       <c r="AI25" s="1">
-        <v>1055.5517578125</v>
+        <v>1054.611328125</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -54837,10 +54837,10 @@
         <v>73.72041320800781</v>
       </c>
       <c r="AH26" s="1">
-        <v>44.21442794799805</v>
+        <v>47.51948547363281</v>
       </c>
       <c r="AI26" s="1">
-        <v>502.3071899414062</v>
+        <v>505.6122436523438</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -54944,10 +54944,10 @@
         <v>348.30224609375</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.009465477429330349</v>
+        <v>0.02743018791079521</v>
       </c>
       <c r="AI27" s="1">
-        <v>815.6981811523438</v>
+        <v>815.7161865234375</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -55051,10 +55051,10 @@
         <v>75.12210083007812</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.7455015778541565</v>
+        <v>0.7457968592643738</v>
       </c>
       <c r="AI28" s="1">
-        <v>468.8563232421875</v>
+        <v>468.8566284179688</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -55158,10 +55158,10 @@
         <v>64.86365509033203</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.1061325594782829</v>
+        <v>0.1062441393733025</v>
       </c>
       <c r="AI29" s="1">
-        <v>1030.096069335938</v>
+        <v>1030.09619140625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -55265,10 +55265,10 @@
         <v>133.8060455322266</v>
       </c>
       <c r="AH30" s="1">
-        <v>6.609524250030518</v>
+        <v>6.621289730072021</v>
       </c>
       <c r="AI30" s="1">
-        <v>422.9200439453125</v>
+        <v>422.9318237304688</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -55479,10 +55479,10 @@
         <v>3939.7001953125</v>
       </c>
       <c r="AH32" s="1">
-        <v>2283.481689453125</v>
+        <v>2261.882080078125</v>
       </c>
       <c r="AI32" s="1">
-        <v>17930.693359375</v>
+        <v>17909.095703125</v>
       </c>
     </row>
   </sheetData>
@@ -55706,10 +55706,10 @@
         <v>90.408203125</v>
       </c>
       <c r="AH2" s="1">
-        <v>44.95965576171875</v>
+        <v>40.7474365234375</v>
       </c>
       <c r="AI2" s="1">
-        <v>244.7399291992188</v>
+        <v>240.5277099609375</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -55813,10 +55813,10 @@
         <v>126.4265975952148</v>
       </c>
       <c r="AH3" s="1">
-        <v>20.5591926574707</v>
+        <v>20.5986499786377</v>
       </c>
       <c r="AI3" s="1">
-        <v>322.4353942871094</v>
+        <v>322.474853515625</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -55920,10 +55920,10 @@
         <v>53.77870559692383</v>
       </c>
       <c r="AH4" s="1">
-        <v>274.1686706542969</v>
+        <v>270.5234375</v>
       </c>
       <c r="AI4" s="1">
-        <v>368.7280883789062</v>
+        <v>365.0828552246094</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -56027,10 +56027,10 @@
         <v>263.3741149902344</v>
       </c>
       <c r="AH5" s="1">
-        <v>135.5138092041016</v>
+        <v>137.3873443603516</v>
       </c>
       <c r="AI5" s="1">
-        <v>599.0999145507812</v>
+        <v>600.9734497070312</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -56134,10 +56134,10 @@
         <v>42.73491287231445</v>
       </c>
       <c r="AH6" s="1">
-        <v>97.19078063964844</v>
+        <v>93.33128356933594</v>
       </c>
       <c r="AI6" s="1">
-        <v>159.1870422363281</v>
+        <v>155.3275451660156</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -56241,10 +56241,10 @@
         <v>261.7975769042969</v>
       </c>
       <c r="AH7" s="1">
-        <v>28.66437149047852</v>
+        <v>29.09629821777344</v>
       </c>
       <c r="AI7" s="1">
-        <v>446.4718627929688</v>
+        <v>446.90380859375</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -56348,10 +56348,10 @@
         <v>242.4240875244141</v>
       </c>
       <c r="AH8" s="1">
-        <v>78.63112640380859</v>
+        <v>80.91341400146484</v>
       </c>
       <c r="AI8" s="1">
-        <v>1750.625244140625</v>
+        <v>1752.907592773438</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -56455,10 +56455,10 @@
         <v>870.4402465820312</v>
       </c>
       <c r="AH9" s="1">
-        <v>717.1817626953125</v>
+        <v>653.6187744140625</v>
       </c>
       <c r="AI9" s="1">
-        <v>2174.263671875</v>
+        <v>2110.70068359375</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -56562,10 +56562,10 @@
         <v>54.85975646972656</v>
       </c>
       <c r="AH10" s="1">
-        <v>28.46291923522949</v>
+        <v>27.2419605255127</v>
       </c>
       <c r="AI10" s="1">
-        <v>165.6506958007812</v>
+        <v>164.4297332763672</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -56669,10 +56669,10 @@
         <v>588.4707641601562</v>
       </c>
       <c r="AH11" s="1">
-        <v>216.4776763916016</v>
+        <v>226.2675018310547</v>
       </c>
       <c r="AI11" s="1">
-        <v>1005.274047851562</v>
+        <v>1015.06396484375</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -56776,10 +56776,10 @@
         <v>426.190673828125</v>
       </c>
       <c r="AH12" s="1">
-        <v>396.9471740722656</v>
+        <v>374.3502807617188</v>
       </c>
       <c r="AI12" s="1">
-        <v>871.8638305664062</v>
+        <v>849.2669677734375</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -56883,10 +56883,10 @@
         <v>481.5869140625</v>
       </c>
       <c r="AH13" s="1">
-        <v>320.9632263183594</v>
+        <v>335.2370300292969</v>
       </c>
       <c r="AI13" s="1">
-        <v>1046.814697265625</v>
+        <v>1061.08837890625</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -56990,10 +56990,10 @@
         <v>170.7496185302734</v>
       </c>
       <c r="AH14" s="1">
-        <v>213.795654296875</v>
+        <v>219.3279876708984</v>
       </c>
       <c r="AI14" s="1">
-        <v>414.1326293945312</v>
+        <v>419.6649780273438</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -57097,10 +57097,10 @@
         <v>133.5101928710938</v>
       </c>
       <c r="AH15" s="1">
-        <v>77.08875274658203</v>
+        <v>80.3353271484375</v>
       </c>
       <c r="AI15" s="1">
-        <v>426.8101806640625</v>
+        <v>430.0567626953125</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -57204,10 +57204,10 @@
         <v>25.15008926391602</v>
       </c>
       <c r="AH16" s="1">
-        <v>57.39545440673828</v>
+        <v>57.43779754638672</v>
       </c>
       <c r="AI16" s="1">
-        <v>513.5889282226562</v>
+        <v>513.6312866210938</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -57418,10 +57418,10 @@
         <v>1011.81103515625</v>
       </c>
       <c r="AH18" s="1">
-        <v>26.74712753295898</v>
+        <v>35.56754684448242</v>
       </c>
       <c r="AI18" s="1">
-        <v>1810.767456054688</v>
+        <v>1819.587890625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -57522,13 +57522,13 @@
         <v>1144.577270507812</v>
       </c>
       <c r="AG19" s="1">
-        <v>302.8108520507812</v>
+        <v>302.8107299804688</v>
       </c>
       <c r="AH19" s="1">
-        <v>134.5631103515625</v>
+        <v>118.4096527099609</v>
       </c>
       <c r="AI19" s="1">
-        <v>1581.951171875</v>
+        <v>1565.797607421875</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -57632,10 +57632,10 @@
         <v>100.1478958129883</v>
       </c>
       <c r="AH20" s="1">
-        <v>11.09005832672119</v>
+        <v>10.83256530761719</v>
       </c>
       <c r="AI20" s="1">
-        <v>339.16064453125</v>
+        <v>338.9031372070312</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -57739,10 +57739,10 @@
         <v>321.2377624511719</v>
       </c>
       <c r="AH21" s="1">
-        <v>132.7830352783203</v>
+        <v>130.6070861816406</v>
       </c>
       <c r="AI21" s="1">
-        <v>1521.37255859375</v>
+        <v>1519.196533203125</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -57846,10 +57846,10 @@
         <v>277.5206909179688</v>
       </c>
       <c r="AH22" s="1">
-        <v>42.1435432434082</v>
+        <v>42.89541625976562</v>
       </c>
       <c r="AI22" s="1">
-        <v>430.7042541503906</v>
+        <v>431.4561157226562</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -58167,10 +58167,10 @@
         <v>563.5715942382812</v>
       </c>
       <c r="AH25" s="1">
-        <v>240.2507629394531</v>
+        <v>237.4744262695312</v>
       </c>
       <c r="AI25" s="1">
-        <v>1424.96630859375</v>
+        <v>1422.18994140625</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -58274,10 +58274,10 @@
         <v>224.3868865966797</v>
       </c>
       <c r="AH26" s="1">
-        <v>65.45105743408203</v>
+        <v>75.20846557617188</v>
       </c>
       <c r="AI26" s="1">
-        <v>587.1453857421875</v>
+        <v>596.90283203125</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -58381,10 +58381,10 @@
         <v>158.9806671142578</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.008460435084998608</v>
+        <v>0.0614970326423645</v>
       </c>
       <c r="AI27" s="1">
-        <v>916.9981689453125</v>
+        <v>917.0512084960938</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -58488,10 +58488,10 @@
         <v>125.6030654907227</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.664155125617981</v>
+        <v>0.6650269031524658</v>
       </c>
       <c r="AI28" s="1">
-        <v>417.5723571777344</v>
+        <v>417.5732421875</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -58595,10 +58595,10 @@
         <v>52.40201568603516</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.09541931748390198</v>
+        <v>0.09574873000383377</v>
       </c>
       <c r="AI29" s="1">
-        <v>925.5431518554688</v>
+        <v>925.54345703125</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -58702,10 +58702,10 @@
         <v>157.8336486816406</v>
       </c>
       <c r="AH30" s="1">
-        <v>6.007369041442871</v>
+        <v>6.04210376739502</v>
       </c>
       <c r="AI30" s="1">
-        <v>405.3740234375</v>
+        <v>405.4087524414062</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -58913,13 +58913,13 @@
         <v>12153.8017578125</v>
       </c>
       <c r="AG32" s="1">
-        <v>7420.55322265625</v>
+        <v>7420.552734375</v>
       </c>
       <c r="AH32" s="1">
-        <v>3367.804443359375</v>
+        <v>3304.27392578125</v>
       </c>
       <c r="AI32" s="1">
-        <v>22942.16015625</v>
+        <v>22878.630859375</v>
       </c>
     </row>
   </sheetData>
@@ -59143,10 +59143,10 @@
         <v>24.94784355163574</v>
       </c>
       <c r="AH2" s="1">
-        <v>25.65798759460449</v>
+        <v>24.53028297424316</v>
       </c>
       <c r="AI2" s="1">
-        <v>131.932373046875</v>
+        <v>130.8046569824219</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -59250,10 +59250,10 @@
         <v>168.4596557617188</v>
       </c>
       <c r="AH3" s="1">
-        <v>25.31577682495117</v>
+        <v>25.32635116577148</v>
       </c>
       <c r="AI3" s="1">
-        <v>402.0094604492188</v>
+        <v>402.02001953125</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -59357,10 +59357,10 @@
         <v>16.16965103149414</v>
       </c>
       <c r="AH4" s="1">
-        <v>186.1939849853516</v>
+        <v>185.2181243896484</v>
       </c>
       <c r="AI4" s="1">
-        <v>253.1189880371094</v>
+        <v>252.1431274414062</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -59464,10 +59464,10 @@
         <v>148.5162200927734</v>
       </c>
       <c r="AH5" s="1">
-        <v>90.18430328369141</v>
+        <v>90.68845367431641</v>
       </c>
       <c r="AI5" s="1">
-        <v>364.6155700683594</v>
+        <v>365.1197204589844</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -59571,10 +59571,10 @@
         <v>22.48126029968262</v>
       </c>
       <c r="AH6" s="1">
-        <v>58.96438217163086</v>
+        <v>57.91984939575195</v>
       </c>
       <c r="AI6" s="1">
-        <v>87.84285736083984</v>
+        <v>86.79832458496094</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -59678,10 +59678,10 @@
         <v>46.1812744140625</v>
       </c>
       <c r="AH7" s="1">
-        <v>17.86645889282227</v>
+        <v>17.98200988769531</v>
       </c>
       <c r="AI7" s="1">
-        <v>340.5433959960938</v>
+        <v>340.658935546875</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -59785,10 +59785,10 @@
         <v>39.99816513061523</v>
       </c>
       <c r="AH8" s="1">
-        <v>48.12130737304688</v>
+        <v>48.73271179199219</v>
       </c>
       <c r="AI8" s="1">
-        <v>2098.69482421875</v>
+        <v>2099.306396484375</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -59892,10 +59892,10 @@
         <v>383.0006103515625</v>
       </c>
       <c r="AH9" s="1">
-        <v>363.8282470703125</v>
+        <v>346.7523498535156</v>
       </c>
       <c r="AI9" s="1">
-        <v>1030.472045898438</v>
+        <v>1013.396118164062</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -59999,10 +59999,10 @@
         <v>8.685821533203125</v>
       </c>
       <c r="AH10" s="1">
-        <v>18.48232841491699</v>
+        <v>18.15545463562012</v>
       </c>
       <c r="AI10" s="1">
-        <v>139.9308013916016</v>
+        <v>139.6039276123047</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -60106,10 +60106,10 @@
         <v>109.5361709594727</v>
       </c>
       <c r="AH11" s="1">
-        <v>90.60002899169922</v>
+        <v>93.22248077392578</v>
       </c>
       <c r="AI11" s="1">
-        <v>462.2596740722656</v>
+        <v>464.8821411132812</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -60213,10 +60213,10 @@
         <v>152.9814758300781</v>
       </c>
       <c r="AH12" s="1">
-        <v>161.2753601074219</v>
+        <v>155.1897735595703</v>
       </c>
       <c r="AI12" s="1">
-        <v>349.5729064941406</v>
+        <v>343.4873352050781</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -60320,10 +60320,10 @@
         <v>142.5968475341797</v>
       </c>
       <c r="AH13" s="1">
-        <v>115.7014923095703</v>
+        <v>119.5319366455078</v>
       </c>
       <c r="AI13" s="1">
-        <v>371.1846008300781</v>
+        <v>375.0150451660156</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -60427,10 +60427,10 @@
         <v>65.16824340820312</v>
       </c>
       <c r="AH14" s="1">
-        <v>101.6234359741211</v>
+        <v>103.1074676513672</v>
       </c>
       <c r="AI14" s="1">
-        <v>178.6172332763672</v>
+        <v>180.1012573242188</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -60534,10 +60534,10 @@
         <v>96.65164184570312</v>
       </c>
       <c r="AH15" s="1">
-        <v>45.80896377563477</v>
+        <v>46.6839485168457</v>
       </c>
       <c r="AI15" s="1">
-        <v>292.5140991210938</v>
+        <v>293.3890991210938</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -60641,10 +60641,10 @@
         <v>10.24006366729736</v>
       </c>
       <c r="AH16" s="1">
-        <v>52.35216522216797</v>
+        <v>52.36352157592773</v>
       </c>
       <c r="AI16" s="1">
-        <v>496.7634887695312</v>
+        <v>496.7748413085938</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -60852,13 +60852,13 @@
         <v>723.7752685546875</v>
       </c>
       <c r="AG18" s="1">
-        <v>335.6796569824219</v>
+        <v>335.6796264648438</v>
       </c>
       <c r="AH18" s="1">
-        <v>13.98104953765869</v>
+        <v>16.34411239624023</v>
       </c>
       <c r="AI18" s="1">
-        <v>1073.43603515625</v>
+        <v>1075.799072265625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -60962,10 +60962,10 @@
         <v>423.5824584960938</v>
       </c>
       <c r="AH19" s="1">
-        <v>73.06308746337891</v>
+        <v>68.73544311523438</v>
       </c>
       <c r="AI19" s="1">
-        <v>1009.995727539062</v>
+        <v>1005.668090820312</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -61069,10 +61069,10 @@
         <v>33.83195495605469</v>
       </c>
       <c r="AH20" s="1">
-        <v>7.871671676635742</v>
+        <v>7.80268669128418</v>
       </c>
       <c r="AI20" s="1">
-        <v>252.9690246582031</v>
+        <v>252.9000396728516</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -61176,10 +61176,10 @@
         <v>357.6514892578125</v>
       </c>
       <c r="AH21" s="1">
-        <v>60.7004508972168</v>
+        <v>60.11746978759766</v>
       </c>
       <c r="AI21" s="1">
-        <v>583.729736328125</v>
+        <v>583.1467895507812</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -61283,10 +61283,10 @@
         <v>187.8317260742188</v>
       </c>
       <c r="AH22" s="1">
-        <v>30.76246643066406</v>
+        <v>30.96389961242676</v>
       </c>
       <c r="AI22" s="1">
-        <v>309.7564086914062</v>
+        <v>309.9578552246094</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -61604,10 +61604,10 @@
         <v>201.3262634277344</v>
       </c>
       <c r="AH25" s="1">
-        <v>127.6563568115234</v>
+        <v>126.9125518798828</v>
       </c>
       <c r="AI25" s="1">
-        <v>761.12646484375</v>
+        <v>760.3826904296875</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -61711,10 +61711,10 @@
         <v>110.7519683837891</v>
       </c>
       <c r="AH26" s="1">
-        <v>31.30985641479492</v>
+        <v>33.9239501953125</v>
       </c>
       <c r="AI26" s="1">
-        <v>337.1626892089844</v>
+        <v>339.7767944335938</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -61818,10 +61818,10 @@
         <v>66.09963226318359</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.006305847316980362</v>
+        <v>0.02051479369401932</v>
       </c>
       <c r="AI27" s="1">
-        <v>623.7481689453125</v>
+        <v>623.7623291015625</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -61925,10 +61925,10 @@
         <v>7.2061448097229</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.4910317361354828</v>
+        <v>0.4912652969360352</v>
       </c>
       <c r="AI28" s="1">
-        <v>310.3006286621094</v>
+        <v>310.3008728027344</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -62032,10 +62032,10 @@
         <v>15.90359687805176</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.0697358101606369</v>
+        <v>0.06982406228780746</v>
       </c>
       <c r="AI29" s="1">
-        <v>676.9026489257812</v>
+        <v>676.9027709960938</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -62139,10 +62139,10 @@
         <v>94.38269805908203</v>
       </c>
       <c r="AH30" s="1">
-        <v>4.361198425292969</v>
+        <v>4.370504379272461</v>
       </c>
       <c r="AI30" s="1">
-        <v>286.3495483398438</v>
+        <v>286.35888671875</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -62353,10 +62353,10 @@
         <v>3467.342041015625</v>
       </c>
       <c r="AH32" s="1">
-        <v>1752.24951171875</v>
+        <v>1735.156982421875</v>
       </c>
       <c r="AI32" s="1">
-        <v>14712.76171875</v>
+        <v>14695.6689453125</v>
       </c>
     </row>
   </sheetData>
@@ -62580,10 +62580,10 @@
         <v>15.76965999603271</v>
       </c>
       <c r="AH2" s="1">
-        <v>28.96860122680664</v>
+        <v>28.62555694580078</v>
       </c>
       <c r="AI2" s="1">
-        <v>232.6326751708984</v>
+        <v>232.2896270751953</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -62687,10 +62687,10 @@
         <v>24.17301559448242</v>
       </c>
       <c r="AH3" s="1">
-        <v>22.99992179870605</v>
+        <v>23.00313377380371</v>
       </c>
       <c r="AI3" s="1">
-        <v>589.53466796875</v>
+        <v>589.5379028320312</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -62794,10 +62794,10 @@
         <v>10.98825359344482</v>
       </c>
       <c r="AH4" s="1">
-        <v>96.53443145751953</v>
+        <v>96.23695373535156</v>
       </c>
       <c r="AI4" s="1">
-        <v>130.0462646484375</v>
+        <v>129.748779296875</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -62901,10 +62901,10 @@
         <v>143.4787750244141</v>
       </c>
       <c r="AH5" s="1">
-        <v>93.44773864746094</v>
+        <v>93.60101318359375</v>
       </c>
       <c r="AI5" s="1">
-        <v>371.2527465820312</v>
+        <v>371.4060363769531</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -63008,10 +63008,10 @@
         <v>5.150220394134521</v>
       </c>
       <c r="AH6" s="1">
-        <v>63.83475494384766</v>
+        <v>63.52102661132812</v>
       </c>
       <c r="AI6" s="1">
-        <v>118.1622619628906</v>
+        <v>117.8485260009766</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -63115,10 +63115,10 @@
         <v>16.1581974029541</v>
       </c>
       <c r="AH7" s="1">
-        <v>11.47908401489258</v>
+        <v>11.5142765045166</v>
       </c>
       <c r="AI7" s="1">
-        <v>519.6969604492188</v>
+        <v>519.7321166992188</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -63222,10 +63222,10 @@
         <v>84.22319793701172</v>
       </c>
       <c r="AH8" s="1">
-        <v>9.877116203308105</v>
+        <v>10.06369400024414</v>
       </c>
       <c r="AI8" s="1">
-        <v>158.2984619140625</v>
+        <v>158.4850463867188</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -63329,10 +63329,10 @@
         <v>163.6073150634766</v>
       </c>
       <c r="AH9" s="1">
-        <v>215.257568359375</v>
+        <v>210.059814453125</v>
       </c>
       <c r="AI9" s="1">
-        <v>622.2756958007812</v>
+        <v>617.0779418945312</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -63436,10 +63436,10 @@
         <v>7.100292682647705</v>
       </c>
       <c r="AH10" s="1">
-        <v>14.81449031829834</v>
+        <v>14.71494960784912</v>
       </c>
       <c r="AI10" s="1">
-        <v>125.3274841308594</v>
+        <v>125.2279510498047</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -63543,10 +63543,10 @@
         <v>76.17021179199219</v>
       </c>
       <c r="AH11" s="1">
-        <v>49.40997314453125</v>
+        <v>50.20923614501953</v>
       </c>
       <c r="AI11" s="1">
-        <v>270.4314575195312</v>
+        <v>271.230712890625</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -63650,10 +63650,10 @@
         <v>82.78341674804688</v>
       </c>
       <c r="AH12" s="1">
-        <v>108.974250793457</v>
+        <v>107.1238861083984</v>
       </c>
       <c r="AI12" s="1">
-        <v>242.2574462890625</v>
+        <v>240.4070892333984</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -63757,10 +63757,10 @@
         <v>53.12131881713867</v>
       </c>
       <c r="AH13" s="1">
-        <v>63.98091125488281</v>
+        <v>65.1463623046875</v>
       </c>
       <c r="AI13" s="1">
-        <v>221.2874755859375</v>
+        <v>222.4529113769531</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -63864,10 +63864,10 @@
         <v>37.30279159545898</v>
       </c>
       <c r="AH14" s="1">
-        <v>84.64539337158203</v>
+        <v>85.09725189208984</v>
       </c>
       <c r="AI14" s="1">
-        <v>143.3414916992188</v>
+        <v>143.7933349609375</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -63971,10 +63971,10 @@
         <v>17.8550968170166</v>
       </c>
       <c r="AH15" s="1">
-        <v>37.47174835205078</v>
+        <v>37.73673248291016</v>
       </c>
       <c r="AI15" s="1">
-        <v>199.8098297119141</v>
+        <v>200.0748138427734</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -64078,10 +64078,10 @@
         <v>17.30437278747559</v>
       </c>
       <c r="AH16" s="1">
-        <v>31.3096866607666</v>
+        <v>31.31314659118652</v>
       </c>
       <c r="AI16" s="1">
-        <v>279.892578125</v>
+        <v>279.8960266113281</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -64292,10 +64292,10 @@
         <v>379.5185546875</v>
       </c>
       <c r="AH18" s="1">
-        <v>10.95328426361084</v>
+        <v>11.67357635498047</v>
       </c>
       <c r="AI18" s="1">
-        <v>907.0206298828125</v>
+        <v>907.7409057617188</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -64399,10 +64399,10 @@
         <v>165.6216125488281</v>
       </c>
       <c r="AH19" s="1">
-        <v>41.84368515014648</v>
+        <v>40.52456283569336</v>
       </c>
       <c r="AI19" s="1">
-        <v>542.6260986328125</v>
+        <v>541.3069458007812</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -64506,10 +64506,10 @@
         <v>66.83595275878906</v>
       </c>
       <c r="AH20" s="1">
-        <v>8.569597244262695</v>
+        <v>8.54857063293457</v>
       </c>
       <c r="AI20" s="1">
-        <v>261.4494018554688</v>
+        <v>261.4283752441406</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -64613,10 +64613,10 @@
         <v>256.7503662109375</v>
       </c>
       <c r="AH21" s="1">
-        <v>41.33651351928711</v>
+        <v>41.15881729125977</v>
       </c>
       <c r="AI21" s="1">
-        <v>435.3934936523438</v>
+        <v>435.2157897949219</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -64720,10 +64720,10 @@
         <v>174.1832427978516</v>
       </c>
       <c r="AH22" s="1">
-        <v>29.0601978302002</v>
+        <v>29.12159729003906</v>
       </c>
       <c r="AI22" s="1">
-        <v>309.1466064453125</v>
+        <v>309.2080078125</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -65041,10 +65041,10 @@
         <v>119.4573745727539</v>
       </c>
       <c r="AH25" s="1">
-        <v>89.92333221435547</v>
+        <v>89.69661712646484</v>
       </c>
       <c r="AI25" s="1">
-        <v>582.2103271484375</v>
+        <v>581.9835815429688</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -65148,10 +65148,10 @@
         <v>91.62310028076172</v>
       </c>
       <c r="AH26" s="1">
-        <v>27.05755424499512</v>
+        <v>27.85436248779297</v>
       </c>
       <c r="AI26" s="1">
-        <v>299.7055358886719</v>
+        <v>300.5023498535156</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -65255,10 +65255,10 @@
         <v>198.3235168457031</v>
       </c>
       <c r="AH27" s="1">
-        <v>0.00684471195563674</v>
+        <v>0.01117578148841858</v>
       </c>
       <c r="AI27" s="1">
-        <v>616.287841796875</v>
+        <v>616.2921752929688</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -65362,10 +65362,10 @@
         <v>63.31102752685547</v>
       </c>
       <c r="AH28" s="1">
-        <v>0.5541245341300964</v>
+        <v>0.554195761680603</v>
       </c>
       <c r="AI28" s="1">
-        <v>348.4543151855469</v>
+        <v>348.4544067382812</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -65469,10 +65469,10 @@
         <v>0.8752630949020386</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.0798904225230217</v>
+        <v>0.07991732656955719</v>
       </c>
       <c r="AI29" s="1">
-        <v>845.2976684570312</v>
+        <v>845.2977294921875</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -65576,10 +65576,10 @@
         <v>106.6300048828125</v>
       </c>
       <c r="AH30" s="1">
-        <v>4.960487365722656</v>
+        <v>4.963323593139648</v>
       </c>
       <c r="AI30" s="1">
-        <v>327.1067504882812</v>
+        <v>327.1095886230469</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -65790,10 +65790,10 @@
         <v>2585.500732421875</v>
       </c>
       <c r="AH32" s="1">
-        <v>1187.350952148438</v>
+        <v>1182.154052734375</v>
       </c>
       <c r="AI32" s="1">
-        <v>11245.8056640625</v>
+        <v>11240.6083984375</v>
       </c>
     </row>
   </sheetData>

--- a/outdata/supp2014.xlsx
+++ b/outdata/supp2014.xlsx
@@ -2060,7 +2060,7 @@
         <v>5.711956977844238</v>
       </c>
       <c r="S15" s="1">
-        <v>0.9679307341575623</v>
+        <v>0.967930793762207</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>15048.59375</v>
       </c>
       <c r="S18" s="1">
-        <v>85.96739196777344</v>
+        <v>85.96739959716797</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>10837.2265625</v>
+        <v>10837.2275390625</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>10937.5068359375</v>
+        <v>10937.5078125</v>
       </c>
       <c r="AG19" s="1">
-        <v>420.0372924804688</v>
+        <v>420.0390014648438</v>
       </c>
       <c r="AH19" s="1">
         <v>1108.4345703125</v>
       </c>
       <c r="AI19" s="1">
-        <v>12465.978515625</v>
+        <v>12465.9814453125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2595,7 +2595,7 @@
         <v>9.859288215637207</v>
       </c>
       <c r="S20" s="1">
-        <v>145.2324371337891</v>
+        <v>145.2324523925781</v>
       </c>
       <c r="T20" s="1">
         <v>2781.904541015625</v>
@@ -2702,7 +2702,7 @@
         <v>30.0613842010498</v>
       </c>
       <c r="S21" s="1">
-        <v>3.397420167922974</v>
+        <v>3.397420406341553</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>472.8690795898438</v>
       </c>
       <c r="S23" s="1">
-        <v>83.0833740234375</v>
+        <v>83.08338165283203</v>
       </c>
       <c r="T23" s="1">
         <v>25.17365646362305</v>
@@ -3130,7 +3130,7 @@
         <v>741.31982421875</v>
       </c>
       <c r="S25" s="1">
-        <v>89.05950927734375</v>
+        <v>89.05951690673828</v>
       </c>
       <c r="T25" s="1">
         <v>29.69316291809082</v>
@@ -3237,7 +3237,7 @@
         <v>44.25251388549805</v>
       </c>
       <c r="S26" s="1">
-        <v>84.22167205810547</v>
+        <v>84.2216796875</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>16457.275390625</v>
       </c>
       <c r="S32" s="1">
-        <v>11345.1630859375</v>
+        <v>11345.1640625</v>
       </c>
       <c r="T32" s="1">
         <v>2859.029541015625</v>
@@ -3921,7 +3921,7 @@
         <v>151657.53125</v>
       </c>
       <c r="AG32" s="1">
-        <v>16402.083984375</v>
+        <v>16402.0859375</v>
       </c>
       <c r="AH32" s="1">
         <v>28858.421875</v>
@@ -5497,7 +5497,7 @@
         <v>0.3390249013900757</v>
       </c>
       <c r="S15" s="1">
-        <v>0.05446005612611771</v>
+        <v>0.054460059851408</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>1.171829104423523</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.8679712414741516</v>
+        <v>0.8679713010787964</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -5818,7 +5818,7 @@
         <v>893.1873168945312</v>
       </c>
       <c r="S18" s="1">
-        <v>4.836905479431152</v>
+        <v>4.836905956268311</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>609.750244140625</v>
+        <v>609.7503051757812</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -5964,16 +5964,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>621.672607421875</v>
+        <v>621.6726684570312</v>
       </c>
       <c r="AG19" s="1">
-        <v>277.559814453125</v>
+        <v>277.5599060058594</v>
       </c>
       <c r="AH19" s="1">
         <v>79.61927032470703</v>
       </c>
       <c r="AI19" s="1">
-        <v>978.8516845703125</v>
+        <v>978.851806640625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -6056,7 +6056,7 @@
         <v>19.67569732666016</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.862475395202637</v>
+        <v>9.862476348876953</v>
       </c>
       <c r="AB20" s="1">
         <v>0.3164021074771881</v>
@@ -6163,7 +6163,7 @@
         <v>0.5559067130088806</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.473307371139526</v>
+        <v>3.473307609558105</v>
       </c>
       <c r="AB21" s="1">
         <v>1.672466635704041</v>
@@ -6353,7 +6353,7 @@
         <v>28.06645774841309</v>
       </c>
       <c r="S23" s="1">
-        <v>4.674637317657471</v>
+        <v>4.674637794494629</v>
       </c>
       <c r="T23" s="1">
         <v>2.172097206115723</v>
@@ -6674,7 +6674,7 @@
         <v>2.626543521881104</v>
       </c>
       <c r="S26" s="1">
-        <v>4.738682746887207</v>
+        <v>4.738683223724365</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>306.2463073730469</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.0282196830958128</v>
+        <v>0.02821968495845795</v>
       </c>
       <c r="AB26" s="1">
         <v>0.0002260014734929428</v>
@@ -7316,7 +7316,7 @@
         <v>976.7974853515625</v>
       </c>
       <c r="S32" s="1">
-        <v>638.3290405273438</v>
+        <v>638.3291015625</v>
       </c>
       <c r="T32" s="1">
         <v>246.6900024414062</v>
@@ -9404,13 +9404,13 @@
         <v>324.1600036621094</v>
       </c>
       <c r="AG19" s="1">
-        <v>272.0167846679688</v>
+        <v>272.0168151855469</v>
       </c>
       <c r="AH19" s="1">
         <v>50.57313537597656</v>
       </c>
       <c r="AI19" s="1">
-        <v>646.7498779296875</v>
+        <v>646.75</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -12585,7 +12585,7 @@
         <v>0.9133636355400085</v>
       </c>
       <c r="S17" s="1">
-        <v>0.7922093868255615</v>
+        <v>0.7922093272209167</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -12841,13 +12841,13 @@
         <v>549.8983154296875</v>
       </c>
       <c r="AG19" s="1">
-        <v>476.0792541503906</v>
+        <v>476.0792846679688</v>
       </c>
       <c r="AH19" s="1">
         <v>96.50523376464844</v>
       </c>
       <c r="AI19" s="1">
-        <v>1122.482788085938</v>
+        <v>1122.48291015625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -13013,7 +13013,7 @@
         <v>1.618024826049805</v>
       </c>
       <c r="S21" s="1">
-        <v>0.1681438386440277</v>
+        <v>0.1681438237428665</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -13441,7 +13441,7 @@
         <v>39.90082168579102</v>
       </c>
       <c r="S25" s="1">
-        <v>4.407699584960938</v>
+        <v>4.407699108123779</v>
       </c>
       <c r="T25" s="1">
         <v>2.957833290100098</v>
@@ -14238,7 +14238,7 @@
         <v>2707.4130859375</v>
       </c>
       <c r="AI32" s="1">
-        <v>21805.986328125</v>
+        <v>21805.98828125</v>
       </c>
     </row>
   </sheetData>
@@ -16278,13 +16278,13 @@
         <v>587.386962890625</v>
       </c>
       <c r="AG19" s="1">
-        <v>134.1130981445312</v>
+        <v>134.1130523681641</v>
       </c>
       <c r="AH19" s="1">
         <v>58.24363327026367</v>
       </c>
       <c r="AI19" s="1">
-        <v>779.7437133789062</v>
+        <v>779.74365234375</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -19566,7 +19566,7 @@
         <v>600.134033203125</v>
       </c>
       <c r="S18" s="1">
-        <v>3.872038841247559</v>
+        <v>3.872039079666138</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>488.1171875</v>
+        <v>488.1172180175781</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -19712,10 +19712,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>505.073486328125</v>
+        <v>505.0735168457031</v>
       </c>
       <c r="AG19" s="1">
-        <v>448.4415893554688</v>
+        <v>448.4415283203125</v>
       </c>
       <c r="AH19" s="1">
         <v>102.2610626220703</v>
@@ -19780,7 +19780,7 @@
         <v>0.3931858837604523</v>
       </c>
       <c r="S20" s="1">
-        <v>6.541383266448975</v>
+        <v>6.541383743286133</v>
       </c>
       <c r="T20" s="1">
         <v>166.7721099853516</v>
@@ -19887,7 +19887,7 @@
         <v>1.198840260505676</v>
       </c>
       <c r="S21" s="1">
-        <v>0.1530224680900574</v>
+        <v>0.1530224829912186</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -20101,7 +20101,7 @@
         <v>18.8578987121582</v>
       </c>
       <c r="S23" s="1">
-        <v>3.742140531539917</v>
+        <v>3.742140769958496</v>
       </c>
       <c r="T23" s="1">
         <v>1.509133219718933</v>
@@ -20315,7 +20315,7 @@
         <v>29.56364250183105</v>
       </c>
       <c r="S25" s="1">
-        <v>4.01131010055542</v>
+        <v>4.011310577392578</v>
       </c>
       <c r="T25" s="1">
         <v>1.780072569847107</v>
@@ -20422,7 +20422,7 @@
         <v>1.764778852462769</v>
       </c>
       <c r="S26" s="1">
-        <v>3.793410062789917</v>
+        <v>3.793410301208496</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -21064,7 +21064,7 @@
         <v>656.3118896484375</v>
       </c>
       <c r="S32" s="1">
-        <v>510.9950256347656</v>
+        <v>510.9950561523438</v>
       </c>
       <c r="T32" s="1">
         <v>171.3956909179688</v>
@@ -23152,13 +23152,13 @@
         <v>372.4791564941406</v>
       </c>
       <c r="AG19" s="1">
-        <v>55.19440841674805</v>
+        <v>55.19439697265625</v>
       </c>
       <c r="AH19" s="1">
         <v>44.78540802001953</v>
       </c>
       <c r="AI19" s="1">
-        <v>472.458984375</v>
+        <v>472.4589538574219</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -24543,7 +24543,7 @@
         <v>4492.2958984375</v>
       </c>
       <c r="AG32" s="1">
-        <v>2386.7822265625</v>
+        <v>2386.781982421875</v>
       </c>
       <c r="AH32" s="1">
         <v>1252.087280273438</v>
@@ -26119,7 +26119,7 @@
         <v>0.5765503644943237</v>
       </c>
       <c r="S15" s="1">
-        <v>0.08632281422615051</v>
+        <v>0.08632282167673111</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -26333,7 +26333,7 @@
         <v>1.712851881980896</v>
       </c>
       <c r="S17" s="1">
-        <v>1.427544355392456</v>
+        <v>1.427544474601746</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -26440,7 +26440,7 @@
         <v>1518.966674804688</v>
       </c>
       <c r="S18" s="1">
-        <v>7.666817188262939</v>
+        <v>7.666817665100098</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -26547,7 +26547,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>966.4947509765625</v>
+        <v>966.4948120117188</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -26586,10 +26586,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>982.5914916992188</v>
+        <v>982.591552734375</v>
       </c>
       <c r="AG19" s="1">
-        <v>459.0435791015625</v>
+        <v>459.0434265136719</v>
       </c>
       <c r="AH19" s="1">
         <v>133.0180511474609</v>
@@ -26761,7 +26761,7 @@
         <v>3.034319639205933</v>
       </c>
       <c r="S21" s="1">
-        <v>0.3029915988445282</v>
+        <v>0.3029916286468506</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>47.73020172119141</v>
       </c>
       <c r="S23" s="1">
-        <v>7.40961217880249</v>
+        <v>7.409612655639648</v>
       </c>
       <c r="T23" s="1">
         <v>3.594685554504395</v>
@@ -27189,7 +27189,7 @@
         <v>74.82692718505859</v>
       </c>
       <c r="S25" s="1">
-        <v>7.942580699920654</v>
+        <v>7.942581176757812</v>
       </c>
       <c r="T25" s="1">
         <v>4.240050792694092</v>
@@ -27296,7 +27296,7 @@
         <v>4.46673583984375</v>
       </c>
       <c r="S26" s="1">
-        <v>7.511127948760986</v>
+        <v>7.511128425598145</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -27938,7 +27938,7 @@
         <v>1661.1552734375</v>
       </c>
       <c r="S32" s="1">
-        <v>1011.7939453125</v>
+        <v>1011.794006347656</v>
       </c>
       <c r="T32" s="1">
         <v>408.2566223144531</v>
@@ -29556,7 +29556,7 @@
         <v>0.07258129864931107</v>
       </c>
       <c r="S15" s="1">
-        <v>0.01459355559200048</v>
+        <v>0.01459355372935534</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>0.215629056096077</v>
       </c>
       <c r="S17" s="1">
-        <v>0.2413376718759537</v>
+        <v>0.2413376569747925</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -29877,7 +29877,7 @@
         <v>191.2210693359375</v>
       </c>
       <c r="S18" s="1">
-        <v>1.296136021614075</v>
+        <v>1.296135902404785</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -29984,7 +29984,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>163.3935699462891</v>
+        <v>163.3935546875</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -30023,16 +30023,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>166.7914581298828</v>
+        <v>166.7914428710938</v>
       </c>
       <c r="AG19" s="1">
-        <v>81.21761322021484</v>
+        <v>81.21759033203125</v>
       </c>
       <c r="AH19" s="1">
         <v>19.13202667236328</v>
       </c>
       <c r="AI19" s="1">
-        <v>267.14111328125</v>
+        <v>267.1410522460938</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -30091,7 +30091,7 @@
         <v>0.125281035900116</v>
       </c>
       <c r="S20" s="1">
-        <v>2.189679145812988</v>
+        <v>2.189678907394409</v>
       </c>
       <c r="T20" s="1">
         <v>65.35388946533203</v>
@@ -30198,7 +30198,7 @@
         <v>0.3819871842861176</v>
       </c>
       <c r="S21" s="1">
-        <v>0.05122312530875206</v>
+        <v>0.05122312158346176</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -30412,7 +30412,7 @@
         <v>6.008703231811523</v>
       </c>
       <c r="S23" s="1">
-        <v>1.2526535987854</v>
+        <v>1.252653479576111</v>
       </c>
       <c r="T23" s="1">
         <v>0.5913921594619751</v>
@@ -30626,7 +30626,7 @@
         <v>9.419880867004395</v>
       </c>
       <c r="S25" s="1">
-        <v>1.342756032943726</v>
+        <v>1.342755913734436</v>
       </c>
       <c r="T25" s="1">
         <v>0.6975666880607605</v>
@@ -30733,7 +30733,7 @@
         <v>0.5623125433921814</v>
       </c>
       <c r="S26" s="1">
-        <v>1.269815683364868</v>
+        <v>1.269815564155579</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -31375,7 +31375,7 @@
         <v>209.1210327148438</v>
       </c>
       <c r="S32" s="1">
-        <v>171.0517730712891</v>
+        <v>171.0517578125</v>
       </c>
       <c r="T32" s="1">
         <v>67.16574859619141</v>
@@ -31968,7 +31968,7 @@
         <v>260.7130126953125</v>
       </c>
       <c r="AH5" s="1">
-        <v>122.2349395751953</v>
+        <v>122.2349243164062</v>
       </c>
       <c r="AI5" s="1">
         <v>446.2641296386719</v>
@@ -36900,7 +36900,7 @@
         <v>687.8818969726562</v>
       </c>
       <c r="AG19" s="1">
-        <v>15.15233421325684</v>
+        <v>15.15233612060547</v>
       </c>
       <c r="AH19" s="1">
         <v>20.65021133422852</v>
@@ -40188,7 +40188,7 @@
         <v>1975.036254882812</v>
       </c>
       <c r="S18" s="1">
-        <v>12.90833759307861</v>
+        <v>12.9083366394043</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -40295,7 +40295,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1627.251708984375</v>
+        <v>1627.251586914062</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -40337,7 +40337,7 @@
         <v>1653.913818359375</v>
       </c>
       <c r="AG19" s="1">
-        <v>286.9263305664062</v>
+        <v>286.9262084960938</v>
       </c>
       <c r="AH19" s="1">
         <v>186.6264953613281</v>
@@ -40402,7 +40402,7 @@
         <v>1.293971538543701</v>
       </c>
       <c r="S20" s="1">
-        <v>21.80721664428711</v>
+        <v>21.80721473693848</v>
       </c>
       <c r="T20" s="1">
         <v>599.7643432617188</v>
@@ -40509,7 +40509,7 @@
         <v>3.945373773574829</v>
       </c>
       <c r="S21" s="1">
-        <v>0.5101358294487</v>
+        <v>0.5101357698440552</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -40723,7 +40723,7 @@
         <v>62.06119155883789</v>
       </c>
       <c r="S23" s="1">
-        <v>12.47529220581055</v>
+        <v>12.47529125213623</v>
       </c>
       <c r="T23" s="1">
         <v>5.427311897277832</v>
@@ -40937,7 +40937,7 @@
         <v>97.29371643066406</v>
       </c>
       <c r="S25" s="1">
-        <v>13.37263107299805</v>
+        <v>13.37263011932373</v>
       </c>
       <c r="T25" s="1">
         <v>6.401694297790527</v>
@@ -41044,7 +41044,7 @@
         <v>5.807873725891113</v>
       </c>
       <c r="S26" s="1">
-        <v>12.64621162414551</v>
+        <v>12.64621067047119</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -41686,7 +41686,7 @@
         <v>2159.917236328125</v>
       </c>
       <c r="S32" s="1">
-        <v>1703.5205078125</v>
+        <v>1703.520385742188</v>
       </c>
       <c r="T32" s="1">
         <v>616.39208984375</v>
@@ -43625,7 +43625,7 @@
         <v>751.7770385742188</v>
       </c>
       <c r="S18" s="1">
-        <v>5.875894069671631</v>
+        <v>5.875893592834473</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -43732,7 +43732,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>740.727294921875</v>
+        <v>740.7272338867188</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -43771,16 +43771,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>758.419921875</v>
+        <v>758.4198608398438</v>
       </c>
       <c r="AG19" s="1">
-        <v>485.4393310546875</v>
+        <v>485.4393005371094</v>
       </c>
       <c r="AH19" s="1">
         <v>126.2174987792969</v>
       </c>
       <c r="AI19" s="1">
-        <v>1370.076782226562</v>
+        <v>1370.07666015625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -44160,7 +44160,7 @@
         <v>23.62294769287109</v>
       </c>
       <c r="S23" s="1">
-        <v>5.678771018981934</v>
+        <v>5.678770542144775</v>
       </c>
       <c r="T23" s="1">
         <v>1.933648347854614</v>
@@ -44481,7 +44481,7 @@
         <v>2.210706472396851</v>
       </c>
       <c r="S26" s="1">
-        <v>5.75657320022583</v>
+        <v>5.756572723388672</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -45123,7 +45123,7 @@
         <v>822.14990234375</v>
       </c>
       <c r="S32" s="1">
-        <v>775.4449462890625</v>
+        <v>775.4448852539062</v>
       </c>
       <c r="T32" s="1">
         <v>219.6088562011719</v>
@@ -45165,7 +45165,7 @@
         <v>16195.4833984375</v>
       </c>
       <c r="AG32" s="1">
-        <v>6271.08642578125</v>
+        <v>6271.0859375</v>
       </c>
       <c r="AH32" s="1">
         <v>3891.513916015625</v>
@@ -46955,7 +46955,7 @@
         <v>0.7814602255821228</v>
       </c>
       <c r="S17" s="1">
-        <v>0.517363965511322</v>
+        <v>0.5173639059066772</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -47062,7 +47062,7 @@
         <v>693.0032958984375</v>
       </c>
       <c r="S18" s="1">
-        <v>2.778571605682373</v>
+        <v>2.778571367263794</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -47169,7 +47169,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>350.2724914550781</v>
+        <v>350.2724609375</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -47208,10 +47208,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>361.1474914550781</v>
+        <v>361.1474609375</v>
       </c>
       <c r="AG19" s="1">
-        <v>339.6561889648438</v>
+        <v>339.6562194824219</v>
       </c>
       <c r="AH19" s="1">
         <v>67.58135986328125</v>
@@ -47597,7 +47597,7 @@
         <v>21.7761116027832</v>
       </c>
       <c r="S23" s="1">
-        <v>2.685357093811035</v>
+        <v>2.685356855392456</v>
       </c>
       <c r="T23" s="1">
         <v>1.630718231201172</v>
@@ -47918,7 +47918,7 @@
         <v>2.037874221801758</v>
       </c>
       <c r="S26" s="1">
-        <v>2.722147703170776</v>
+        <v>2.722147464752197</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -48560,7 +48560,7 @@
         <v>757.87451171875</v>
       </c>
       <c r="S32" s="1">
-        <v>366.6896057128906</v>
+        <v>366.6895751953125</v>
       </c>
       <c r="T32" s="1">
         <v>185.2043914794922</v>
@@ -50178,7 +50178,7 @@
         <v>0.7476511001586914</v>
       </c>
       <c r="S15" s="1">
-        <v>0.1162352412939072</v>
+        <v>0.1162352487444878</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -50392,7 +50392,7 @@
         <v>2.221168518066406</v>
       </c>
       <c r="S17" s="1">
-        <v>1.922214269638062</v>
+        <v>1.922214508056641</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -50499,7 +50499,7 @@
         <v>1969.74462890625</v>
       </c>
       <c r="S18" s="1">
-        <v>10.32350826263428</v>
+        <v>10.32350921630859</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -50606,7 +50606,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1301.402587890625</v>
+        <v>1301.402709960938</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -50645,7 +50645,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>1328.657104492188</v>
+        <v>1328.6572265625</v>
       </c>
       <c r="AG19" s="1">
         <v>690.6964111328125</v>
@@ -50654,7 +50654,7 @@
         <v>200.2013244628906</v>
       </c>
       <c r="AI19" s="1">
-        <v>2219.5546875</v>
+        <v>2219.554931640625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -50713,7 +50713,7 @@
         <v>1.290504693984985</v>
       </c>
       <c r="S20" s="1">
-        <v>17.44042778015137</v>
+        <v>17.4404296875</v>
       </c>
       <c r="T20" s="1">
         <v>648.5463256835938</v>
@@ -50820,7 +50820,7 @@
         <v>3.934803009033203</v>
       </c>
       <c r="S21" s="1">
-        <v>0.407983660697937</v>
+        <v>0.4079837203025818</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -51034,7 +51034,7 @@
         <v>61.89491271972656</v>
       </c>
       <c r="S23" s="1">
-        <v>9.977177619934082</v>
+        <v>9.977178573608398</v>
       </c>
       <c r="T23" s="1">
         <v>5.868743419647217</v>
@@ -51248,7 +51248,7 @@
         <v>97.03303527832031</v>
       </c>
       <c r="S25" s="1">
-        <v>10.69482707977295</v>
+        <v>10.69482803344727</v>
       </c>
       <c r="T25" s="1">
         <v>6.922377109527588</v>
@@ -51355,7 +51355,7 @@
         <v>5.792312622070312</v>
       </c>
       <c r="S26" s="1">
-        <v>10.11386966705322</v>
+        <v>10.11387062072754</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -51997,7 +51997,7 @@
         <v>2154.1298828125</v>
       </c>
       <c r="S32" s="1">
-        <v>1362.398803710938</v>
+        <v>1362.39892578125</v>
       </c>
       <c r="T32" s="1">
         <v>666.5264892578125</v>
@@ -54085,13 +54085,13 @@
         <v>464.3592224121094</v>
       </c>
       <c r="AG19" s="1">
-        <v>314.7088623046875</v>
+        <v>314.7089233398438</v>
       </c>
       <c r="AH19" s="1">
         <v>77.13165283203125</v>
       </c>
       <c r="AI19" s="1">
-        <v>856.19970703125</v>
+        <v>856.1998291015625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -55482,7 +55482,7 @@
         <v>2238.6298828125</v>
       </c>
       <c r="AI32" s="1">
-        <v>17704.16796875</v>
+        <v>17704.169921875</v>
       </c>
     </row>
   </sheetData>
@@ -57522,13 +57522,13 @@
         <v>1060.289428710938</v>
       </c>
       <c r="AG19" s="1">
-        <v>331.5578002929688</v>
+        <v>331.5576782226562</v>
       </c>
       <c r="AH19" s="1">
         <v>132.5645141601562</v>
       </c>
       <c r="AI19" s="1">
-        <v>1524.411743164062</v>
+        <v>1524.41162109375</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -60489,7 +60489,7 @@
         <v>0.1875631064176559</v>
       </c>
       <c r="S15" s="1">
-        <v>0.03882254660129547</v>
+        <v>0.03882253915071487</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -60703,7 +60703,7 @@
         <v>0.5572242140769958</v>
       </c>
       <c r="S17" s="1">
-        <v>0.6420192718505859</v>
+        <v>0.6420191526412964</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -60810,7 +60810,7 @@
         <v>494.1495361328125</v>
       </c>
       <c r="S18" s="1">
-        <v>3.448049306869507</v>
+        <v>3.448048830032349</v>
       </c>
       <c r="T18" s="1">
         <v>0</v>
@@ -60917,7 +60917,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>434.668212890625</v>
+        <v>434.6681518554688</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -60956,10 +60956,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>442.0096740722656</v>
+        <v>442.0096130371094</v>
       </c>
       <c r="AG19" s="1">
-        <v>451.9066467285156</v>
+        <v>451.9067077636719</v>
       </c>
       <c r="AH19" s="1">
         <v>69.70572662353516</v>
@@ -61024,7 +61024,7 @@
         <v>0.3237487077713013</v>
       </c>
       <c r="S20" s="1">
-        <v>5.825099945068359</v>
+        <v>5.825098991394043</v>
       </c>
       <c r="T20" s="1">
         <v>165.6371765136719</v>
@@ -61131,7 +61131,7 @@
         <v>0.9871234893798828</v>
       </c>
       <c r="S21" s="1">
-        <v>0.1362664550542831</v>
+        <v>0.1362664401531219</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -61345,7 +61345,7 @@
         <v>15.52756786346436</v>
       </c>
       <c r="S23" s="1">
-        <v>3.332375049591064</v>
+        <v>3.332374811172485</v>
       </c>
       <c r="T23" s="1">
         <v>1.498863101005554</v>
@@ -61559,7 +61559,7 @@
         <v>24.3426628112793</v>
       </c>
       <c r="S25" s="1">
-        <v>3.572070598602295</v>
+        <v>3.572070121765137</v>
       </c>
       <c r="T25" s="1">
         <v>1.767958641052246</v>
@@ -61666,7 +61666,7 @@
         <v>1.453116536140442</v>
       </c>
       <c r="S26" s="1">
-        <v>3.378030300140381</v>
+        <v>3.378029823303223</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -62308,7 +62308,7 @@
         <v>540.4063110351562</v>
       </c>
       <c r="S32" s="1">
-        <v>455.0409545898438</v>
+        <v>455.0408630371094</v>
       </c>
       <c r="T32" s="1">
         <v>170.2292633056641</v>
@@ -64396,13 +64396,13 @@
         <v>327.6896057128906</v>
       </c>
       <c r="AG19" s="1">
-        <v>158.09033203125</v>
+        <v>158.0904846191406</v>
       </c>
       <c r="AH19" s="1">
         <v>40.2227668762207</v>
       </c>
       <c r="AI19" s="1">
-        <v>526.002685546875</v>
+        <v>526.0028686523438</v>
       </c>
     </row>
     <row r="20" spans="1:35">
